--- a/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C5FBA66-63F4-46E4-8C13-AF211E8A2818}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366CD6C3-7C21-4381-BFE6-D1A8D92AF8E1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>tc={5B1E393E-188A-4FCD-87DD-803EDEB5A732}</author>
   </authors>
   <commentList>
-    <comment ref="B159" authorId="0" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+    <comment ref="B180" authorId="0" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -35,7 +35,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B160" authorId="1" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+    <comment ref="B181" authorId="1" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -43,7 +43,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B389" authorId="2" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+    <comment ref="B410" authorId="2" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="624">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -1856,6 +1856,78 @@
   </si>
   <si>
     <t>Eschscholzia californica ssp. Mexicana</t>
+  </si>
+  <si>
+    <t>BOCU just outside NE corner with a little overhang and possibly in</t>
+  </si>
+  <si>
+    <t>Conmods are starting to lose shape and are partially flopping over with a high amount of debris/dirt buildup. SW conmod is partially buried</t>
+  </si>
+  <si>
+    <t>A couple BOCUs and a possible ARPU</t>
+  </si>
+  <si>
+    <t>A couple medium sized BOCU potentails. One is for certain a BOCU if all are not and another Bouteloua species the seeded species cover would be TR</t>
+  </si>
+  <si>
+    <t>A few possible ARPUs (2 certainty) or other ARsp. (ARTE)</t>
+  </si>
+  <si>
+    <t>A few possible small SPCRs and a couple MATA seedlings all in the pits</t>
+  </si>
+  <si>
+    <t>AMIN3</t>
+  </si>
+  <si>
+    <t>Amsinckia intermedia</t>
+  </si>
+  <si>
+    <t>ANOC2</t>
+  </si>
+  <si>
+    <t>Androsace occidentalis</t>
+  </si>
+  <si>
+    <t>ATCA</t>
+  </si>
+  <si>
+    <t>Atriplex californica</t>
+  </si>
+  <si>
+    <t>Aristida species between the northeast and southeast pits possibly an ARPU if not than seeded species cover would be 0%</t>
+  </si>
+  <si>
+    <t>BOCU partially in/on the west edge of the plot and a possible ARPU</t>
+  </si>
+  <si>
+    <t>BOCUs</t>
+  </si>
+  <si>
+    <t>BOCUs with some new growth, green vegetation</t>
+  </si>
+  <si>
+    <t>CRIN8</t>
+  </si>
+  <si>
+    <t>Cryptantha intermedia</t>
+  </si>
+  <si>
+    <t>Cymopterus</t>
+  </si>
+  <si>
+    <t>Cymopterus spp.</t>
+  </si>
+  <si>
+    <t>DACA</t>
+  </si>
+  <si>
+    <t>DINE2</t>
+  </si>
+  <si>
+    <t>ERDED4</t>
+  </si>
+  <si>
+    <t>Eriogonum deflexum</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2499,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2793,13 +2865,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B159" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+  <threadedComment ref="B180" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B160" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+  <threadedComment ref="B181" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B389" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+  <threadedComment ref="B410" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
 </ThreadedComments>
@@ -2807,16 +2879,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F395"/>
+  <dimension ref="A1:F416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -3026,13 +3098,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>602</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>492</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -3046,13 +3118,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>602</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>530</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3061,18 +3133,18 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>603</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -3086,33 +3158,33 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>491</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>529</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>530</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3121,18 +3193,18 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>555</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>556</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -3146,19 +3218,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -3166,13 +3238,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -3186,13 +3258,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -3201,44 +3273,44 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>555</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>556</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>557</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>605</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>411</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>412</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -3246,33 +3318,33 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>605</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>556</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -3286,13 +3358,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -3301,18 +3373,18 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -3321,44 +3393,44 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -3366,19 +3438,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -3386,19 +3458,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -3406,19 +3478,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -3426,13 +3498,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -3441,38 +3513,38 @@
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>606</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>606</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>607</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -3481,44 +3553,44 @@
         <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -3526,53 +3598,53 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -3581,24 +3653,24 @@
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -3606,39 +3678,39 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>608</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>608</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>609</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3646,47 +3718,47 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>476</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>477</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -3706,7 +3778,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -3726,7 +3798,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
@@ -3746,33 +3818,33 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -3786,7 +3858,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -3806,33 +3878,33 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>476</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>477</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -3841,58 +3913,58 @@
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -3901,12 +3973,12 @@
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
@@ -3926,13 +3998,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -3941,18 +4013,18 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -3961,24 +4033,24 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -3986,13 +4058,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -4006,19 +4078,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -4026,19 +4098,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4046,13 +4118,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -4061,98 +4133,98 @@
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>610</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>610</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>611</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>612</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -4166,13 +4238,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -4186,13 +4258,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -4201,18 +4273,18 @@
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -4221,64 +4293,64 @@
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -4286,13 +4358,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -4301,24 +4373,24 @@
         <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -4326,13 +4398,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -4346,39 +4418,39 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>17</v>
+        <v>600</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>613</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -4386,19 +4458,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>613</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -4406,13 +4478,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>614</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -4426,19 +4498,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>615</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -4446,39 +4518,39 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -4486,19 +4558,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -4506,39 +4578,39 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -4546,39 +4618,39 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -4586,16 +4658,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E89" t="s">
         <v>41</v>
@@ -4606,33 +4678,33 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -4641,18 +4713,18 @@
         <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -4661,61 +4733,61 @@
         <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E95" t="s">
         <v>41</v>
@@ -4726,93 +4798,93 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
         <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -4821,18 +4893,18 @@
         <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -4846,13 +4918,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -4866,19 +4938,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -4886,16 +4958,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E104" t="s">
         <v>41</v>
@@ -4906,16 +4978,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D105" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E105" t="s">
         <v>41</v>
@@ -4926,19 +4998,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -4946,33 +5018,33 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -4981,18 +5053,18 @@
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -5001,84 +5073,84 @@
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="B112" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="C112" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="D112" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="B113" t="s">
-        <v>529</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>530</v>
+        <v>208</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
@@ -5086,16 +5158,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E114" t="s">
         <v>41</v>
@@ -5106,13 +5178,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -5121,18 +5193,18 @@
         <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -5146,13 +5218,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C117" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -5166,19 +5238,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -5186,13 +5258,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -5206,19 +5278,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
@@ -5226,19 +5298,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -5246,13 +5318,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -5266,39 +5338,39 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C124" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
@@ -5306,19 +5378,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D125" t="s">
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -5326,16 +5398,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>616</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>616</v>
       </c>
       <c r="C126" t="s">
-        <v>248</v>
+        <v>617</v>
       </c>
       <c r="D126" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
         <v>41</v>
@@ -5346,13 +5418,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C127" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -5366,39 +5438,39 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C128" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
@@ -5406,33 +5478,33 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" t="s">
-        <v>255</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D130" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" t="s">
-        <v>41</v>
-      </c>
-      <c r="F130" t="s">
-        <v>13</v>
+        <v>601</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -5446,13 +5518,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -5466,13 +5538,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -5486,13 +5558,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -5506,13 +5578,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="C135" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -5526,16 +5598,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C136" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D136" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
@@ -5546,13 +5618,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>529</v>
       </c>
       <c r="C137" t="s">
-        <v>267</v>
+        <v>530</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -5561,18 +5633,18 @@
         <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>618</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>618</v>
       </c>
       <c r="C138" t="s">
-        <v>267</v>
+        <v>619</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -5581,18 +5653,18 @@
         <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>620</v>
       </c>
       <c r="B139" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C139" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -5601,18 +5673,18 @@
         <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -5621,18 +5693,18 @@
         <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C141" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -5646,56 +5718,56 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C142" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="D142" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B143" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C143" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="D143" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C144" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="D144" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E144" t="s">
         <v>41</v>
@@ -5706,19 +5778,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C145" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
         <v>13</v>
@@ -5726,13 +5798,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="B146" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C146" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -5741,18 +5813,18 @@
         <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>285</v>
+        <v>621</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
+        <v>621</v>
       </c>
       <c r="C147" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -5766,19 +5838,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B148" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C148" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
@@ -5786,93 +5858,93 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B149" t="s">
-        <v>289</v>
-      </c>
-      <c r="C149" t="s">
-        <v>290</v>
+        <v>255</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C150" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D150" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B151" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C151" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B152" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C152" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B153" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="C153" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -5881,21 +5953,21 @@
         <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C154" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="D154" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
         <v>12</v>
@@ -5906,113 +5978,113 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C155" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="B156" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C156" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="D156" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="B157" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C157" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="B158" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
-        <v>599</v>
+        <v>267</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>308</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>592</v>
+        <v>269</v>
+      </c>
+      <c r="B159" t="s">
+        <v>269</v>
       </c>
       <c r="C159" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>310</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>593</v>
+        <v>271</v>
+      </c>
+      <c r="B160" t="s">
+        <v>271</v>
       </c>
       <c r="C160" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -6021,24 +6093,24 @@
         <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
         <v>13</v>
@@ -6046,19 +6118,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="C162" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="D162" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
@@ -6066,16 +6138,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>135</v>
+        <v>277</v>
       </c>
       <c r="B163" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="C163" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -6086,59 +6158,59 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>151</v>
+        <v>622</v>
       </c>
       <c r="B164" t="s">
-        <v>147</v>
+        <v>622</v>
       </c>
       <c r="C164" t="s">
-        <v>148</v>
+        <v>623</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="B165" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="C165" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="B166" t="s">
-        <v>529</v>
+        <v>281</v>
       </c>
       <c r="C166" t="s">
-        <v>530</v>
+        <v>282</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F166" t="s">
         <v>13</v>
@@ -6146,19 +6218,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="B167" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C167" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -6166,19 +6238,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C168" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
@@ -6186,19 +6258,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C169" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
@@ -6206,13 +6278,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C170" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -6226,33 +6298,33 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B171" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C171" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D171" t="s">
         <v>105</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C172" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="D172" t="s">
         <v>3</v>
@@ -6266,19 +6338,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="B173" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="C173" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
@@ -6286,13 +6358,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="C174" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
@@ -6306,16 +6378,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B175" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="C175" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="D175" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E175" t="s">
         <v>12</v>
@@ -6326,16 +6398,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C176" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="D176" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
         <v>41</v>
@@ -6346,19 +6418,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="B177" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C177" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="D177" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
@@ -6366,19 +6438,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="C178" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -6386,16 +6458,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="B179" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C179" t="s">
-        <v>338</v>
+        <v>599</v>
       </c>
       <c r="D179" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E179" t="s">
         <v>25</v>
@@ -6406,19 +6478,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>339</v>
-      </c>
-      <c r="B180" t="s">
-        <v>339</v>
+        <v>308</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="C180" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -6426,73 +6498,73 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>341</v>
-      </c>
-      <c r="B181" t="s">
-        <v>342</v>
+        <v>310</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="C181" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>344</v>
+        <v>206</v>
       </c>
       <c r="B182" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="C182" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="D182" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C183" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>348</v>
+        <v>135</v>
       </c>
       <c r="B184" t="s">
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="C184" t="s">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -6501,64 +6573,64 @@
         <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="B185" t="s">
-        <v>350</v>
+        <v>147</v>
       </c>
       <c r="C185" t="s">
-        <v>351</v>
+        <v>148</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>352</v>
+        <v>136</v>
       </c>
       <c r="B186" t="s">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="C186" t="s">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>354</v>
+        <v>136</v>
       </c>
       <c r="B187" t="s">
-        <v>354</v>
+        <v>529</v>
       </c>
       <c r="C187" t="s">
-        <v>355</v>
+        <v>530</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
         <v>13</v>
@@ -6566,39 +6638,39 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="B188" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="C188" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="B189" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="C189" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
         <v>13</v>
@@ -6606,13 +6678,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="C190" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -6626,73 +6698,73 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="B191" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="C191" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="B192" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="C192" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="D192" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E192" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
       <c r="C193" t="s">
-        <v>60</v>
+        <v>325</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="B194" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="C194" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -6701,18 +6773,18 @@
         <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B195" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C195" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -6721,58 +6793,58 @@
         <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="B196" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C196" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="B197" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="C197" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="D197" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E197" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="B198" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C198" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -6781,24 +6853,24 @@
         <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="B199" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C199" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
@@ -6806,39 +6878,39 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B200" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C200" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="D200" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E200" t="s">
         <v>25</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B201" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C201" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
@@ -6846,13 +6918,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="B202" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C202" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -6861,64 +6933,64 @@
         <v>41</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="B203" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="C203" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="D203" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E203" t="s">
         <v>41</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="B204" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="C204" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="B205" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="C205" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
         <v>13</v>
@@ -6926,13 +6998,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="B206" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="C206" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -6946,13 +7018,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="B207" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="C207" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
@@ -6966,13 +7038,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="B208" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="C208" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -6986,39 +7058,39 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="B209" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="C209" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="B210" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C210" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
@@ -7026,13 +7098,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="B211" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="C211" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
@@ -7046,13 +7118,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="B212" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C212" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
@@ -7066,99 +7138,99 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>400</v>
+        <v>137</v>
       </c>
       <c r="B213" t="s">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="C213" t="s">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="B214" t="s">
-        <v>402</v>
+        <v>59</v>
       </c>
       <c r="C214" t="s">
-        <v>403</v>
+        <v>60</v>
       </c>
       <c r="D214" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>404</v>
+        <v>138</v>
       </c>
       <c r="B215" t="s">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="C215" t="s">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="B216" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="C216" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="B217" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="C217" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="D217" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F217" t="s">
         <v>13</v>
@@ -7166,53 +7238,53 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="B218" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="C218" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="B219" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="B220" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="C220" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -7226,99 +7298,99 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B221" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="C221" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="B222" t="s">
-        <v>132</v>
+        <v>376</v>
       </c>
       <c r="C222" t="s">
-        <v>133</v>
+        <v>377</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>18</v>
+        <v>378</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C223" t="s">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="B224" t="s">
-        <v>59</v>
+        <v>380</v>
       </c>
       <c r="C224" t="s">
-        <v>60</v>
+        <v>381</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>18</v>
+        <v>382</v>
       </c>
       <c r="B225" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="C225" t="s">
-        <v>121</v>
+        <v>383</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
         <v>13</v>
@@ -7326,19 +7398,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="B226" t="s">
-        <v>529</v>
+        <v>384</v>
       </c>
       <c r="C226" t="s">
-        <v>530</v>
+        <v>385</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
         <v>13</v>
@@ -7346,99 +7418,99 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="B227" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="C227" t="s">
-        <v>60</v>
+        <v>387</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F227" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="B228" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
       <c r="C228" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="B229" t="s">
-        <v>59</v>
+        <v>390</v>
       </c>
       <c r="C229" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="B230" t="s">
-        <v>132</v>
+        <v>392</v>
       </c>
       <c r="C230" t="s">
-        <v>133</v>
+        <v>393</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F230" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="B231" t="s">
-        <v>529</v>
+        <v>394</v>
       </c>
       <c r="C231" t="s">
-        <v>530</v>
+        <v>395</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F231" t="s">
         <v>13</v>
@@ -7446,16 +7518,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B232" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C232" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D232" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E232" t="s">
         <v>41</v>
@@ -7466,13 +7538,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B233" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C233" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -7486,19 +7558,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B234" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C234" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D234" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
@@ -7506,33 +7578,33 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="B235" t="s">
-        <v>491</v>
+        <v>402</v>
       </c>
       <c r="C235" t="s">
-        <v>492</v>
+        <v>403</v>
       </c>
       <c r="D235" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E235" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F235" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B236" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C236" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -7546,19 +7618,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B237" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C237" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F237" t="s">
         <v>13</v>
@@ -7566,19 +7638,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B238" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C238" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D238" t="s">
         <v>105</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -7586,13 +7658,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B239" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C239" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
@@ -7606,53 +7678,53 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="B240" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="C240" t="s">
-        <v>156</v>
+        <v>412</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F240" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>140</v>
+        <v>411</v>
       </c>
       <c r="B241" t="s">
-        <v>132</v>
+        <v>411</v>
       </c>
       <c r="C241" t="s">
-        <v>133</v>
+        <v>412</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B242" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C242" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -7666,13 +7738,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -7686,13 +7758,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B244" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -7706,13 +7778,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B245" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C245" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -7721,38 +7793,38 @@
         <v>12</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B246" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C246" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F246" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B247" t="s">
-        <v>132</v>
+        <v>529</v>
       </c>
       <c r="C247" t="s">
-        <v>133</v>
+        <v>530</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -7761,12 +7833,12 @@
         <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B248" t="s">
         <v>59</v>
@@ -7786,7 +7858,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B249" t="s">
         <v>132</v>
@@ -7806,7 +7878,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B250" t="s">
         <v>59</v>
@@ -7826,7 +7898,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B251" t="s">
         <v>132</v>
@@ -7846,13 +7918,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B252" t="s">
-        <v>59</v>
+        <v>529</v>
       </c>
       <c r="C252" t="s">
-        <v>60</v>
+        <v>530</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -7861,44 +7933,44 @@
         <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="B253" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="C253" t="s">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="D253" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F253" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="B254" t="s">
-        <v>529</v>
+        <v>418</v>
       </c>
       <c r="C254" t="s">
-        <v>530</v>
+        <v>419</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
         <v>13</v>
@@ -7906,33 +7978,33 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
       <c r="C255" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="D255" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E255" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F255" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="B256" t="s">
-        <v>132</v>
+        <v>491</v>
       </c>
       <c r="C256" t="s">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -7946,39 +8018,39 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>84</v>
+        <v>422</v>
       </c>
       <c r="B257" t="s">
-        <v>59</v>
+        <v>422</v>
       </c>
       <c r="C257" t="s">
-        <v>60</v>
+        <v>423</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F257" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="B258" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="C258" t="s">
-        <v>121</v>
+        <v>425</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
       </c>
       <c r="E258" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F258" t="s">
         <v>13</v>
@@ -7986,53 +8058,53 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>84</v>
+        <v>426</v>
       </c>
       <c r="B259" t="s">
-        <v>132</v>
+        <v>426</v>
       </c>
       <c r="C259" t="s">
-        <v>133</v>
+        <v>427</v>
       </c>
       <c r="D259" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E259" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F259" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>84</v>
+        <v>428</v>
       </c>
       <c r="B260" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="C260" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F260" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="B261" t="s">
-        <v>529</v>
+        <v>155</v>
       </c>
       <c r="C261" t="s">
-        <v>530</v>
+        <v>156</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -8041,18 +8113,18 @@
         <v>12</v>
       </c>
       <c r="F261" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="B262" t="s">
-        <v>432</v>
+        <v>132</v>
       </c>
       <c r="C262" t="s">
-        <v>433</v>
+        <v>133</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -8066,13 +8138,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B263" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C263" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -8086,47 +8158,47 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>6</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264">
-        <v>0</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>7</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B265" t="s">
+        <v>59</v>
+      </c>
+      <c r="C265" t="s">
+        <v>60</v>
+      </c>
+      <c r="D265" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>531</v>
+        <v>19</v>
       </c>
       <c r="B266" t="s">
         <v>529</v>
@@ -8146,59 +8218,59 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>8</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267">
-        <v>0</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="B267" t="s">
+        <v>59</v>
+      </c>
+      <c r="C267" t="s">
+        <v>60</v>
+      </c>
+      <c r="D267" t="s">
+        <v>3</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="B268" t="s">
-        <v>436</v>
+        <v>132</v>
       </c>
       <c r="C268" t="s">
-        <v>437</v>
+        <v>133</v>
       </c>
       <c r="D268" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F268" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="B269" t="s">
-        <v>438</v>
+        <v>59</v>
       </c>
       <c r="C269" t="s">
-        <v>439</v>
+        <v>60</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F269" t="s">
         <v>17</v>
@@ -8206,19 +8278,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="B270" t="s">
-        <v>440</v>
+        <v>132</v>
       </c>
       <c r="C270" t="s">
-        <v>441</v>
+        <v>133</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F270" t="s">
         <v>17</v>
@@ -8226,16 +8298,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="B271" t="s">
-        <v>442</v>
+        <v>59</v>
       </c>
       <c r="C271" t="s">
-        <v>443</v>
+        <v>60</v>
       </c>
       <c r="D271" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
@@ -8246,13 +8318,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="B272" t="s">
-        <v>444</v>
+        <v>132</v>
       </c>
       <c r="C272" t="s">
-        <v>445</v>
+        <v>133</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -8261,18 +8333,18 @@
         <v>12</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="B273" t="s">
-        <v>447</v>
+        <v>59</v>
       </c>
       <c r="C273" t="s">
-        <v>448</v>
+        <v>60</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -8286,13 +8358,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="B274" t="s">
-        <v>447</v>
+        <v>132</v>
       </c>
       <c r="C274" t="s">
-        <v>448</v>
+        <v>133</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -8306,19 +8378,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="B275" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="C275" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F275" t="s">
         <v>13</v>
@@ -8326,53 +8398,53 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="B276" t="s">
-        <v>452</v>
+        <v>59</v>
       </c>
       <c r="C276" t="s">
-        <v>453</v>
+        <v>60</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F276" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="B277" t="s">
-        <v>454</v>
+        <v>132</v>
       </c>
       <c r="C277" t="s">
-        <v>455</v>
+        <v>133</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F277" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>456</v>
+        <v>84</v>
       </c>
       <c r="B278" t="s">
-        <v>456</v>
+        <v>59</v>
       </c>
       <c r="C278" t="s">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -8381,24 +8453,24 @@
         <v>12</v>
       </c>
       <c r="F278" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>458</v>
+        <v>84</v>
       </c>
       <c r="B279" t="s">
-        <v>458</v>
+        <v>120</v>
       </c>
       <c r="C279" t="s">
-        <v>459</v>
+        <v>121</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F279" t="s">
         <v>13</v>
@@ -8406,53 +8478,53 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>460</v>
+        <v>84</v>
       </c>
       <c r="B280" t="s">
-        <v>460</v>
+        <v>132</v>
       </c>
       <c r="C280" t="s">
-        <v>461</v>
+        <v>133</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F280" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>462</v>
+        <v>84</v>
       </c>
       <c r="B281" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="C281" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F281" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>464</v>
+        <v>84</v>
       </c>
       <c r="B282" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="C282" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -8466,39 +8538,39 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="B283" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="C283" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F283" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B284" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="C284" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="D284" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E284" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F284" t="s">
         <v>13</v>
@@ -8506,53 +8578,53 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>470</v>
-      </c>
-      <c r="B285" t="s">
-        <v>470</v>
-      </c>
-      <c r="C285" t="s">
-        <v>471</v>
-      </c>
-      <c r="D285" t="s">
-        <v>25</v>
-      </c>
-      <c r="E285" t="s">
-        <v>25</v>
-      </c>
-      <c r="F285" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>472</v>
-      </c>
-      <c r="B286" t="s">
-        <v>472</v>
-      </c>
-      <c r="C286" t="s">
-        <v>473</v>
-      </c>
-      <c r="D286" t="s">
-        <v>3</v>
-      </c>
-      <c r="E286" t="s">
-        <v>41</v>
-      </c>
-      <c r="F286" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="B287" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="C287" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -8561,41 +8633,41 @@
         <v>12</v>
       </c>
       <c r="F287" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>476</v>
-      </c>
-      <c r="B288" t="s">
-        <v>476</v>
-      </c>
-      <c r="C288" t="s">
-        <v>477</v>
-      </c>
-      <c r="D288" t="s">
-        <v>3</v>
-      </c>
-      <c r="E288" t="s">
-        <v>12</v>
-      </c>
-      <c r="F288" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="B289" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="C289" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="D289" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E289" t="s">
         <v>41</v>
@@ -8606,13 +8678,13 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="B290" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="C290" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -8621,18 +8693,18 @@
         <v>41</v>
       </c>
       <c r="F290" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="B291" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="C291" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -8641,24 +8713,24 @@
         <v>41</v>
       </c>
       <c r="F291" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="B292" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="C292" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="D292" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E292" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -8666,53 +8738,53 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="B293" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="C293" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="D293" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E293" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F293" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="B294" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="C294" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
       </c>
       <c r="E294" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F294" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="B295" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="C295" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -8726,73 +8798,73 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="C296" t="s">
-        <v>16</v>
+        <v>451</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
       </c>
       <c r="E296" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F296" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>20</v>
+        <v>452</v>
       </c>
       <c r="B297" t="s">
-        <v>59</v>
+        <v>452</v>
       </c>
       <c r="C297" t="s">
-        <v>60</v>
+        <v>453</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F297" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>85</v>
+        <v>454</v>
       </c>
       <c r="B298" t="s">
-        <v>59</v>
+        <v>454</v>
       </c>
       <c r="C298" t="s">
-        <v>60</v>
+        <v>455</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
       </c>
       <c r="E298" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F298" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>85</v>
+        <v>456</v>
       </c>
       <c r="B299" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="C299" t="s">
-        <v>530</v>
+        <v>457</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -8806,59 +8878,59 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
       <c r="B300" t="s">
-        <v>132</v>
+        <v>458</v>
       </c>
       <c r="C300" t="s">
-        <v>133</v>
+        <v>459</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
       </c>
       <c r="E300" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F300" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="B301" t="s">
-        <v>59</v>
+        <v>460</v>
       </c>
       <c r="C301" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F301" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="B302" t="s">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="C302" t="s">
-        <v>107</v>
+        <v>463</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F302" t="s">
         <v>13</v>
@@ -8866,19 +8938,19 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>86</v>
+        <v>464</v>
       </c>
       <c r="B303" t="s">
-        <v>120</v>
+        <v>464</v>
       </c>
       <c r="C303" t="s">
-        <v>121</v>
+        <v>465</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
       </c>
       <c r="E303" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F303" t="s">
         <v>13</v>
@@ -8886,19 +8958,19 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>86</v>
+        <v>466</v>
       </c>
       <c r="B304" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="C304" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F304" t="s">
         <v>13</v>
@@ -8906,73 +8978,73 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>9</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-      <c r="C305">
-        <v>0</v>
-      </c>
-      <c r="D305">
-        <v>0</v>
-      </c>
-      <c r="E305">
-        <v>0</v>
-      </c>
-      <c r="F305">
-        <v>0</v>
+        <v>468</v>
+      </c>
+      <c r="B305" t="s">
+        <v>468</v>
+      </c>
+      <c r="C305" t="s">
+        <v>469</v>
+      </c>
+      <c r="D305" t="s">
+        <v>25</v>
+      </c>
+      <c r="E305" t="s">
+        <v>25</v>
+      </c>
+      <c r="F305" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="B306" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="C306" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D306" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E306" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F306" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>159</v>
+        <v>472</v>
       </c>
       <c r="B307" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="C307" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
       </c>
       <c r="E307" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F307" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="B308" t="s">
-        <v>556</v>
+        <v>474</v>
       </c>
       <c r="C308" t="s">
-        <v>557</v>
+        <v>475</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -8986,13 +9058,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="B309" t="s">
-        <v>59</v>
+        <v>476</v>
       </c>
       <c r="C309" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -9006,39 +9078,39 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>87</v>
+        <v>478</v>
       </c>
       <c r="B310" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="C310" t="s">
-        <v>133</v>
+        <v>479</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F310" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>87</v>
+        <v>480</v>
       </c>
       <c r="B311" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C311" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
       </c>
       <c r="E311" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F311" t="s">
         <v>13</v>
@@ -9046,39 +9118,39 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>142</v>
+        <v>482</v>
       </c>
       <c r="B312" t="s">
-        <v>132</v>
+        <v>482</v>
       </c>
       <c r="C312" t="s">
-        <v>133</v>
+        <v>483</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F312" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>143</v>
+        <v>484</v>
       </c>
       <c r="B313" t="s">
-        <v>132</v>
+        <v>484</v>
       </c>
       <c r="C313" t="s">
-        <v>133</v>
+        <v>485</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F313" t="s">
         <v>17</v>
@@ -9086,39 +9158,39 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>558</v>
+        <v>486</v>
       </c>
       <c r="B314" t="s">
-        <v>556</v>
+        <v>486</v>
       </c>
       <c r="C314" t="s">
-        <v>557</v>
+        <v>487</v>
       </c>
       <c r="D314" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E314" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F314" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>108</v>
+        <v>488</v>
       </c>
       <c r="B315" t="s">
-        <v>106</v>
+        <v>488</v>
       </c>
       <c r="C315" t="s">
-        <v>107</v>
+        <v>489</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
       </c>
       <c r="E315" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F315" t="s">
         <v>13</v>
@@ -9126,13 +9198,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>160</v>
+        <v>491</v>
       </c>
       <c r="B316" t="s">
-        <v>155</v>
+        <v>491</v>
       </c>
       <c r="C316" t="s">
-        <v>156</v>
+        <v>492</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -9146,13 +9218,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="B317" t="s">
-        <v>491</v>
+        <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>492</v>
+        <v>16</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -9166,13 +9238,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="B318" t="s">
-        <v>556</v>
+        <v>59</v>
       </c>
       <c r="C318" t="s">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -9186,13 +9258,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="B319" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C319" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -9206,19 +9278,19 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>495</v>
+        <v>85</v>
       </c>
       <c r="B320" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="C320" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F320" t="s">
         <v>13</v>
@@ -9226,13 +9298,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>497</v>
+        <v>141</v>
       </c>
       <c r="B321" t="s">
-        <v>497</v>
+        <v>132</v>
       </c>
       <c r="C321" t="s">
-        <v>498</v>
+        <v>133</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -9241,38 +9313,38 @@
         <v>12</v>
       </c>
       <c r="F321" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>499</v>
+        <v>86</v>
       </c>
       <c r="B322" t="s">
-        <v>499</v>
+        <v>59</v>
       </c>
       <c r="C322" t="s">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="D322" t="s">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="E322" t="s">
         <v>12</v>
       </c>
       <c r="F322" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B323" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C323" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -9281,44 +9353,44 @@
         <v>12</v>
       </c>
       <c r="F323" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>502</v>
+        <v>86</v>
       </c>
       <c r="B324" t="s">
-        <v>502</v>
+        <v>120</v>
       </c>
       <c r="C324" t="s">
-        <v>503</v>
+        <v>121</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
       </c>
       <c r="E324" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F324" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>504</v>
+        <v>86</v>
       </c>
       <c r="B325" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C325" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
       </c>
       <c r="E325" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F325" t="s">
         <v>13</v>
@@ -9326,33 +9398,33 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>507</v>
-      </c>
-      <c r="B326" t="s">
-        <v>507</v>
-      </c>
-      <c r="C326" t="s">
-        <v>508</v>
-      </c>
-      <c r="D326" t="s">
-        <v>3</v>
-      </c>
-      <c r="E326" t="s">
-        <v>12</v>
-      </c>
-      <c r="F326" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="B327" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="C327" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -9366,13 +9438,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B328" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C328" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -9381,18 +9453,18 @@
         <v>12</v>
       </c>
       <c r="F328" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B329" t="s">
-        <v>132</v>
+        <v>556</v>
       </c>
       <c r="C329" t="s">
-        <v>133</v>
+        <v>557</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -9406,13 +9478,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>561</v>
+        <v>87</v>
       </c>
       <c r="B330" t="s">
-        <v>562</v>
+        <v>59</v>
       </c>
       <c r="C330" t="s">
-        <v>563</v>
+        <v>60</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -9421,44 +9493,44 @@
         <v>12</v>
       </c>
       <c r="F330" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>509</v>
+        <v>87</v>
       </c>
       <c r="B331" t="s">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="C331" t="s">
-        <v>510</v>
+        <v>133</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F331" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>511</v>
+        <v>87</v>
       </c>
       <c r="B332" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="C332" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
       </c>
       <c r="E332" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F332" t="s">
         <v>13</v>
@@ -9466,79 +9538,79 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>513</v>
+        <v>142</v>
       </c>
       <c r="B333" t="s">
-        <v>514</v>
+        <v>132</v>
       </c>
       <c r="C333" t="s">
-        <v>515</v>
+        <v>133</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F333" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>514</v>
+        <v>143</v>
       </c>
       <c r="B334" t="s">
-        <v>514</v>
+        <v>132</v>
       </c>
       <c r="C334" t="s">
-        <v>515</v>
+        <v>133</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F334" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="B335" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="C335" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="D335" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F335" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>517</v>
+        <v>108</v>
       </c>
       <c r="B336" t="s">
-        <v>517</v>
+        <v>106</v>
       </c>
       <c r="C336" t="s">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="D336" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F336" t="s">
         <v>13</v>
@@ -9546,19 +9618,19 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>519</v>
+        <v>160</v>
       </c>
       <c r="B337" t="s">
-        <v>519</v>
+        <v>155</v>
       </c>
       <c r="C337" t="s">
-        <v>520</v>
+        <v>156</v>
       </c>
       <c r="D337" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F337" t="s">
         <v>17</v>
@@ -9566,53 +9638,53 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>521</v>
+        <v>160</v>
       </c>
       <c r="B338" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="C338" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
       </c>
       <c r="E338" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F338" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>523</v>
+        <v>160</v>
       </c>
       <c r="B339" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="C339" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="D339" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E339" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F339" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>525</v>
+        <v>144</v>
       </c>
       <c r="B340" t="s">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="C340" t="s">
-        <v>526</v>
+        <v>133</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -9621,24 +9693,24 @@
         <v>12</v>
       </c>
       <c r="F340" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="B341" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="C341" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
       </c>
       <c r="E341" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F341" t="s">
         <v>13</v>
@@ -9646,13 +9718,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="B342" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="C342" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -9661,84 +9733,84 @@
         <v>12</v>
       </c>
       <c r="F342" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>595</v>
+        <v>499</v>
       </c>
       <c r="B343" t="s">
-        <v>326</v>
+        <v>499</v>
       </c>
       <c r="C343" t="s">
-        <v>327</v>
+        <v>500</v>
       </c>
       <c r="D343" t="s">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="E343" t="s">
         <v>12</v>
       </c>
       <c r="F343" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>532</v>
+        <v>145</v>
       </c>
       <c r="B344" t="s">
-        <v>532</v>
+        <v>132</v>
       </c>
       <c r="C344" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
       <c r="D344" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E344" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F344" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>596</v>
+        <v>502</v>
       </c>
       <c r="B345" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C345" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="D345" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E345" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F345" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="B346" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C346" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="D346" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E346" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F346" t="s">
         <v>13</v>
@@ -9746,53 +9818,53 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="B347" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="C347" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
       </c>
       <c r="E347" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F347" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="B348" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="C348" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="D348" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E348" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F348" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>540</v>
+        <v>109</v>
       </c>
       <c r="B349" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="C349" t="s">
-        <v>541</v>
+        <v>107</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -9806,13 +9878,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>494</v>
+        <v>109</v>
       </c>
       <c r="B350" t="s">
-        <v>491</v>
+        <v>132</v>
       </c>
       <c r="C350" t="s">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -9826,13 +9898,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>88</v>
+        <v>561</v>
       </c>
       <c r="B351" t="s">
-        <v>59</v>
+        <v>562</v>
       </c>
       <c r="C351" t="s">
-        <v>60</v>
+        <v>563</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -9841,64 +9913,64 @@
         <v>12</v>
       </c>
       <c r="F351" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>88</v>
+        <v>509</v>
       </c>
       <c r="B352" t="s">
-        <v>132</v>
+        <v>509</v>
       </c>
       <c r="C352" t="s">
-        <v>133</v>
+        <v>510</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
       </c>
       <c r="E352" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F352" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>88</v>
+        <v>511</v>
       </c>
       <c r="B353" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="C353" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
       </c>
       <c r="E353" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F353" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>88</v>
+        <v>513</v>
       </c>
       <c r="B354" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C354" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
       </c>
       <c r="E354" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F354" t="s">
         <v>13</v>
@@ -9906,39 +9978,39 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>89</v>
+        <v>514</v>
       </c>
       <c r="B355" t="s">
-        <v>59</v>
+        <v>514</v>
       </c>
       <c r="C355" t="s">
-        <v>60</v>
+        <v>515</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
       </c>
       <c r="E355" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F355" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>89</v>
+        <v>516</v>
       </c>
       <c r="B356" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C356" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D356" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E356" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F356" t="s">
         <v>13</v>
@@ -9946,79 +10018,79 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>90</v>
+        <v>517</v>
       </c>
       <c r="B357" t="s">
-        <v>59</v>
+        <v>517</v>
       </c>
       <c r="C357" t="s">
-        <v>60</v>
+        <v>518</v>
       </c>
       <c r="D357" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E357" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F357" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>90</v>
+        <v>519</v>
       </c>
       <c r="B358" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C358" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D358" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E358" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F358" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>91</v>
+        <v>521</v>
       </c>
       <c r="B359" t="s">
-        <v>59</v>
+        <v>521</v>
       </c>
       <c r="C359" t="s">
-        <v>60</v>
+        <v>522</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F359" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>91</v>
+        <v>523</v>
       </c>
       <c r="B360" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C360" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D360" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E360" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F360" t="s">
         <v>13</v>
@@ -10026,13 +10098,13 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>92</v>
+        <v>525</v>
       </c>
       <c r="B361" t="s">
-        <v>59</v>
+        <v>525</v>
       </c>
       <c r="C361" t="s">
-        <v>60</v>
+        <v>526</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -10041,24 +10113,24 @@
         <v>12</v>
       </c>
       <c r="F361" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>92</v>
+        <v>527</v>
       </c>
       <c r="B362" t="s">
-        <v>120</v>
+        <v>527</v>
       </c>
       <c r="C362" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
       </c>
       <c r="E362" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F362" t="s">
         <v>13</v>
@@ -10066,13 +10138,13 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>93</v>
+        <v>529</v>
       </c>
       <c r="B363" t="s">
-        <v>59</v>
+        <v>529</v>
       </c>
       <c r="C363" t="s">
-        <v>60</v>
+        <v>530</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -10081,18 +10153,18 @@
         <v>12</v>
       </c>
       <c r="F363" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>94</v>
+        <v>595</v>
       </c>
       <c r="B364" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="C364" t="s">
-        <v>60</v>
+        <v>327</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -10101,44 +10173,44 @@
         <v>12</v>
       </c>
       <c r="F364" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>94</v>
+        <v>532</v>
       </c>
       <c r="B365" t="s">
-        <v>132</v>
+        <v>532</v>
       </c>
       <c r="C365" t="s">
-        <v>133</v>
+        <v>533</v>
       </c>
       <c r="D365" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E365" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F365" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="B366" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C366" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D366" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E366" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F366" t="s">
         <v>13</v>
@@ -10146,36 +10218,36 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>95</v>
+        <v>534</v>
       </c>
       <c r="B367" t="s">
-        <v>59</v>
+        <v>534</v>
       </c>
       <c r="C367" t="s">
-        <v>60</v>
+        <v>535</v>
       </c>
       <c r="D367" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E367" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F367" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B368" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C368" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D368" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E368" t="s">
         <v>41</v>
@@ -10186,16 +10258,16 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B369" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C369" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D369" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E369" t="s">
         <v>41</v>
@@ -10206,13 +10278,13 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>96</v>
+        <v>540</v>
       </c>
       <c r="B370" t="s">
-        <v>59</v>
+        <v>540</v>
       </c>
       <c r="C370" t="s">
-        <v>60</v>
+        <v>541</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -10221,38 +10293,38 @@
         <v>12</v>
       </c>
       <c r="F370" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>96</v>
+        <v>494</v>
       </c>
       <c r="B371" t="s">
-        <v>120</v>
+        <v>491</v>
       </c>
       <c r="C371" t="s">
-        <v>121</v>
+        <v>492</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
       </c>
       <c r="E371" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F371" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B372" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C372" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -10261,18 +10333,18 @@
         <v>12</v>
       </c>
       <c r="F372" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>548</v>
+        <v>88</v>
       </c>
       <c r="B373" t="s">
-        <v>548</v>
+        <v>132</v>
       </c>
       <c r="C373" t="s">
-        <v>549</v>
+        <v>133</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -10286,13 +10358,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>551</v>
+        <v>88</v>
       </c>
       <c r="B374" t="s">
-        <v>551</v>
+        <v>476</v>
       </c>
       <c r="C374" t="s">
-        <v>552</v>
+        <v>477</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -10301,18 +10373,18 @@
         <v>12</v>
       </c>
       <c r="F374" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>550</v>
+        <v>88</v>
       </c>
       <c r="B375" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="C375" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -10326,13 +10398,13 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>597</v>
+        <v>89</v>
       </c>
       <c r="B376" t="s">
-        <v>447</v>
+        <v>59</v>
       </c>
       <c r="C376" t="s">
-        <v>448</v>
+        <v>60</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -10346,13 +10418,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>553</v>
+        <v>89</v>
       </c>
       <c r="B377" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C377" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -10366,13 +10438,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>556</v>
+        <v>90</v>
       </c>
       <c r="B378" t="s">
-        <v>556</v>
+        <v>59</v>
       </c>
       <c r="C378" t="s">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -10386,19 +10458,19 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>559</v>
+        <v>90</v>
       </c>
       <c r="B379" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="C379" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
       </c>
       <c r="E379" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F379" t="s">
         <v>13</v>
@@ -10406,13 +10478,13 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>562</v>
+        <v>91</v>
       </c>
       <c r="B380" t="s">
-        <v>562</v>
+        <v>59</v>
       </c>
       <c r="C380" t="s">
-        <v>563</v>
+        <v>60</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -10421,24 +10493,24 @@
         <v>12</v>
       </c>
       <c r="F380" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>564</v>
+        <v>91</v>
       </c>
       <c r="B381" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="C381" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
       </c>
       <c r="E381" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F381" t="s">
         <v>13</v>
@@ -10446,13 +10518,13 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="B382" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="C382" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -10466,19 +10538,19 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>566</v>
+        <v>92</v>
       </c>
       <c r="B383" t="s">
-        <v>566</v>
+        <v>120</v>
       </c>
       <c r="C383" t="s">
-        <v>567</v>
+        <v>121</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
       </c>
       <c r="E383" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F383" t="s">
         <v>13</v>
@@ -10486,53 +10558,53 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>568</v>
+        <v>93</v>
       </c>
       <c r="B384" t="s">
-        <v>568</v>
+        <v>59</v>
       </c>
       <c r="C384" t="s">
-        <v>569</v>
+        <v>60</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
       </c>
       <c r="E384" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F384" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>570</v>
+        <v>94</v>
       </c>
       <c r="B385" t="s">
-        <v>570</v>
+        <v>59</v>
       </c>
       <c r="C385" t="s">
-        <v>571</v>
+        <v>60</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
       </c>
       <c r="E385" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F385" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>572</v>
+        <v>94</v>
       </c>
       <c r="B386" t="s">
-        <v>572</v>
+        <v>132</v>
       </c>
       <c r="C386" t="s">
-        <v>573</v>
+        <v>133</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -10546,13 +10618,13 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="B387" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="C387" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -10566,36 +10638,36 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>576</v>
+        <v>95</v>
       </c>
       <c r="B388" t="s">
-        <v>576</v>
+        <v>59</v>
       </c>
       <c r="C388" t="s">
-        <v>577</v>
+        <v>60</v>
       </c>
       <c r="D388" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E388" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F388" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>578</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>594</v>
+        <v>544</v>
+      </c>
+      <c r="B389" t="s">
+        <v>544</v>
       </c>
       <c r="C389" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="D389" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E389" t="s">
         <v>41</v>
@@ -10606,13 +10678,13 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="B390" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="C390" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -10626,39 +10698,39 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>582</v>
+        <v>96</v>
       </c>
       <c r="B391" t="s">
-        <v>582</v>
+        <v>59</v>
       </c>
       <c r="C391" t="s">
-        <v>583</v>
+        <v>60</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
       </c>
       <c r="E391" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F391" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>584</v>
+        <v>96</v>
       </c>
       <c r="B392" t="s">
-        <v>584</v>
+        <v>120</v>
       </c>
       <c r="C392" t="s">
-        <v>585</v>
+        <v>121</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
       </c>
       <c r="E392" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F392" t="s">
         <v>13</v>
@@ -10666,33 +10738,33 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>586</v>
+        <v>96</v>
       </c>
       <c r="B393" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="C393" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
       </c>
       <c r="E393" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F393" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="B394" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C394" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -10701,32 +10773,452 @@
         <v>12</v>
       </c>
       <c r="F394" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>551</v>
+      </c>
+      <c r="B395" t="s">
+        <v>551</v>
+      </c>
+      <c r="C395" t="s">
+        <v>552</v>
+      </c>
+      <c r="D395" t="s">
+        <v>3</v>
+      </c>
+      <c r="E395" t="s">
+        <v>12</v>
+      </c>
+      <c r="F395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>550</v>
+      </c>
+      <c r="B396" t="s">
+        <v>551</v>
+      </c>
+      <c r="C396" t="s">
+        <v>552</v>
+      </c>
+      <c r="D396" t="s">
+        <v>3</v>
+      </c>
+      <c r="E396" t="s">
+        <v>12</v>
+      </c>
+      <c r="F396" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>597</v>
+      </c>
+      <c r="B397" t="s">
+        <v>447</v>
+      </c>
+      <c r="C397" t="s">
+        <v>448</v>
+      </c>
+      <c r="D397" t="s">
+        <v>3</v>
+      </c>
+      <c r="E397" t="s">
+        <v>12</v>
+      </c>
+      <c r="F397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>553</v>
+      </c>
+      <c r="B398" t="s">
+        <v>553</v>
+      </c>
+      <c r="C398" t="s">
+        <v>554</v>
+      </c>
+      <c r="D398" t="s">
+        <v>3</v>
+      </c>
+      <c r="E398" t="s">
+        <v>12</v>
+      </c>
+      <c r="F398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>556</v>
+      </c>
+      <c r="B399" t="s">
+        <v>556</v>
+      </c>
+      <c r="C399" t="s">
+        <v>557</v>
+      </c>
+      <c r="D399" t="s">
+        <v>3</v>
+      </c>
+      <c r="E399" t="s">
+        <v>12</v>
+      </c>
+      <c r="F399" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>559</v>
+      </c>
+      <c r="B400" t="s">
+        <v>559</v>
+      </c>
+      <c r="C400" t="s">
+        <v>560</v>
+      </c>
+      <c r="D400" t="s">
+        <v>3</v>
+      </c>
+      <c r="E400" t="s">
+        <v>41</v>
+      </c>
+      <c r="F400" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>562</v>
+      </c>
+      <c r="B401" t="s">
+        <v>562</v>
+      </c>
+      <c r="C401" t="s">
+        <v>563</v>
+      </c>
+      <c r="D401" t="s">
+        <v>3</v>
+      </c>
+      <c r="E401" t="s">
+        <v>12</v>
+      </c>
+      <c r="F401" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>564</v>
+      </c>
+      <c r="B402" t="s">
+        <v>564</v>
+      </c>
+      <c r="C402" t="s">
+        <v>565</v>
+      </c>
+      <c r="D402" t="s">
+        <v>3</v>
+      </c>
+      <c r="E402" t="s">
+        <v>41</v>
+      </c>
+      <c r="F402" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>161</v>
+      </c>
+      <c r="B403" t="s">
+        <v>155</v>
+      </c>
+      <c r="C403" t="s">
+        <v>156</v>
+      </c>
+      <c r="D403" t="s">
+        <v>3</v>
+      </c>
+      <c r="E403" t="s">
+        <v>12</v>
+      </c>
+      <c r="F403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>566</v>
+      </c>
+      <c r="B404" t="s">
+        <v>566</v>
+      </c>
+      <c r="C404" t="s">
+        <v>567</v>
+      </c>
+      <c r="D404" t="s">
+        <v>3</v>
+      </c>
+      <c r="E404" t="s">
+        <v>12</v>
+      </c>
+      <c r="F404" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>568</v>
+      </c>
+      <c r="B405" t="s">
+        <v>568</v>
+      </c>
+      <c r="C405" t="s">
+        <v>569</v>
+      </c>
+      <c r="D405" t="s">
+        <v>3</v>
+      </c>
+      <c r="E405" t="s">
+        <v>41</v>
+      </c>
+      <c r="F405" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>570</v>
+      </c>
+      <c r="B406" t="s">
+        <v>570</v>
+      </c>
+      <c r="C406" t="s">
+        <v>571</v>
+      </c>
+      <c r="D406" t="s">
+        <v>3</v>
+      </c>
+      <c r="E406" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>572</v>
+      </c>
+      <c r="B407" t="s">
+        <v>572</v>
+      </c>
+      <c r="C407" t="s">
+        <v>573</v>
+      </c>
+      <c r="D407" t="s">
+        <v>3</v>
+      </c>
+      <c r="E407" t="s">
+        <v>12</v>
+      </c>
+      <c r="F407" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>574</v>
+      </c>
+      <c r="B408" t="s">
+        <v>574</v>
+      </c>
+      <c r="C408" t="s">
+        <v>575</v>
+      </c>
+      <c r="D408" t="s">
+        <v>3</v>
+      </c>
+      <c r="E408" t="s">
+        <v>12</v>
+      </c>
+      <c r="F408" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>576</v>
+      </c>
+      <c r="B409" t="s">
+        <v>576</v>
+      </c>
+      <c r="C409" t="s">
+        <v>577</v>
+      </c>
+      <c r="D409" t="s">
+        <v>105</v>
+      </c>
+      <c r="E409" t="s">
+        <v>41</v>
+      </c>
+      <c r="F409" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>578</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C410" t="s">
+        <v>579</v>
+      </c>
+      <c r="D410" t="s">
+        <v>3</v>
+      </c>
+      <c r="E410" t="s">
+        <v>41</v>
+      </c>
+      <c r="F410" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>580</v>
+      </c>
+      <c r="B411" t="s">
+        <v>580</v>
+      </c>
+      <c r="C411" t="s">
+        <v>581</v>
+      </c>
+      <c r="D411" t="s">
+        <v>3</v>
+      </c>
+      <c r="E411" t="s">
+        <v>41</v>
+      </c>
+      <c r="F411" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>582</v>
+      </c>
+      <c r="B412" t="s">
+        <v>582</v>
+      </c>
+      <c r="C412" t="s">
+        <v>583</v>
+      </c>
+      <c r="D412" t="s">
+        <v>3</v>
+      </c>
+      <c r="E412" t="s">
+        <v>41</v>
+      </c>
+      <c r="F412" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>584</v>
+      </c>
+      <c r="B413" t="s">
+        <v>584</v>
+      </c>
+      <c r="C413" t="s">
+        <v>585</v>
+      </c>
+      <c r="D413" t="s">
+        <v>3</v>
+      </c>
+      <c r="E413" t="s">
+        <v>41</v>
+      </c>
+      <c r="F413" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>586</v>
+      </c>
+      <c r="B414" t="s">
+        <v>586</v>
+      </c>
+      <c r="C414" t="s">
+        <v>587</v>
+      </c>
+      <c r="D414" t="s">
+        <v>3</v>
+      </c>
+      <c r="E414" t="s">
+        <v>41</v>
+      </c>
+      <c r="F414" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>588</v>
+      </c>
+      <c r="B415" t="s">
+        <v>588</v>
+      </c>
+      <c r="C415" t="s">
+        <v>589</v>
+      </c>
+      <c r="D415" t="s">
+        <v>3</v>
+      </c>
+      <c r="E415" t="s">
+        <v>12</v>
+      </c>
+      <c r="F415" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>590</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B416" t="s">
         <v>590</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C416" t="s">
         <v>591</v>
       </c>
-      <c r="D395" t="s">
-        <v>3</v>
-      </c>
-      <c r="E395" t="s">
-        <v>12</v>
-      </c>
-      <c r="F395" t="s">
+      <c r="D416" t="s">
+        <v>3</v>
+      </c>
+      <c r="E416" t="s">
+        <v>12</v>
+      </c>
+      <c r="F416" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F395">
-    <sortCondition ref="A1:A395"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F416">
+    <sortCondition ref="A1:A416"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366CD6C3-7C21-4381-BFE6-D1A8D92AF8E1}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC9AE79-41C4-4FFD-AFEE-57AA938EEAE0}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={5DE56A90-29E1-44C8-93A9-1814348BA061}</author>
+    <author>tc={E3EEA269-E75D-40E7-AD6F-E6EAB8BE0A63}</author>
     <author>tc={BF13A08C-3A83-4A87-89AA-5677AE747C03}</author>
     <author>tc={C221EFA2-F912-4135-981C-E7AF98A329A9}</author>
+    <author>tc={B6578454-2AA7-4058-9D1A-4A1EED7470CD}</author>
     <author>tc={5B1E393E-188A-4FCD-87DD-803EDEB5A732}</author>
   </authors>
   <commentList>
-    <comment ref="B180" authorId="0" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{5DE56A90-29E1-44C8-93A9-1814348BA061}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -35,7 +38,15 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B181" authorId="1" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+    <comment ref="C33" authorId="1" shapeId="0" xr:uid="{E3EEA269-E75D-40E7-AD6F-E6EAB8BE0A63}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Amsinckia intermedia was grouped with A. menziesii</t>
+      </text>
+    </comment>
+    <comment ref="B181" authorId="2" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -43,7 +54,23 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B410" authorId="2" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+    <comment ref="B182" authorId="3" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the official USDA Plants code</t>
+      </text>
+    </comment>
+    <comment ref="B433" authorId="4" shapeId="0" xr:uid="{B6578454-2AA7-4058-9D1A-4A1EED7470CD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the official USDA Plants code</t>
+      </text>
+    </comment>
+    <comment ref="B471" authorId="5" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="669">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -1555,15 +1582,6 @@
     <t>Prosopis glandulosa</t>
   </si>
   <si>
-    <t>PROACASPP</t>
-  </si>
-  <si>
-    <t>Mesquite/Acacia species</t>
-  </si>
-  <si>
-    <t>Native/Unknown</t>
-  </si>
-  <si>
     <t>PRVE</t>
   </si>
   <si>
@@ -1879,9 +1897,6 @@
     <t>AMIN3</t>
   </si>
   <si>
-    <t>Amsinckia intermedia</t>
-  </si>
-  <si>
     <t>ANOC2</t>
   </si>
   <si>
@@ -1928,13 +1943,160 @@
   </si>
   <si>
     <t>Eriogonum deflexum</t>
+  </si>
+  <si>
+    <t>CRSE1</t>
+  </si>
+  <si>
+    <t>Few small to medium ARPUs spaced throughout</t>
+  </si>
+  <si>
+    <t>LAOC3</t>
+  </si>
+  <si>
+    <t>Lappula occidentalis</t>
+  </si>
+  <si>
+    <t>LOGR4</t>
+  </si>
+  <si>
+    <t>Lotus greenei</t>
+  </si>
+  <si>
+    <t>MAAF</t>
+  </si>
+  <si>
+    <t>Malcolmia africana</t>
+  </si>
+  <si>
+    <t>MATA seedlings in the southeast corner of the plot</t>
+  </si>
+  <si>
+    <t>Multipke medium to large ARPUs and BOCUs as well as a BAMU in the northeast corner but it doesnt have any new/living growth yet</t>
+  </si>
+  <si>
+    <t>Multiple BOCUS and a couple possible ARPUs throughout</t>
+  </si>
+  <si>
+    <t>Multiple BOCUs throughout</t>
+  </si>
+  <si>
+    <t>Multiple medium to extra large ARPUS</t>
+  </si>
+  <si>
+    <t>Multiple medium to extra large ARPUs mostly in/near conmods</t>
+  </si>
+  <si>
+    <t>Multiple medium to extra large ARPUs throught and SECo in the northwest corner under an ERCU</t>
+  </si>
+  <si>
+    <t>Multiple medium to extra large BOCUs and ARPUs throughout but mostly near and aroudn conmods</t>
+  </si>
+  <si>
+    <t>Multiple medium to large ARPUs and BOCUs (mostly ARPUs) as well as a possible PLMU in the center of the plot</t>
+  </si>
+  <si>
+    <t>Multiple medium to large ARPUs and BOCUs along the northeast edge</t>
+  </si>
+  <si>
+    <t>Multiple medium to large ARPUs and possibly and ACHY seedling in the southeast pit (wirey, narrow, clasping blades)</t>
+  </si>
+  <si>
+    <t>Multiple medium to large ARPUs throughout and a couple small BOCUs near and among the conmods</t>
+  </si>
+  <si>
+    <t>Multiple small to large sized ARPUs spread throughout and a medium sized BOCU in the northwest corner</t>
+  </si>
+  <si>
+    <t>No new growth on the BAMU in the northeast corner yet</t>
+  </si>
+  <si>
+    <t>No new growth or green vegetation on SECO in the northwest pit but still there, there's a BAMU in the southwest pit as well, possibly ACHY in the south half of the plot, multiple medium to large sized ARPUs mostly in and/or near pits but not all</t>
+  </si>
+  <si>
+    <t>OESP</t>
+  </si>
+  <si>
+    <t>Oenothera spachiana</t>
+  </si>
+  <si>
+    <t>PEPA (possibly)</t>
+  </si>
+  <si>
+    <t>PEPE26</t>
+  </si>
+  <si>
+    <t>Pectocarya penicillata</t>
+  </si>
+  <si>
+    <t>Pits are mostly infilled or completely depending on pit anywhere from 80-100%</t>
+  </si>
+  <si>
+    <t>Possible MATA seedling species in suplot and in the NW pit if not than 0% seeded species cover</t>
+  </si>
+  <si>
+    <t>Possible MATA seedlings in the northwest pit and possibly a SPCR seedling but if neither than seeded species cover would be 0%</t>
+  </si>
+  <si>
+    <t>Possible SPCR along the northeast edge as well as a possible PEPA seedling next to the subplot if neither than 0% seeded cover</t>
+  </si>
+  <si>
+    <t>Possible small SPCR near middle of the east edge (no tiller, culm, or seed heads but fuzziness/hairs at the ligule) and possible POSE next to the subplot (all leaf blades and midvein on bottome) if not than 0% seeded species cover</t>
+  </si>
+  <si>
+    <t>Possibly a SPCR</t>
+  </si>
+  <si>
+    <t>Possibly a couple of MATA seedlings and possibly a SPCR seedling in the subplot</t>
+  </si>
+  <si>
+    <t>Possibly a couple of small SPCRs in/near the northeast pit but if not than 0%</t>
+  </si>
+  <si>
+    <t>Possibly two SPCRs (or possibly POSEs?) near the southwest and northwest (No sead heads yet but membraneous ligule with hair and blades at an almost 90 degrees fro the stems however if neither than the seeded species cover would be 0%</t>
+  </si>
+  <si>
+    <t>STMI2</t>
+  </si>
+  <si>
+    <t>Stylocline micropoides</t>
+  </si>
+  <si>
+    <t>STSP3</t>
+  </si>
+  <si>
+    <t>Stipa speciosa</t>
+  </si>
+  <si>
+    <t>Small to large ARPUs throughout especially in the south half of the plot</t>
+  </si>
+  <si>
+    <t>Some possible BOCUs but no seed heads, tillers, culms to verify ID yet but if all are BOCUs than it's 2% seeded species cover however if none are than there are a few SECOs throught mostly found in/near the pits</t>
+  </si>
+  <si>
+    <t>There're a couple possible tiny MATA seedlings in some of the pits if not MATA than 0% (too small to ID for sure)</t>
+  </si>
+  <si>
+    <t>There're a couple potential MATA seedlings near/under a couple of the larger grass bunches however if not MATA than 0% seeded species cover</t>
+  </si>
+  <si>
+    <t>There're multiple BOCUs and a couple possible SECO seedlings</t>
+  </si>
+  <si>
+    <t>There's a possible POSE (boat/canoe leaf blades, greener than other grasses currently around, it's very basal and tufted too with a membraneous ligule however if it's not than 0% seeded species cover</t>
+  </si>
+  <si>
+    <t>There's a possible SPCR along the north edge and southwest near the center however if neither are SPCRs than seeded species cover would be 0%</t>
+  </si>
+  <si>
+    <t>ACSP12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2074,6 +2236,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2423,12 +2597,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2865,13 +3040,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B180" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+  <threadedComment ref="B33" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5DE56A90-29E1-44C8-93A9-1814348BA061}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B181" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+  <threadedComment ref="C33" dT="2023-09-19T19:42:29.93" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{E3EEA269-E75D-40E7-AD6F-E6EAB8BE0A63}">
+    <text>Amsinckia intermedia was grouped with A. menziesii</text>
+  </threadedComment>
+  <threadedComment ref="B181" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B410" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+  <threadedComment ref="B182" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+    <text>This is the official USDA Plants code</text>
+  </threadedComment>
+  <threadedComment ref="B433" dT="2023-09-19T19:44:16.40" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{B6578454-2AA7-4058-9D1A-4A1EED7470CD}">
+    <text>This is the official USDA Plants code</text>
+  </threadedComment>
+  <threadedComment ref="B471" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
 </ThreadedComments>
@@ -2879,16 +3063,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F416"/>
+  <dimension ref="A1:F478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -3098,7 +3282,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -3118,7 +3302,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B12" t="s">
         <v>132</v>
@@ -3138,7 +3322,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B13" t="s">
         <v>132</v>
@@ -3181,10 +3365,10 @@
         <v>490</v>
       </c>
       <c r="B15" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3258,7 +3442,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -3278,13 +3462,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B20" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C20" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -3298,7 +3482,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B21" t="s">
         <v>411</v>
@@ -3318,13 +3502,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B22" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -3538,13 +3722,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>606</v>
-      </c>
-      <c r="B33" t="s">
-        <v>606</v>
-      </c>
-      <c r="C33" t="s">
-        <v>607</v>
+        <v>603</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -3678,13 +3862,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B40" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C40" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -4138,13 +4322,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B63" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C63" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -4218,7 +4402,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
@@ -4418,7 +4602,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4438,7 +4622,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -4458,7 +4642,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B79" t="s">
         <v>132</v>
@@ -4478,7 +4662,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B80" t="s">
         <v>132</v>
@@ -4498,7 +4682,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B81" t="s">
         <v>132</v>
@@ -5398,13 +5582,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B126" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C126" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -5438,7 +5622,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>620</v>
       </c>
       <c r="B128" t="s">
         <v>235</v>
@@ -5458,19 +5642,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
@@ -5478,53 +5662,53 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>601</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="B130" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" t="s">
+        <v>238</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>74</v>
-      </c>
-      <c r="B131" t="s">
-        <v>59</v>
-      </c>
-      <c r="C131" t="s">
-        <v>60</v>
-      </c>
-      <c r="D131" t="s">
-        <v>3</v>
-      </c>
-      <c r="E131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" t="s">
-        <v>17</v>
+        <v>598</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -5538,13 +5722,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -5561,10 +5745,10 @@
         <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -5578,13 +5762,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -5601,13 +5785,13 @@
         <v>76</v>
       </c>
       <c r="B136" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="C136" t="s">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="D136" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
@@ -5621,30 +5805,30 @@
         <v>76</v>
       </c>
       <c r="B137" t="s">
-        <v>529</v>
+        <v>277</v>
       </c>
       <c r="C137" t="s">
-        <v>530</v>
+        <v>278</v>
       </c>
       <c r="D137" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>618</v>
+        <v>76</v>
       </c>
       <c r="B138" t="s">
-        <v>618</v>
+        <v>526</v>
       </c>
       <c r="C138" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -5658,13 +5842,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B139" t="s">
-        <v>239</v>
+        <v>614</v>
       </c>
       <c r="C139" t="s">
-        <v>240</v>
+        <v>615</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -5678,7 +5862,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>616</v>
       </c>
       <c r="B140" t="s">
         <v>239</v>
@@ -5698,19 +5882,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C141" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -5718,59 +5902,59 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C143" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C144" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D144" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
@@ -5778,19 +5962,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B145" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C145" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D145" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
         <v>13</v>
@@ -5798,13 +5982,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B146" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C146" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -5813,44 +5997,44 @@
         <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>621</v>
+        <v>251</v>
       </c>
       <c r="B147" t="s">
-        <v>621</v>
+        <v>251</v>
       </c>
       <c r="C147" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>253</v>
+        <v>617</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>617</v>
       </c>
       <c r="C148" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
@@ -5858,13 +6042,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B149" t="s">
-        <v>255</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>598</v>
+        <v>253</v>
+      </c>
+      <c r="C149" t="s">
+        <v>254</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -5878,19 +6062,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B150" t="s">
-        <v>256</v>
-      </c>
-      <c r="C150" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
@@ -5898,27 +6082,27 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C151" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D151" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B152" t="s">
         <v>258</v>
@@ -5938,7 +6122,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B153" t="s">
         <v>258</v>
@@ -5958,13 +6142,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
@@ -5978,7 +6162,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
         <v>263</v>
@@ -5998,13 +6182,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C156" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -6018,7 +6202,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
         <v>266</v>
@@ -6038,7 +6222,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B158" t="s">
         <v>266</v>
@@ -6058,13 +6242,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C159" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -6078,13 +6262,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C160" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -6093,41 +6277,41 @@
         <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C161" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C162" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D162" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
         <v>41</v>
@@ -6138,53 +6322,53 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C163" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D163" t="s">
         <v>105</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>622</v>
+        <v>277</v>
       </c>
       <c r="B164" t="s">
-        <v>622</v>
+        <v>277</v>
       </c>
       <c r="C164" t="s">
-        <v>623</v>
+        <v>278</v>
       </c>
       <c r="D164" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>279</v>
+        <v>618</v>
       </c>
       <c r="B165" t="s">
-        <v>279</v>
+        <v>618</v>
       </c>
       <c r="C165" t="s">
-        <v>280</v>
+        <v>619</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -6198,13 +6382,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B166" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C166" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
@@ -6218,19 +6402,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B167" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C167" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -6238,19 +6422,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B168" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C168" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
@@ -6258,13 +6442,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C169" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
@@ -6278,73 +6462,73 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B170" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C170" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B171" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C171" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D171" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E171" t="s">
         <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B172" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C172" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D172" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B173" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C173" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -6358,19 +6542,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B174" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C174" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -6378,56 +6562,56 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B175" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C175" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D175" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
         <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B176" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B177" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C177" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D177" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
         <v>41</v>
@@ -6438,19 +6622,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B178" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C178" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D178" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E178" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -6458,13 +6642,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B179" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C179" t="s">
-        <v>599</v>
+        <v>306</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
@@ -6478,19 +6662,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>308</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>592</v>
+        <v>307</v>
+      </c>
+      <c r="B180" t="s">
+        <v>307</v>
       </c>
       <c r="C180" t="s">
-        <v>309</v>
+        <v>596</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -6498,19 +6682,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C181" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
@@ -6518,19 +6702,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>206</v>
-      </c>
-      <c r="B182" t="s">
-        <v>207</v>
+        <v>310</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="C182" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
         <v>13</v>
@@ -6538,19 +6722,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>312</v>
+        <v>206</v>
       </c>
       <c r="B183" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F183" t="s">
         <v>13</v>
@@ -6558,13 +6742,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="B184" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="C184" t="s">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -6573,18 +6757,18 @@
         <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B185" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C185" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -6598,13 +6782,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C186" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -6621,10 +6805,10 @@
         <v>136</v>
       </c>
       <c r="B187" t="s">
-        <v>529</v>
+        <v>132</v>
       </c>
       <c r="C187" t="s">
-        <v>530</v>
+        <v>133</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -6633,24 +6817,24 @@
         <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>526</v>
       </c>
       <c r="C188" t="s">
-        <v>315</v>
+        <v>527</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
@@ -6658,13 +6842,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>316</v>
+        <v>621</v>
       </c>
       <c r="B189" t="s">
-        <v>316</v>
+        <v>59</v>
       </c>
       <c r="C189" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -6673,18 +6857,18 @@
         <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B190" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C190" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -6698,13 +6882,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B191" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C191" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -6713,21 +6897,21 @@
         <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B192" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C192" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D192" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E192" t="s">
         <v>41</v>
@@ -6738,39 +6922,39 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B193" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C193" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B194" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C194" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D194" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E194" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F194" t="s">
         <v>13</v>
@@ -6778,19 +6962,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B195" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C195" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F195" t="s">
         <v>13</v>
@@ -6798,13 +6982,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B196" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C196" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
@@ -6813,24 +6997,24 @@
         <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B197" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C197" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D197" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
@@ -6838,13 +7022,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B198" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C198" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -6853,24 +7037,24 @@
         <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B199" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C199" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D199" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E199" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
@@ -6878,19 +7062,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B200" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C200" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D200" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
         <v>13</v>
@@ -6898,13 +7082,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B201" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C201" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
@@ -6918,53 +7102,53 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B202" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C202" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D202" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B203" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C203" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D203" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B204" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C204" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D204" t="s">
         <v>3</v>
@@ -6978,33 +7162,33 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B205" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C205" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D205" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B206" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C206" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D206" t="s">
         <v>3</v>
@@ -7013,24 +7197,24 @@
         <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B207" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C207" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D207" t="s">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
         <v>13</v>
@@ -7038,13 +7222,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B208" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C208" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
@@ -7058,39 +7242,39 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B209" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B210" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C210" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
@@ -7098,39 +7282,39 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B211" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C211" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B212" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C212" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
@@ -7138,62 +7322,62 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="B213" t="s">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="C213" t="s">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>362</v>
       </c>
       <c r="C214" t="s">
-        <v>60</v>
+        <v>363</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>138</v>
+        <v>622</v>
       </c>
       <c r="B215" t="s">
-        <v>132</v>
+        <v>622</v>
       </c>
       <c r="C215" t="s">
-        <v>133</v>
+        <v>623</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -7438,19 +7622,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>388</v>
+        <v>624</v>
       </c>
       <c r="B228" t="s">
-        <v>388</v>
+        <v>624</v>
       </c>
       <c r="C228" t="s">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F228" t="s">
         <v>13</v>
@@ -7458,13 +7642,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B229" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -7478,13 +7662,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B230" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C230" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -7498,13 +7682,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B231" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C231" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -7518,13 +7702,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B232" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C232" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -7538,13 +7722,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B233" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C233" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -7558,13 +7742,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B234" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C234" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -7578,16 +7762,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B235" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C235" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D235" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E235" t="s">
         <v>41</v>
@@ -7598,76 +7782,76 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>404</v>
+        <v>137</v>
       </c>
       <c r="B236" t="s">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="C236" t="s">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F236" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="B237" t="s">
-        <v>406</v>
+        <v>59</v>
       </c>
       <c r="C237" t="s">
-        <v>407</v>
+        <v>60</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F237" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>408</v>
+        <v>138</v>
       </c>
       <c r="B238" t="s">
-        <v>408</v>
+        <v>132</v>
       </c>
       <c r="C238" t="s">
-        <v>409</v>
+        <v>133</v>
       </c>
       <c r="D238" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>410</v>
+        <v>626</v>
       </c>
       <c r="B239" t="s">
-        <v>411</v>
+        <v>626</v>
       </c>
       <c r="C239" t="s">
-        <v>412</v>
+        <v>627</v>
       </c>
       <c r="D239" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E239" t="s">
         <v>41</v>
@@ -7678,16 +7862,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B240" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C240" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D240" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E240" t="s">
         <v>41</v>
@@ -7698,13 +7882,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B241" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C241" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -7718,13 +7902,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B242" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C242" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
@@ -7738,79 +7922,79 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>139</v>
+        <v>408</v>
       </c>
       <c r="B243" t="s">
-        <v>132</v>
+        <v>408</v>
       </c>
       <c r="C243" t="s">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="D243" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E243" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F243" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>411</v>
       </c>
       <c r="C244" t="s">
-        <v>16</v>
+        <v>412</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F244" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>413</v>
       </c>
       <c r="B245" t="s">
-        <v>59</v>
+        <v>411</v>
       </c>
       <c r="C245" t="s">
-        <v>60</v>
+        <v>412</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>628</v>
       </c>
       <c r="B246" t="s">
-        <v>120</v>
+        <v>411</v>
       </c>
       <c r="C246" t="s">
-        <v>121</v>
+        <v>412</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F246" t="s">
         <v>13</v>
@@ -7818,19 +8002,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="B247" t="s">
-        <v>529</v>
+        <v>411</v>
       </c>
       <c r="C247" t="s">
-        <v>530</v>
+        <v>412</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F247" t="s">
         <v>13</v>
@@ -7838,99 +8022,99 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="B248" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
       <c r="C248" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="B249" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="C249" t="s">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="D249" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="B250" t="s">
-        <v>59</v>
+        <v>418</v>
       </c>
       <c r="C250" t="s">
-        <v>60</v>
+        <v>419</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F250" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="B251" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="C251" t="s">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="D251" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E251" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F251" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="B252" t="s">
-        <v>529</v>
+        <v>422</v>
       </c>
       <c r="C252" t="s">
-        <v>530</v>
+        <v>423</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F252" t="s">
         <v>13</v>
@@ -7938,19 +8122,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B253" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C253" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D253" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F253" t="s">
         <v>13</v>
@@ -7958,16 +8142,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B254" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C254" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D254" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E254" t="s">
         <v>41</v>
@@ -7978,19 +8162,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B255" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C255" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D255" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F255" t="s">
         <v>13</v>
@@ -7998,53 +8182,53 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>493</v>
+        <v>430</v>
       </c>
       <c r="B256" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="C256" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B257" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C257" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F257" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>424</v>
+        <v>139</v>
       </c>
       <c r="B258" t="s">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="C258" t="s">
-        <v>425</v>
+        <v>133</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -8053,78 +8237,78 @@
         <v>12</v>
       </c>
       <c r="F258" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="B259" t="s">
-        <v>426</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>427</v>
+        <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E259" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F259" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>428</v>
+        <v>18</v>
       </c>
       <c r="B260" t="s">
-        <v>428</v>
+        <v>59</v>
       </c>
       <c r="C260" t="s">
-        <v>429</v>
+        <v>60</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F260" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="B261" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C261" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F261" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="B262" t="s">
-        <v>132</v>
+        <v>526</v>
       </c>
       <c r="C262" t="s">
-        <v>133</v>
+        <v>527</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -8133,38 +8317,38 @@
         <v>12</v>
       </c>
       <c r="F262" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="B263" t="s">
-        <v>430</v>
+        <v>59</v>
       </c>
       <c r="C263" t="s">
-        <v>431</v>
+        <v>60</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F263" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C264" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -8178,7 +8362,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B265" t="s">
         <v>59</v>
@@ -8198,13 +8382,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B266" t="s">
-        <v>529</v>
+        <v>132</v>
       </c>
       <c r="C266" t="s">
-        <v>530</v>
+        <v>133</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -8213,18 +8397,18 @@
         <v>12</v>
       </c>
       <c r="F266" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B267" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
       <c r="C267" t="s">
-        <v>60</v>
+        <v>527</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -8233,18 +8417,18 @@
         <v>12</v>
       </c>
       <c r="F267" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="B268" t="s">
-        <v>132</v>
+        <v>491</v>
       </c>
       <c r="C268" t="s">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -8258,13 +8442,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B269" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C269" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -8278,7 +8462,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B270" t="s">
         <v>132</v>
@@ -8298,7 +8482,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>81</v>
+        <v>629</v>
       </c>
       <c r="B271" t="s">
         <v>59</v>
@@ -8318,33 +8502,33 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>81</v>
+        <v>629</v>
       </c>
       <c r="B272" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C272" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F272" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="B273" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C273" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -8358,13 +8542,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B274" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -8378,13 +8562,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B275" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C275" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -8393,18 +8577,18 @@
         <v>12</v>
       </c>
       <c r="F275" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B276" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
       <c r="C276" t="s">
-        <v>60</v>
+        <v>527</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -8413,18 +8597,18 @@
         <v>12</v>
       </c>
       <c r="F276" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B277" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C277" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -8438,13 +8622,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B278" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C278" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -8458,27 +8642,27 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>84</v>
+        <v>630</v>
       </c>
       <c r="B279" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C279" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F279" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>84</v>
+        <v>630</v>
       </c>
       <c r="B280" t="s">
         <v>132</v>
@@ -8498,13 +8682,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>84</v>
+        <v>631</v>
       </c>
       <c r="B281" t="s">
-        <v>476</v>
+        <v>132</v>
       </c>
       <c r="C281" t="s">
-        <v>477</v>
+        <v>133</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -8518,13 +8702,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B282" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C282" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -8533,18 +8717,18 @@
         <v>12</v>
       </c>
       <c r="F282" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="B283" t="s">
-        <v>432</v>
+        <v>132</v>
       </c>
       <c r="C283" t="s">
-        <v>433</v>
+        <v>133</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -8558,73 +8742,73 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>434</v>
+        <v>632</v>
       </c>
       <c r="B284" t="s">
-        <v>434</v>
+        <v>59</v>
       </c>
       <c r="C284" t="s">
-        <v>435</v>
+        <v>60</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
       </c>
       <c r="E284" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F284" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>6</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-      <c r="C285">
-        <v>0</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B285" t="s">
+        <v>59</v>
+      </c>
+      <c r="C285" t="s">
+        <v>60</v>
+      </c>
+      <c r="D285" t="s">
+        <v>3</v>
+      </c>
+      <c r="E285" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>7</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B286" t="s">
+        <v>132</v>
+      </c>
+      <c r="C286" t="s">
+        <v>133</v>
+      </c>
+      <c r="D286" t="s">
+        <v>3</v>
+      </c>
+      <c r="E286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>531</v>
+        <v>633</v>
       </c>
       <c r="B287" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C287" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -8633,84 +8817,84 @@
         <v>12</v>
       </c>
       <c r="F287" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>8</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-      <c r="C288">
-        <v>0</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
+        <v>634</v>
+      </c>
+      <c r="B288" t="s">
+        <v>59</v>
+      </c>
+      <c r="C288" t="s">
+        <v>60</v>
+      </c>
+      <c r="D288" t="s">
+        <v>3</v>
+      </c>
+      <c r="E288" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>436</v>
+        <v>634</v>
       </c>
       <c r="B289" t="s">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="C289" t="s">
-        <v>437</v>
+        <v>278</v>
       </c>
       <c r="D289" t="s">
         <v>105</v>
       </c>
       <c r="E289" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F289" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>634</v>
       </c>
       <c r="B290" t="s">
-        <v>438</v>
+        <v>526</v>
       </c>
       <c r="C290" t="s">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
       </c>
       <c r="E290" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F290" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>440</v>
+        <v>635</v>
       </c>
       <c r="B291" t="s">
-        <v>440</v>
+        <v>59</v>
       </c>
       <c r="C291" t="s">
-        <v>441</v>
+        <v>60</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
       </c>
       <c r="E291" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F291" t="s">
         <v>17</v>
@@ -8718,16 +8902,16 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>442</v>
+        <v>635</v>
       </c>
       <c r="B292" t="s">
-        <v>442</v>
+        <v>132</v>
       </c>
       <c r="C292" t="s">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="D292" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E292" t="s">
         <v>12</v>
@@ -8738,13 +8922,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="B293" t="s">
-        <v>444</v>
+        <v>59</v>
       </c>
       <c r="C293" t="s">
-        <v>445</v>
+        <v>60</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -8753,18 +8937,18 @@
         <v>12</v>
       </c>
       <c r="F293" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="B294" t="s">
-        <v>447</v>
+        <v>132</v>
       </c>
       <c r="C294" t="s">
-        <v>448</v>
+        <v>133</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -8778,13 +8962,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="B295" t="s">
-        <v>447</v>
+        <v>526</v>
       </c>
       <c r="C295" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -8793,78 +8977,78 @@
         <v>12</v>
       </c>
       <c r="F295" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>450</v>
+        <v>636</v>
       </c>
       <c r="B296" t="s">
-        <v>450</v>
+        <v>59</v>
       </c>
       <c r="C296" t="s">
-        <v>451</v>
+        <v>60</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
       </c>
       <c r="E296" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F296" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>452</v>
+        <v>636</v>
       </c>
       <c r="B297" t="s">
-        <v>452</v>
+        <v>132</v>
       </c>
       <c r="C297" t="s">
-        <v>453</v>
+        <v>133</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F297" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>454</v>
+        <v>636</v>
       </c>
       <c r="B298" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="C298" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
       </c>
       <c r="E298" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F298" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>456</v>
+        <v>637</v>
       </c>
       <c r="B299" t="s">
-        <v>456</v>
+        <v>59</v>
       </c>
       <c r="C299" t="s">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -8873,78 +9057,78 @@
         <v>12</v>
       </c>
       <c r="F299" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>458</v>
+        <v>637</v>
       </c>
       <c r="B300" t="s">
-        <v>458</v>
+        <v>132</v>
       </c>
       <c r="C300" t="s">
-        <v>459</v>
+        <v>133</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
       </c>
       <c r="E300" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F300" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>460</v>
+        <v>638</v>
       </c>
       <c r="B301" t="s">
-        <v>460</v>
+        <v>15</v>
       </c>
       <c r="C301" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F301" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>462</v>
+        <v>638</v>
       </c>
       <c r="B302" t="s">
-        <v>462</v>
+        <v>59</v>
       </c>
       <c r="C302" t="s">
-        <v>463</v>
+        <v>60</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F302" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>464</v>
+        <v>639</v>
       </c>
       <c r="B303" t="s">
-        <v>464</v>
+        <v>59</v>
       </c>
       <c r="C303" t="s">
-        <v>465</v>
+        <v>60</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -8953,98 +9137,98 @@
         <v>12</v>
       </c>
       <c r="F303" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>466</v>
+        <v>639</v>
       </c>
       <c r="B304" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
       <c r="C304" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F304" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>468</v>
+        <v>83</v>
       </c>
       <c r="B305" t="s">
-        <v>468</v>
+        <v>59</v>
       </c>
       <c r="C305" t="s">
-        <v>469</v>
+        <v>60</v>
       </c>
       <c r="D305" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E305" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F305" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="B306" t="s">
-        <v>470</v>
+        <v>132</v>
       </c>
       <c r="C306" t="s">
-        <v>471</v>
+        <v>133</v>
       </c>
       <c r="D306" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F306" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>472</v>
+        <v>640</v>
       </c>
       <c r="B307" t="s">
-        <v>472</v>
+        <v>59</v>
       </c>
       <c r="C307" t="s">
-        <v>473</v>
+        <v>60</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
       </c>
       <c r="E307" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F307" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>474</v>
+        <v>640</v>
       </c>
       <c r="B308" t="s">
-        <v>474</v>
+        <v>132</v>
       </c>
       <c r="C308" t="s">
-        <v>475</v>
+        <v>133</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -9058,13 +9242,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>476</v>
+        <v>84</v>
       </c>
       <c r="B309" t="s">
-        <v>476</v>
+        <v>59</v>
       </c>
       <c r="C309" t="s">
-        <v>477</v>
+        <v>60</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -9078,19 +9262,19 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>478</v>
+        <v>84</v>
       </c>
       <c r="B310" t="s">
-        <v>478</v>
+        <v>120</v>
       </c>
       <c r="C310" t="s">
-        <v>479</v>
+        <v>121</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F310" t="s">
         <v>13</v>
@@ -9098,76 +9282,76 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>480</v>
+        <v>84</v>
       </c>
       <c r="B311" t="s">
-        <v>480</v>
+        <v>132</v>
       </c>
       <c r="C311" t="s">
-        <v>481</v>
+        <v>133</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
       </c>
       <c r="E311" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F311" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>482</v>
+        <v>84</v>
       </c>
       <c r="B312" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C312" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F312" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>484</v>
+        <v>84</v>
       </c>
       <c r="B313" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="C313" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F313" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="B314" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="C314" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D314" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E314" t="s">
         <v>41</v>
@@ -9178,13 +9362,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>488</v>
+        <v>641</v>
       </c>
       <c r="B315" t="s">
-        <v>488</v>
+        <v>120</v>
       </c>
       <c r="C315" t="s">
-        <v>489</v>
+        <v>121</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -9198,13 +9382,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>491</v>
+        <v>642</v>
       </c>
       <c r="B316" t="s">
-        <v>491</v>
+        <v>15</v>
       </c>
       <c r="C316" t="s">
-        <v>492</v>
+        <v>16</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -9218,13 +9402,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>20</v>
+        <v>642</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C317" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -9238,33 +9422,33 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>20</v>
+        <v>642</v>
       </c>
       <c r="B318" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C318" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F318" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>85</v>
+        <v>642</v>
       </c>
       <c r="B319" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
       <c r="C319" t="s">
-        <v>60</v>
+        <v>527</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
@@ -9273,38 +9457,38 @@
         <v>12</v>
       </c>
       <c r="F319" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>85</v>
-      </c>
-      <c r="B320" t="s">
-        <v>529</v>
-      </c>
-      <c r="C320" t="s">
-        <v>530</v>
-      </c>
-      <c r="D320" t="s">
-        <v>3</v>
-      </c>
-      <c r="E320" t="s">
-        <v>12</v>
-      </c>
-      <c r="F320" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>141</v>
+        <v>528</v>
       </c>
       <c r="B321" t="s">
-        <v>132</v>
+        <v>526</v>
       </c>
       <c r="C321" t="s">
-        <v>133</v>
+        <v>527</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -9313,44 +9497,44 @@
         <v>12</v>
       </c>
       <c r="F321" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>86</v>
-      </c>
-      <c r="B322" t="s">
-        <v>59</v>
-      </c>
-      <c r="C322" t="s">
-        <v>60</v>
-      </c>
-      <c r="D322" t="s">
-        <v>3</v>
-      </c>
-      <c r="E322" t="s">
-        <v>12</v>
-      </c>
-      <c r="F322" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>86</v>
+        <v>643</v>
       </c>
       <c r="B323" t="s">
-        <v>106</v>
+        <v>643</v>
       </c>
       <c r="C323" t="s">
-        <v>107</v>
+        <v>644</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F323" t="s">
         <v>13</v>
@@ -9358,19 +9542,19 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>86</v>
+        <v>436</v>
       </c>
       <c r="B324" t="s">
-        <v>120</v>
+        <v>436</v>
       </c>
       <c r="C324" t="s">
-        <v>121</v>
+        <v>437</v>
       </c>
       <c r="D324" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E324" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F324" t="s">
         <v>13</v>
@@ -9378,56 +9562,56 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>86</v>
+        <v>438</v>
       </c>
       <c r="B325" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="C325" t="s">
-        <v>530</v>
+        <v>439</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
       </c>
       <c r="E325" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F325" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>9</v>
-      </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-      <c r="C326">
-        <v>0</v>
-      </c>
-      <c r="D326">
-        <v>0</v>
-      </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326">
-        <v>0</v>
+        <v>440</v>
+      </c>
+      <c r="B326" t="s">
+        <v>440</v>
+      </c>
+      <c r="C326" t="s">
+        <v>441</v>
+      </c>
+      <c r="D326" t="s">
+        <v>3</v>
+      </c>
+      <c r="E326" t="s">
+        <v>41</v>
+      </c>
+      <c r="F326" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B327" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C327" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D327" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E327" t="s">
         <v>12</v>
@@ -9438,13 +9622,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>159</v>
+        <v>444</v>
       </c>
       <c r="B328" t="s">
-        <v>155</v>
+        <v>444</v>
       </c>
       <c r="C328" t="s">
-        <v>156</v>
+        <v>445</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -9453,18 +9637,18 @@
         <v>12</v>
       </c>
       <c r="F328" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="B329" t="s">
-        <v>556</v>
+        <v>447</v>
       </c>
       <c r="C329" t="s">
-        <v>557</v>
+        <v>448</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -9478,13 +9662,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>87</v>
+        <v>446</v>
       </c>
       <c r="B330" t="s">
-        <v>59</v>
+        <v>447</v>
       </c>
       <c r="C330" t="s">
-        <v>60</v>
+        <v>448</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -9498,39 +9682,39 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>87</v>
+        <v>450</v>
       </c>
       <c r="B331" t="s">
-        <v>132</v>
+        <v>450</v>
       </c>
       <c r="C331" t="s">
-        <v>133</v>
+        <v>451</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F331" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>87</v>
+        <v>452</v>
       </c>
       <c r="B332" t="s">
-        <v>529</v>
+        <v>452</v>
       </c>
       <c r="C332" t="s">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
       </c>
       <c r="E332" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F332" t="s">
         <v>13</v>
@@ -9538,13 +9722,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>142</v>
+        <v>645</v>
       </c>
       <c r="B333" t="s">
-        <v>132</v>
+        <v>456</v>
       </c>
       <c r="C333" t="s">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -9553,38 +9737,38 @@
         <v>12</v>
       </c>
       <c r="F333" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>143</v>
+        <v>454</v>
       </c>
       <c r="B334" t="s">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="C334" t="s">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F334" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>558</v>
+        <v>456</v>
       </c>
       <c r="B335" t="s">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="C335" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -9593,24 +9777,24 @@
         <v>12</v>
       </c>
       <c r="F335" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>108</v>
+        <v>646</v>
       </c>
       <c r="B336" t="s">
-        <v>106</v>
+        <v>646</v>
       </c>
       <c r="C336" t="s">
-        <v>107</v>
+        <v>647</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F336" t="s">
         <v>13</v>
@@ -9618,73 +9802,73 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>160</v>
+        <v>458</v>
       </c>
       <c r="B337" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="C337" t="s">
-        <v>156</v>
+        <v>459</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F337" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="B338" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="C338" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
       </c>
       <c r="E338" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F338" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>160</v>
+        <v>462</v>
       </c>
       <c r="B339" t="s">
-        <v>556</v>
+        <v>462</v>
       </c>
       <c r="C339" t="s">
-        <v>557</v>
+        <v>463</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
       </c>
       <c r="E339" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F339" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>144</v>
+        <v>464</v>
       </c>
       <c r="B340" t="s">
-        <v>132</v>
+        <v>464</v>
       </c>
       <c r="C340" t="s">
-        <v>133</v>
+        <v>465</v>
       </c>
       <c r="D340" t="s">
         <v>3</v>
@@ -9693,18 +9877,18 @@
         <v>12</v>
       </c>
       <c r="F340" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="B341" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="C341" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -9718,73 +9902,73 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B342" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="C342" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="D342" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E342" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F342" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="B343" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="C343" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="D343" t="s">
-        <v>501</v>
+        <v>25</v>
       </c>
       <c r="E343" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F343" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>145</v>
+        <v>472</v>
       </c>
       <c r="B344" t="s">
-        <v>132</v>
+        <v>472</v>
       </c>
       <c r="C344" t="s">
-        <v>133</v>
+        <v>473</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
       </c>
       <c r="E344" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F344" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B345" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="C345" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -9793,84 +9977,84 @@
         <v>12</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B346" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="C346" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
       </c>
       <c r="E346" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F346" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="B347" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="C347" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
       </c>
       <c r="E347" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F347" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B348" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="C348" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
       </c>
       <c r="E348" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F348" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>109</v>
+        <v>482</v>
       </c>
       <c r="B349" t="s">
-        <v>106</v>
+        <v>482</v>
       </c>
       <c r="C349" t="s">
-        <v>107</v>
+        <v>483</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
       </c>
       <c r="E349" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F349" t="s">
         <v>13</v>
@@ -9878,19 +10062,19 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>109</v>
+        <v>484</v>
       </c>
       <c r="B350" t="s">
-        <v>132</v>
+        <v>484</v>
       </c>
       <c r="C350" t="s">
-        <v>133</v>
+        <v>485</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
       </c>
       <c r="E350" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F350" t="s">
         <v>17</v>
@@ -9898,19 +10082,19 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>561</v>
+        <v>486</v>
       </c>
       <c r="B351" t="s">
-        <v>562</v>
+        <v>486</v>
       </c>
       <c r="C351" t="s">
-        <v>563</v>
+        <v>487</v>
       </c>
       <c r="D351" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E351" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F351" t="s">
         <v>13</v>
@@ -9918,19 +10102,19 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="B352" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C352" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
       </c>
       <c r="E352" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F352" t="s">
         <v>13</v>
@@ -9938,33 +10122,33 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B353" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C353" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
       </c>
       <c r="E353" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F353" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B354" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="C354" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -9978,59 +10162,59 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="B355" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="C355" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
       </c>
       <c r="E355" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F355" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B356" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="C356" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D356" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E356" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F356" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B357" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="C357" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D357" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E357" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F357" t="s">
         <v>13</v>
@@ -10038,19 +10222,19 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B358" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C358" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D358" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E358" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F358" t="s">
         <v>17</v>
@@ -10058,53 +10242,53 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B359" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="C359" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F359" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>523</v>
-      </c>
-      <c r="B360" t="s">
-        <v>523</v>
-      </c>
-      <c r="C360" t="s">
-        <v>524</v>
-      </c>
-      <c r="D360" t="s">
-        <v>25</v>
-      </c>
-      <c r="E360" t="s">
-        <v>41</v>
-      </c>
-      <c r="F360" t="s">
-        <v>13</v>
+        <v>648</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
       <c r="B361" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>526</v>
+        <v>16</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -10113,18 +10297,18 @@
         <v>12</v>
       </c>
       <c r="F361" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>527</v>
+        <v>20</v>
       </c>
       <c r="B362" t="s">
-        <v>527</v>
+        <v>59</v>
       </c>
       <c r="C362" t="s">
-        <v>528</v>
+        <v>60</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -10133,18 +10317,18 @@
         <v>12</v>
       </c>
       <c r="F362" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>529</v>
+        <v>85</v>
       </c>
       <c r="B363" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C363" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -10153,18 +10337,18 @@
         <v>12</v>
       </c>
       <c r="F363" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>595</v>
+        <v>85</v>
       </c>
       <c r="B364" t="s">
-        <v>326</v>
+        <v>526</v>
       </c>
       <c r="C364" t="s">
-        <v>327</v>
+        <v>527</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -10178,36 +10362,36 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>532</v>
+        <v>141</v>
       </c>
       <c r="B365" t="s">
-        <v>532</v>
+        <v>132</v>
       </c>
       <c r="C365" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
       <c r="D365" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E365" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F365" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="B366" t="s">
-        <v>534</v>
+        <v>411</v>
       </c>
       <c r="C366" t="s">
-        <v>535</v>
+        <v>412</v>
       </c>
       <c r="D366" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E366" t="s">
         <v>41</v>
@@ -10218,16 +10402,16 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>534</v>
+        <v>650</v>
       </c>
       <c r="B367" t="s">
-        <v>534</v>
+        <v>411</v>
       </c>
       <c r="C367" t="s">
-        <v>535</v>
+        <v>412</v>
       </c>
       <c r="D367" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E367" t="s">
         <v>41</v>
@@ -10238,53 +10422,53 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="B368" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="C368" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
       </c>
       <c r="E368" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F368" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>538</v>
-      </c>
-      <c r="B369" t="s">
-        <v>538</v>
-      </c>
-      <c r="C369" t="s">
-        <v>539</v>
-      </c>
-      <c r="D369" t="s">
-        <v>105</v>
-      </c>
-      <c r="E369" t="s">
-        <v>41</v>
-      </c>
-      <c r="F369" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>540</v>
+        <v>449</v>
       </c>
       <c r="B370" t="s">
-        <v>540</v>
+        <v>447</v>
       </c>
       <c r="C370" t="s">
-        <v>541</v>
+        <v>448</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -10293,18 +10477,18 @@
         <v>12</v>
       </c>
       <c r="F370" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>494</v>
+        <v>651</v>
       </c>
       <c r="B371" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="C371" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -10313,18 +10497,18 @@
         <v>12</v>
       </c>
       <c r="F371" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>88</v>
+        <v>651</v>
       </c>
       <c r="B372" t="s">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="C372" t="s">
-        <v>60</v>
+        <v>554</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -10338,13 +10522,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B373" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C373" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -10358,13 +10542,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B374" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="C374" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -10378,13 +10562,13 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B375" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C375" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -10393,18 +10577,18 @@
         <v>12</v>
       </c>
       <c r="F375" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B376" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C376" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -10413,24 +10597,24 @@
         <v>12</v>
       </c>
       <c r="F376" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B377" t="s">
-        <v>529</v>
+        <v>120</v>
       </c>
       <c r="C377" t="s">
-        <v>530</v>
+        <v>121</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
       </c>
       <c r="E377" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F377" t="s">
         <v>13</v>
@@ -10438,13 +10622,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B378" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
       <c r="C378" t="s">
-        <v>60</v>
+        <v>527</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -10453,18 +10637,18 @@
         <v>12</v>
       </c>
       <c r="F378" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>90</v>
+        <v>652</v>
       </c>
       <c r="B379" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="C379" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -10473,18 +10657,18 @@
         <v>12</v>
       </c>
       <c r="F379" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>91</v>
+        <v>652</v>
       </c>
       <c r="B380" t="s">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="C380" t="s">
-        <v>60</v>
+        <v>554</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -10498,13 +10682,13 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B381" t="s">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="C381" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -10513,18 +10697,18 @@
         <v>12</v>
       </c>
       <c r="F381" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B382" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C382" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -10538,19 +10722,19 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B383" t="s">
-        <v>120</v>
+        <v>526</v>
       </c>
       <c r="C383" t="s">
-        <v>121</v>
+        <v>527</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
       </c>
       <c r="E383" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F383" t="s">
         <v>13</v>
@@ -10558,13 +10742,13 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B384" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C384" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -10578,13 +10762,13 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B385" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C385" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -10598,13 +10782,13 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>94</v>
+        <v>653</v>
       </c>
       <c r="B386" t="s">
-        <v>132</v>
+        <v>553</v>
       </c>
       <c r="C386" t="s">
-        <v>133</v>
+        <v>554</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -10618,19 +10802,19 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>542</v>
+        <v>654</v>
       </c>
       <c r="B387" t="s">
-        <v>542</v>
+        <v>411</v>
       </c>
       <c r="C387" t="s">
-        <v>543</v>
+        <v>412</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
       </c>
       <c r="E387" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F387" t="s">
         <v>13</v>
@@ -10638,13 +10822,13 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>95</v>
+        <v>654</v>
       </c>
       <c r="B388" t="s">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="C388" t="s">
-        <v>60</v>
+        <v>554</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -10658,53 +10842,53 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>544</v>
+        <v>655</v>
       </c>
       <c r="B389" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="C389" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="D389" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E389" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F389" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B390" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C390" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
       </c>
       <c r="E390" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F390" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B391" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C391" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -10713,38 +10897,38 @@
         <v>12</v>
       </c>
       <c r="F391" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B392" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C392" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
       </c>
       <c r="E392" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F392" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B393" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="C393" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -10753,18 +10937,18 @@
         <v>12</v>
       </c>
       <c r="F393" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>548</v>
+        <v>160</v>
       </c>
       <c r="B394" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C394" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -10778,13 +10962,13 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>551</v>
+        <v>656</v>
       </c>
       <c r="B395" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C395" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -10793,18 +10977,18 @@
         <v>12</v>
       </c>
       <c r="F395" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>550</v>
+        <v>144</v>
       </c>
       <c r="B396" t="s">
-        <v>551</v>
+        <v>132</v>
       </c>
       <c r="C396" t="s">
-        <v>552</v>
+        <v>133</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -10813,18 +10997,18 @@
         <v>12</v>
       </c>
       <c r="F396" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>597</v>
+        <v>145</v>
       </c>
       <c r="B397" t="s">
-        <v>447</v>
+        <v>132</v>
       </c>
       <c r="C397" t="s">
-        <v>448</v>
+        <v>133</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -10838,13 +11022,13 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>553</v>
+        <v>109</v>
       </c>
       <c r="B398" t="s">
-        <v>553</v>
+        <v>106</v>
       </c>
       <c r="C398" t="s">
-        <v>554</v>
+        <v>107</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -10858,13 +11042,13 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>556</v>
+        <v>109</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>132</v>
       </c>
       <c r="C399" t="s">
-        <v>557</v>
+        <v>133</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -10878,7 +11062,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B400" t="s">
         <v>559</v>
@@ -10890,7 +11074,7 @@
         <v>3</v>
       </c>
       <c r="E400" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F400" t="s">
         <v>13</v>
@@ -10898,13 +11082,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="B401" t="s">
-        <v>562</v>
+        <v>326</v>
       </c>
       <c r="C401" t="s">
-        <v>563</v>
+        <v>327</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -10918,59 +11102,59 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="B402" t="s">
-        <v>564</v>
+        <v>447</v>
       </c>
       <c r="C402" t="s">
-        <v>565</v>
+        <v>448</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
       </c>
       <c r="E402" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F402" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>161</v>
+        <v>506</v>
       </c>
       <c r="B403" t="s">
-        <v>155</v>
+        <v>506</v>
       </c>
       <c r="C403" t="s">
-        <v>156</v>
+        <v>507</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
       </c>
       <c r="E403" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F403" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="B404" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="C404" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
       </c>
       <c r="E404" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F404" t="s">
         <v>13</v>
@@ -10978,13 +11162,13 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="B405" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="C405" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -10998,19 +11182,19 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="B406" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="C406" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
       </c>
       <c r="E406" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F406" t="s">
         <v>13</v>
@@ -11018,39 +11202,39 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="B407" t="s">
-        <v>572</v>
+        <v>514</v>
       </c>
       <c r="C407" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="D407" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E407" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F407" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="B408" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="C408" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="D408" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E408" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F408" t="s">
         <v>13</v>
@@ -11058,13 +11242,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="B409" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="C409" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="D409" t="s">
         <v>105</v>
@@ -11073,18 +11257,18 @@
         <v>41</v>
       </c>
       <c r="F409" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>578</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
+      </c>
+      <c r="B410" t="s">
+        <v>518</v>
       </c>
       <c r="C410" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -11098,16 +11282,16 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="B411" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="C411" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="D411" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E411" t="s">
         <v>41</v>
@@ -11118,39 +11302,39 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="B412" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="C412" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
       </c>
       <c r="E412" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F412" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="B413" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="C413" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
       </c>
       <c r="E413" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F413" t="s">
         <v>13</v>
@@ -11158,71 +11342,1312 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="B414" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="C414" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
       </c>
       <c r="E414" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F414" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="B415" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="C415" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="D415" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E415" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F415" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B416" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="C416" t="s">
+        <v>532</v>
+      </c>
+      <c r="D416" t="s">
+        <v>105</v>
+      </c>
+      <c r="E416" t="s">
+        <v>41</v>
+      </c>
+      <c r="F416" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>531</v>
+      </c>
+      <c r="B417" t="s">
+        <v>531</v>
+      </c>
+      <c r="C417" t="s">
+        <v>532</v>
+      </c>
+      <c r="D417" t="s">
+        <v>105</v>
+      </c>
+      <c r="E417" t="s">
+        <v>41</v>
+      </c>
+      <c r="F417" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>533</v>
+      </c>
+      <c r="B418" t="s">
+        <v>533</v>
+      </c>
+      <c r="C418" t="s">
+        <v>534</v>
+      </c>
+      <c r="D418" t="s">
+        <v>3</v>
+      </c>
+      <c r="E418" t="s">
+        <v>41</v>
+      </c>
+      <c r="F418" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>535</v>
+      </c>
+      <c r="B419" t="s">
+        <v>535</v>
+      </c>
+      <c r="C419" t="s">
+        <v>536</v>
+      </c>
+      <c r="D419" t="s">
+        <v>105</v>
+      </c>
+      <c r="E419" t="s">
+        <v>41</v>
+      </c>
+      <c r="F419" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>537</v>
+      </c>
+      <c r="B420" t="s">
+        <v>537</v>
+      </c>
+      <c r="C420" t="s">
+        <v>538</v>
+      </c>
+      <c r="D420" t="s">
+        <v>3</v>
+      </c>
+      <c r="E420" t="s">
+        <v>12</v>
+      </c>
+      <c r="F420" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>539</v>
+      </c>
+      <c r="B421" t="s">
+        <v>539</v>
+      </c>
+      <c r="C421" t="s">
+        <v>540</v>
+      </c>
+      <c r="D421" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421" t="s">
+        <v>12</v>
+      </c>
+      <c r="F421" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>541</v>
+      </c>
+      <c r="B422" t="s">
+        <v>541</v>
+      </c>
+      <c r="C422" t="s">
+        <v>542</v>
+      </c>
+      <c r="D422" t="s">
+        <v>105</v>
+      </c>
+      <c r="E422" t="s">
+        <v>41</v>
+      </c>
+      <c r="F422" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>543</v>
+      </c>
+      <c r="B423" t="s">
+        <v>543</v>
+      </c>
+      <c r="C423" t="s">
+        <v>544</v>
+      </c>
+      <c r="D423" t="s">
+        <v>3</v>
+      </c>
+      <c r="E423" t="s">
+        <v>41</v>
+      </c>
+      <c r="F423" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>545</v>
+      </c>
+      <c r="B424" t="s">
+        <v>545</v>
+      </c>
+      <c r="C424" t="s">
+        <v>546</v>
+      </c>
+      <c r="D424" t="s">
+        <v>3</v>
+      </c>
+      <c r="E424" t="s">
+        <v>12</v>
+      </c>
+      <c r="F424" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>548</v>
+      </c>
+      <c r="B425" t="s">
+        <v>548</v>
+      </c>
+      <c r="C425" t="s">
+        <v>549</v>
+      </c>
+      <c r="D425" t="s">
+        <v>3</v>
+      </c>
+      <c r="E425" t="s">
+        <v>12</v>
+      </c>
+      <c r="F425" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>547</v>
+      </c>
+      <c r="B426" t="s">
+        <v>548</v>
+      </c>
+      <c r="C426" t="s">
+        <v>549</v>
+      </c>
+      <c r="D426" t="s">
+        <v>3</v>
+      </c>
+      <c r="E426" t="s">
+        <v>12</v>
+      </c>
+      <c r="F426" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>550</v>
+      </c>
+      <c r="B427" t="s">
+        <v>550</v>
+      </c>
+      <c r="C427" t="s">
+        <v>551</v>
+      </c>
+      <c r="D427" t="s">
+        <v>3</v>
+      </c>
+      <c r="E427" t="s">
+        <v>12</v>
+      </c>
+      <c r="F427" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>553</v>
+      </c>
+      <c r="B428" t="s">
+        <v>553</v>
+      </c>
+      <c r="C428" t="s">
+        <v>554</v>
+      </c>
+      <c r="D428" t="s">
+        <v>3</v>
+      </c>
+      <c r="E428" t="s">
+        <v>12</v>
+      </c>
+      <c r="F428" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>556</v>
+      </c>
+      <c r="B429" t="s">
+        <v>556</v>
+      </c>
+      <c r="C429" t="s">
+        <v>557</v>
+      </c>
+      <c r="D429" t="s">
+        <v>3</v>
+      </c>
+      <c r="E429" t="s">
+        <v>41</v>
+      </c>
+      <c r="F429" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>559</v>
+      </c>
+      <c r="B430" t="s">
+        <v>559</v>
+      </c>
+      <c r="C430" t="s">
+        <v>560</v>
+      </c>
+      <c r="D430" t="s">
+        <v>3</v>
+      </c>
+      <c r="E430" t="s">
+        <v>12</v>
+      </c>
+      <c r="F430" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>561</v>
+      </c>
+      <c r="B431" t="s">
+        <v>561</v>
+      </c>
+      <c r="C431" t="s">
+        <v>562</v>
+      </c>
+      <c r="D431" t="s">
+        <v>3</v>
+      </c>
+      <c r="E431" t="s">
+        <v>41</v>
+      </c>
+      <c r="F431" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>657</v>
+      </c>
+      <c r="B432" t="s">
+        <v>657</v>
+      </c>
+      <c r="C432" t="s">
+        <v>658</v>
+      </c>
+      <c r="D432" t="s">
+        <v>3</v>
+      </c>
+      <c r="E432" t="s">
+        <v>41</v>
+      </c>
+      <c r="F432" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>659</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C433" t="s">
+        <v>660</v>
+      </c>
+      <c r="D433" t="s">
+        <v>3</v>
+      </c>
+      <c r="E433" t="s">
+        <v>12</v>
+      </c>
+      <c r="F433" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>161</v>
+      </c>
+      <c r="B434" t="s">
+        <v>155</v>
+      </c>
+      <c r="C434" t="s">
+        <v>156</v>
+      </c>
+      <c r="D434" t="s">
+        <v>3</v>
+      </c>
+      <c r="E434" t="s">
+        <v>12</v>
+      </c>
+      <c r="F434" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>161</v>
+      </c>
+      <c r="B435" t="s">
+        <v>456</v>
+      </c>
+      <c r="C435" t="s">
+        <v>457</v>
+      </c>
+      <c r="D435" t="s">
+        <v>3</v>
+      </c>
+      <c r="E435" t="s">
+        <v>12</v>
+      </c>
+      <c r="F435" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>494</v>
+      </c>
+      <c r="B436" t="s">
+        <v>491</v>
+      </c>
+      <c r="C436" t="s">
+        <v>492</v>
+      </c>
+      <c r="D436" t="s">
+        <v>3</v>
+      </c>
+      <c r="E436" t="s">
+        <v>12</v>
+      </c>
+      <c r="F436" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>88</v>
+      </c>
+      <c r="B437" t="s">
+        <v>59</v>
+      </c>
+      <c r="C437" t="s">
+        <v>60</v>
+      </c>
+      <c r="D437" t="s">
+        <v>3</v>
+      </c>
+      <c r="E437" t="s">
+        <v>12</v>
+      </c>
+      <c r="F437" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>88</v>
+      </c>
+      <c r="B438" t="s">
+        <v>132</v>
+      </c>
+      <c r="C438" t="s">
+        <v>133</v>
+      </c>
+      <c r="D438" t="s">
+        <v>3</v>
+      </c>
+      <c r="E438" t="s">
+        <v>12</v>
+      </c>
+      <c r="F438" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>88</v>
+      </c>
+      <c r="B439" t="s">
+        <v>476</v>
+      </c>
+      <c r="C439" t="s">
+        <v>477</v>
+      </c>
+      <c r="D439" t="s">
+        <v>3</v>
+      </c>
+      <c r="E439" t="s">
+        <v>12</v>
+      </c>
+      <c r="F439" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>88</v>
+      </c>
+      <c r="B440" t="s">
+        <v>526</v>
+      </c>
+      <c r="C440" t="s">
+        <v>527</v>
+      </c>
+      <c r="D440" t="s">
+        <v>3</v>
+      </c>
+      <c r="E440" t="s">
+        <v>12</v>
+      </c>
+      <c r="F440" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>89</v>
+      </c>
+      <c r="B441" t="s">
+        <v>59</v>
+      </c>
+      <c r="C441" t="s">
+        <v>60</v>
+      </c>
+      <c r="D441" t="s">
+        <v>3</v>
+      </c>
+      <c r="E441" t="s">
+        <v>12</v>
+      </c>
+      <c r="F441" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>89</v>
+      </c>
+      <c r="B442" t="s">
+        <v>526</v>
+      </c>
+      <c r="C442" t="s">
+        <v>527</v>
+      </c>
+      <c r="D442" t="s">
+        <v>3</v>
+      </c>
+      <c r="E442" t="s">
+        <v>12</v>
+      </c>
+      <c r="F442" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>90</v>
+      </c>
+      <c r="B443" t="s">
+        <v>59</v>
+      </c>
+      <c r="C443" t="s">
+        <v>60</v>
+      </c>
+      <c r="D443" t="s">
+        <v>3</v>
+      </c>
+      <c r="E443" t="s">
+        <v>12</v>
+      </c>
+      <c r="F443" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>90</v>
+      </c>
+      <c r="B444" t="s">
+        <v>526</v>
+      </c>
+      <c r="C444" t="s">
+        <v>527</v>
+      </c>
+      <c r="D444" t="s">
+        <v>3</v>
+      </c>
+      <c r="E444" t="s">
+        <v>12</v>
+      </c>
+      <c r="F444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>661</v>
+      </c>
+      <c r="B445" t="s">
+        <v>59</v>
+      </c>
+      <c r="C445" t="s">
+        <v>60</v>
+      </c>
+      <c r="D445" t="s">
+        <v>3</v>
+      </c>
+      <c r="E445" t="s">
+        <v>12</v>
+      </c>
+      <c r="F445" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>91</v>
+      </c>
+      <c r="B446" t="s">
+        <v>59</v>
+      </c>
+      <c r="C446" t="s">
+        <v>60</v>
+      </c>
+      <c r="D446" t="s">
+        <v>3</v>
+      </c>
+      <c r="E446" t="s">
+        <v>12</v>
+      </c>
+      <c r="F446" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>91</v>
+      </c>
+      <c r="B447" t="s">
+        <v>526</v>
+      </c>
+      <c r="C447" t="s">
+        <v>527</v>
+      </c>
+      <c r="D447" t="s">
+        <v>3</v>
+      </c>
+      <c r="E447" t="s">
+        <v>12</v>
+      </c>
+      <c r="F447" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>92</v>
+      </c>
+      <c r="B448" t="s">
+        <v>59</v>
+      </c>
+      <c r="C448" t="s">
+        <v>60</v>
+      </c>
+      <c r="D448" t="s">
+        <v>3</v>
+      </c>
+      <c r="E448" t="s">
+        <v>12</v>
+      </c>
+      <c r="F448" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>92</v>
+      </c>
+      <c r="B449" t="s">
+        <v>120</v>
+      </c>
+      <c r="C449" t="s">
+        <v>121</v>
+      </c>
+      <c r="D449" t="s">
+        <v>3</v>
+      </c>
+      <c r="E449" t="s">
+        <v>25</v>
+      </c>
+      <c r="F449" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>93</v>
+      </c>
+      <c r="B450" t="s">
+        <v>59</v>
+      </c>
+      <c r="C450" t="s">
+        <v>60</v>
+      </c>
+      <c r="D450" t="s">
+        <v>3</v>
+      </c>
+      <c r="E450" t="s">
+        <v>12</v>
+      </c>
+      <c r="F450" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>94</v>
+      </c>
+      <c r="B451" t="s">
+        <v>59</v>
+      </c>
+      <c r="C451" t="s">
+        <v>60</v>
+      </c>
+      <c r="D451" t="s">
+        <v>3</v>
+      </c>
+      <c r="E451" t="s">
+        <v>12</v>
+      </c>
+      <c r="F451" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>94</v>
+      </c>
+      <c r="B452" t="s">
+        <v>132</v>
+      </c>
+      <c r="C452" t="s">
+        <v>133</v>
+      </c>
+      <c r="D452" t="s">
+        <v>3</v>
+      </c>
+      <c r="E452" t="s">
+        <v>12</v>
+      </c>
+      <c r="F452" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>662</v>
+      </c>
+      <c r="B453" t="s">
+        <v>132</v>
+      </c>
+      <c r="C453" t="s">
+        <v>133</v>
+      </c>
+      <c r="D453" t="s">
+        <v>3</v>
+      </c>
+      <c r="E453" t="s">
+        <v>12</v>
+      </c>
+      <c r="F453" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>662</v>
+      </c>
+      <c r="B454" t="s">
+        <v>526</v>
+      </c>
+      <c r="C454" t="s">
+        <v>527</v>
+      </c>
+      <c r="D454" t="s">
+        <v>3</v>
+      </c>
+      <c r="E454" t="s">
+        <v>12</v>
+      </c>
+      <c r="F454" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>95</v>
+      </c>
+      <c r="B455" t="s">
+        <v>59</v>
+      </c>
+      <c r="C455" t="s">
+        <v>60</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3</v>
+      </c>
+      <c r="E455" t="s">
+        <v>12</v>
+      </c>
+      <c r="F455" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>96</v>
+      </c>
+      <c r="B456" t="s">
+        <v>59</v>
+      </c>
+      <c r="C456" t="s">
+        <v>60</v>
+      </c>
+      <c r="D456" t="s">
+        <v>3</v>
+      </c>
+      <c r="E456" t="s">
+        <v>12</v>
+      </c>
+      <c r="F456" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>96</v>
+      </c>
+      <c r="B457" t="s">
+        <v>120</v>
+      </c>
+      <c r="C457" t="s">
+        <v>121</v>
+      </c>
+      <c r="D457" t="s">
+        <v>3</v>
+      </c>
+      <c r="E457" t="s">
+        <v>25</v>
+      </c>
+      <c r="F457" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>96</v>
+      </c>
+      <c r="B458" t="s">
+        <v>526</v>
+      </c>
+      <c r="C458" t="s">
+        <v>527</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3</v>
+      </c>
+      <c r="E458" t="s">
+        <v>12</v>
+      </c>
+      <c r="F458" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>563</v>
+      </c>
+      <c r="B459" t="s">
+        <v>563</v>
+      </c>
+      <c r="C459" t="s">
+        <v>564</v>
+      </c>
+      <c r="D459" t="s">
+        <v>3</v>
+      </c>
+      <c r="E459" t="s">
+        <v>12</v>
+      </c>
+      <c r="F459" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>565</v>
+      </c>
+      <c r="B460" t="s">
+        <v>565</v>
+      </c>
+      <c r="C460" t="s">
+        <v>566</v>
+      </c>
+      <c r="D460" t="s">
+        <v>3</v>
+      </c>
+      <c r="E460" t="s">
+        <v>41</v>
+      </c>
+      <c r="F460" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>567</v>
+      </c>
+      <c r="B461" t="s">
+        <v>567</v>
+      </c>
+      <c r="C461" t="s">
+        <v>568</v>
+      </c>
+      <c r="D461" t="s">
+        <v>3</v>
+      </c>
+      <c r="E461" t="s">
+        <v>25</v>
+      </c>
+      <c r="F461" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>569</v>
+      </c>
+      <c r="B462" t="s">
+        <v>569</v>
+      </c>
+      <c r="C462" t="s">
+        <v>570</v>
+      </c>
+      <c r="D462" t="s">
+        <v>3</v>
+      </c>
+      <c r="E462" t="s">
+        <v>12</v>
+      </c>
+      <c r="F462" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>571</v>
+      </c>
+      <c r="B463" t="s">
+        <v>571</v>
+      </c>
+      <c r="C463" t="s">
+        <v>572</v>
+      </c>
+      <c r="D463" t="s">
+        <v>3</v>
+      </c>
+      <c r="E463" t="s">
+        <v>12</v>
+      </c>
+      <c r="F463" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>573</v>
+      </c>
+      <c r="B464" t="s">
+        <v>573</v>
+      </c>
+      <c r="C464" t="s">
+        <v>574</v>
+      </c>
+      <c r="D464" t="s">
+        <v>105</v>
+      </c>
+      <c r="E464" t="s">
+        <v>41</v>
+      </c>
+      <c r="F464" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>663</v>
+      </c>
+      <c r="B465" t="s">
+        <v>411</v>
+      </c>
+      <c r="C465" t="s">
+        <v>412</v>
+      </c>
+      <c r="D465" t="s">
+        <v>3</v>
+      </c>
+      <c r="E465" t="s">
+        <v>41</v>
+      </c>
+      <c r="F465" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>664</v>
+      </c>
+      <c r="B466" t="s">
+        <v>411</v>
+      </c>
+      <c r="C466" t="s">
+        <v>412</v>
+      </c>
+      <c r="D466" t="s">
+        <v>3</v>
+      </c>
+      <c r="E466" t="s">
+        <v>41</v>
+      </c>
+      <c r="F466" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>665</v>
+      </c>
+      <c r="B467" t="s">
+        <v>132</v>
+      </c>
+      <c r="C467" t="s">
+        <v>133</v>
+      </c>
+      <c r="D467" t="s">
+        <v>3</v>
+      </c>
+      <c r="E467" t="s">
+        <v>12</v>
+      </c>
+      <c r="F467" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>665</v>
+      </c>
+      <c r="B468" t="s">
+        <v>526</v>
+      </c>
+      <c r="C468" t="s">
+        <v>527</v>
+      </c>
+      <c r="D468" t="s">
+        <v>3</v>
+      </c>
+      <c r="E468" t="s">
+        <v>12</v>
+      </c>
+      <c r="F468" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>666</v>
+      </c>
+      <c r="B469" t="s">
+        <v>491</v>
+      </c>
+      <c r="C469" t="s">
+        <v>492</v>
+      </c>
+      <c r="D469" t="s">
+        <v>3</v>
+      </c>
+      <c r="E469" t="s">
+        <v>12</v>
+      </c>
+      <c r="F469" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>667</v>
+      </c>
+      <c r="B470" t="s">
+        <v>553</v>
+      </c>
+      <c r="C470" t="s">
+        <v>554</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3</v>
+      </c>
+      <c r="E470" t="s">
+        <v>12</v>
+      </c>
+      <c r="F470" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>575</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D416" t="s">
-        <v>3</v>
-      </c>
-      <c r="E416" t="s">
-        <v>12</v>
-      </c>
-      <c r="F416" t="s">
-        <v>13</v>
+      <c r="C471" t="s">
+        <v>576</v>
+      </c>
+      <c r="D471" t="s">
+        <v>3</v>
+      </c>
+      <c r="E471" t="s">
+        <v>41</v>
+      </c>
+      <c r="F471" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>577</v>
+      </c>
+      <c r="B472" t="s">
+        <v>577</v>
+      </c>
+      <c r="C472" t="s">
+        <v>578</v>
+      </c>
+      <c r="D472" t="s">
+        <v>3</v>
+      </c>
+      <c r="E472" t="s">
+        <v>41</v>
+      </c>
+      <c r="F472" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>579</v>
+      </c>
+      <c r="B473" t="s">
+        <v>579</v>
+      </c>
+      <c r="C473" t="s">
+        <v>580</v>
+      </c>
+      <c r="D473" t="s">
+        <v>3</v>
+      </c>
+      <c r="E473" t="s">
+        <v>41</v>
+      </c>
+      <c r="F473" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>581</v>
+      </c>
+      <c r="B474" t="s">
+        <v>581</v>
+      </c>
+      <c r="C474" t="s">
+        <v>582</v>
+      </c>
+      <c r="D474" t="s">
+        <v>3</v>
+      </c>
+      <c r="E474" t="s">
+        <v>41</v>
+      </c>
+      <c r="F474" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>583</v>
+      </c>
+      <c r="B475" t="s">
+        <v>583</v>
+      </c>
+      <c r="C475" t="s">
+        <v>584</v>
+      </c>
+      <c r="D475" t="s">
+        <v>3</v>
+      </c>
+      <c r="E475" t="s">
+        <v>41</v>
+      </c>
+      <c r="F475" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>585</v>
+      </c>
+      <c r="B476" t="s">
+        <v>585</v>
+      </c>
+      <c r="C476" t="s">
+        <v>586</v>
+      </c>
+      <c r="D476" t="s">
+        <v>3</v>
+      </c>
+      <c r="E476" t="s">
+        <v>12</v>
+      </c>
+      <c r="F476" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>587</v>
+      </c>
+      <c r="B477" t="s">
+        <v>587</v>
+      </c>
+      <c r="C477" t="s">
+        <v>588</v>
+      </c>
+      <c r="D477" t="s">
+        <v>3</v>
+      </c>
+      <c r="E477" t="s">
+        <v>12</v>
+      </c>
+      <c r="F477" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>6</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F416">
-    <sortCondition ref="A1:A416"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F477">
+    <sortCondition ref="A1:A477"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC9AE79-41C4-4FFD-AFEE-57AA938EEAE0}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B904A98F-D6C6-43B0-B55D-9E3E64576122}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2096,7 +2096,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2236,18 +2236,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2597,13 +2585,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3066,8 +3053,8 @@
   <dimension ref="A1:F478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3594,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -7782,13 +7769,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B236" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C236" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -7805,16 +7792,16 @@
         <v>138</v>
       </c>
       <c r="B237" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C237" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F237" t="s">
         <v>17</v>
@@ -7822,7 +7809,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B238" t="s">
         <v>132</v>
@@ -11724,7 +11711,7 @@
       <c r="A433" t="s">
         <v>659</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" s="1" t="s">
         <v>668</v>
       </c>
       <c r="C433" t="s">

--- a/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B904A98F-D6C6-43B0-B55D-9E3E64576122}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B76343F-C2F1-4702-8A8A-3485BD85EB74}"/>
   <bookViews>
     <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B433" authorId="4" shapeId="0" xr:uid="{B6578454-2AA7-4058-9D1A-4A1EED7470CD}">
+    <comment ref="B431" authorId="4" shapeId="0" xr:uid="{B6578454-2AA7-4058-9D1A-4A1EED7470CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B471" authorId="5" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+    <comment ref="B469" authorId="5" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="665">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -1279,12 +1279,6 @@
     <t>Lupinus concinnus</t>
   </si>
   <si>
-    <t>LUSP</t>
-  </si>
-  <si>
-    <t>Lupinus sparsiflorus (?)</t>
-  </si>
-  <si>
     <t>LUSP2</t>
   </si>
   <si>
@@ -2012,12 +2006,6 @@
   </si>
   <si>
     <t>No new growth or green vegetation on SECO in the northwest pit but still there, there's a BAMU in the southwest pit as well, possibly ACHY in the south half of the plot, multiple medium to large sized ARPUs mostly in and/or near pits but not all</t>
-  </si>
-  <si>
-    <t>OESP</t>
-  </si>
-  <si>
-    <t>Oenothera spachiana</t>
   </si>
   <si>
     <t>PEPA (possibly)</t>
@@ -3039,10 +3027,10 @@
   <threadedComment ref="B182" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B433" dT="2023-09-19T19:44:16.40" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{B6578454-2AA7-4058-9D1A-4A1EED7470CD}">
+  <threadedComment ref="B431" dT="2023-09-19T19:44:16.40" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{B6578454-2AA7-4058-9D1A-4A1EED7470CD}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B471" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+  <threadedComment ref="B469" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
 </ThreadedComments>
@@ -3050,11 +3038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F478"/>
+  <dimension ref="A1:F476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,7 +3257,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -3289,7 +3277,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
         <v>132</v>
@@ -3309,7 +3297,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B13" t="s">
         <v>132</v>
@@ -3329,13 +3317,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C14" t="s">
         <v>490</v>
-      </c>
-      <c r="B14" t="s">
-        <v>491</v>
-      </c>
-      <c r="C14" t="s">
-        <v>492</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3349,13 +3337,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3429,7 +3417,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -3449,13 +3437,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B20" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" t="s">
         <v>552</v>
-      </c>
-      <c r="B20" t="s">
-        <v>553</v>
-      </c>
-      <c r="C20" t="s">
-        <v>554</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -3469,13 +3457,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -3489,13 +3477,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -3709,7 +3697,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -3849,13 +3837,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B40" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C40" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -4072,10 +4060,10 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -4309,13 +4297,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B63" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C63" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -4389,7 +4377,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
@@ -4589,7 +4577,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4609,7 +4597,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -4629,7 +4617,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B79" t="s">
         <v>132</v>
@@ -4649,7 +4637,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B80" t="s">
         <v>132</v>
@@ -4669,7 +4657,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B81" t="s">
         <v>132</v>
@@ -5569,13 +5557,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B126" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C126" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -5609,7 +5597,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B128" t="s">
         <v>235</v>
@@ -5669,7 +5657,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5812,10 +5800,10 @@
         <v>76</v>
       </c>
       <c r="B138" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C138" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -5829,13 +5817,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B139" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C139" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -5849,7 +5837,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B140" t="s">
         <v>239</v>
@@ -6009,10 +5997,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B148" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -6055,7 +6043,7 @@
         <v>255</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -6349,13 +6337,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B165" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C165" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -6655,7 +6643,7 @@
         <v>307</v>
       </c>
       <c r="C180" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -6672,7 +6660,7 @@
         <v>308</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C181" t="s">
         <v>309</v>
@@ -6692,7 +6680,7 @@
         <v>310</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C182" t="s">
         <v>311</v>
@@ -6812,10 +6800,10 @@
         <v>136</v>
       </c>
       <c r="B188" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C188" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -6829,7 +6817,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
@@ -7349,13 +7337,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B215" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C215" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -7609,13 +7597,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B228" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C228" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -7749,22 +7737,22 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>400</v>
+        <v>138</v>
       </c>
       <c r="B235" t="s">
-        <v>400</v>
+        <v>59</v>
       </c>
       <c r="C235" t="s">
-        <v>401</v>
+        <v>60</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
       </c>
       <c r="E235" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F235" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -7772,10 +7760,10 @@
         <v>138</v>
       </c>
       <c r="B236" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C236" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
@@ -7789,7 +7777,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B237" t="s">
         <v>132</v>
@@ -7809,33 +7797,33 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>137</v>
+        <v>624</v>
       </c>
       <c r="B238" t="s">
-        <v>132</v>
+        <v>624</v>
       </c>
       <c r="C238" t="s">
-        <v>133</v>
+        <v>625</v>
       </c>
       <c r="D238" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>626</v>
+        <v>400</v>
       </c>
       <c r="B239" t="s">
-        <v>626</v>
+        <v>400</v>
       </c>
       <c r="C239" t="s">
-        <v>627</v>
+        <v>401</v>
       </c>
       <c r="D239" t="s">
         <v>105</v>
@@ -7858,7 +7846,7 @@
         <v>403</v>
       </c>
       <c r="D240" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E240" t="s">
         <v>41</v>
@@ -7898,10 +7886,10 @@
         <v>407</v>
       </c>
       <c r="D242" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E242" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F242" t="s">
         <v>13</v>
@@ -7912,16 +7900,16 @@
         <v>408</v>
       </c>
       <c r="B243" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C243" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D243" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F243" t="s">
         <v>13</v>
@@ -7929,13 +7917,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>411</v>
+      </c>
+      <c r="B244" t="s">
+        <v>409</v>
+      </c>
+      <c r="C244" t="s">
         <v>410</v>
-      </c>
-      <c r="B244" t="s">
-        <v>411</v>
-      </c>
-      <c r="C244" t="s">
-        <v>412</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -7949,13 +7937,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>413</v>
+        <v>626</v>
       </c>
       <c r="B245" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C245" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -7969,13 +7957,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>628</v>
+        <v>409</v>
       </c>
       <c r="B246" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C246" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -7989,13 +7977,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B247" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C247" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -8018,7 +8006,7 @@
         <v>415</v>
       </c>
       <c r="D248" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E248" t="s">
         <v>41</v>
@@ -8038,7 +8026,7 @@
         <v>417</v>
       </c>
       <c r="D249" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E249" t="s">
         <v>41</v>
@@ -8058,10 +8046,10 @@
         <v>419</v>
       </c>
       <c r="D250" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F250" t="s">
         <v>13</v>
@@ -8078,10 +8066,10 @@
         <v>421</v>
       </c>
       <c r="D251" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F251" t="s">
         <v>13</v>
@@ -8101,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F252" t="s">
         <v>13</v>
@@ -8118,10 +8106,10 @@
         <v>425</v>
       </c>
       <c r="D253" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F253" t="s">
         <v>13</v>
@@ -8138,7 +8126,7 @@
         <v>427</v>
       </c>
       <c r="D254" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E254" t="s">
         <v>41</v>
@@ -8181,21 +8169,21 @@
         <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F256" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="B257" t="s">
-        <v>432</v>
+        <v>132</v>
       </c>
       <c r="C257" t="s">
-        <v>433</v>
+        <v>133</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -8209,13 +8197,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="B258" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="C258" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
@@ -8232,10 +8220,10 @@
         <v>18</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
@@ -8252,19 +8240,19 @@
         <v>18</v>
       </c>
       <c r="B260" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C260" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F260" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -8272,16 +8260,16 @@
         <v>18</v>
       </c>
       <c r="B261" t="s">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="C261" t="s">
-        <v>121</v>
+        <v>525</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F261" t="s">
         <v>13</v>
@@ -8289,13 +8277,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B262" t="s">
-        <v>526</v>
+        <v>59</v>
       </c>
       <c r="C262" t="s">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
@@ -8304,7 +8292,7 @@
         <v>12</v>
       </c>
       <c r="F262" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -8312,10 +8300,10 @@
         <v>77</v>
       </c>
       <c r="B263" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C263" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -8329,13 +8317,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B264" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C264" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
@@ -8352,10 +8340,10 @@
         <v>78</v>
       </c>
       <c r="B265" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C265" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
@@ -8372,10 +8360,10 @@
         <v>78</v>
       </c>
       <c r="B266" t="s">
-        <v>132</v>
+        <v>524</v>
       </c>
       <c r="C266" t="s">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -8384,18 +8372,18 @@
         <v>12</v>
       </c>
       <c r="F266" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="B267" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="C267" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -8404,18 +8392,18 @@
         <v>12</v>
       </c>
       <c r="F267" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>493</v>
+        <v>158</v>
       </c>
       <c r="B268" t="s">
-        <v>491</v>
+        <v>155</v>
       </c>
       <c r="C268" t="s">
-        <v>492</v>
+        <v>156</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
@@ -8429,13 +8417,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B269" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C269" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -8449,13 +8437,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>140</v>
+        <v>627</v>
       </c>
       <c r="B270" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C270" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -8469,53 +8457,53 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B271" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C271" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F271" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B272" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C272" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F272" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>629</v>
+        <v>19</v>
       </c>
       <c r="B273" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="C273" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -8532,10 +8520,10 @@
         <v>19</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C274" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -8552,10 +8540,10 @@
         <v>19</v>
       </c>
       <c r="B275" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="C275" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -8564,18 +8552,18 @@
         <v>12</v>
       </c>
       <c r="F275" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B276" t="s">
-        <v>526</v>
+        <v>59</v>
       </c>
       <c r="C276" t="s">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -8584,7 +8572,7 @@
         <v>12</v>
       </c>
       <c r="F276" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -8592,10 +8580,10 @@
         <v>79</v>
       </c>
       <c r="B277" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C277" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -8609,13 +8597,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>79</v>
+        <v>628</v>
       </c>
       <c r="B278" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C278" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
@@ -8629,13 +8617,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B279" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C279" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
@@ -8649,7 +8637,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B280" t="s">
         <v>132</v>
@@ -8669,13 +8657,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>631</v>
+        <v>80</v>
       </c>
       <c r="B281" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C281" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D281" t="s">
         <v>3</v>
@@ -8692,10 +8680,10 @@
         <v>80</v>
       </c>
       <c r="B282" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C282" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
@@ -8709,13 +8697,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="B283" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C283" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
@@ -8729,7 +8717,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>632</v>
+        <v>81</v>
       </c>
       <c r="B284" t="s">
         <v>59</v>
@@ -8752,10 +8740,10 @@
         <v>81</v>
       </c>
       <c r="B285" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C285" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
@@ -8769,13 +8757,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>81</v>
+        <v>631</v>
       </c>
       <c r="B286" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C286" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -8789,7 +8777,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B287" t="s">
         <v>59</v>
@@ -8809,16 +8797,16 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B288" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="C288" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="D288" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E288" t="s">
         <v>12</v>
@@ -8829,33 +8817,33 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B289" t="s">
-        <v>277</v>
+        <v>524</v>
       </c>
       <c r="C289" t="s">
-        <v>278</v>
+        <v>525</v>
       </c>
       <c r="D289" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E289" t="s">
         <v>12</v>
       </c>
       <c r="F289" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B290" t="s">
-        <v>526</v>
+        <v>59</v>
       </c>
       <c r="C290" t="s">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -8864,18 +8852,18 @@
         <v>12</v>
       </c>
       <c r="F290" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B291" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C291" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -8889,13 +8877,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>635</v>
+        <v>82</v>
       </c>
       <c r="B292" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C292" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
@@ -8912,10 +8900,10 @@
         <v>82</v>
       </c>
       <c r="B293" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C293" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -8932,10 +8920,10 @@
         <v>82</v>
       </c>
       <c r="B294" t="s">
-        <v>132</v>
+        <v>524</v>
       </c>
       <c r="C294" t="s">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -8944,18 +8932,18 @@
         <v>12</v>
       </c>
       <c r="F294" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="B295" t="s">
-        <v>526</v>
+        <v>59</v>
       </c>
       <c r="C295" t="s">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -8964,18 +8952,18 @@
         <v>12</v>
       </c>
       <c r="F295" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B296" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C296" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -8989,13 +8977,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B297" t="s">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="C297" t="s">
-        <v>133</v>
+        <v>475</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -9009,13 +8997,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B298" t="s">
-        <v>476</v>
+        <v>59</v>
       </c>
       <c r="C298" t="s">
-        <v>477</v>
+        <v>60</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
@@ -9029,13 +9017,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B299" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C299" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -9049,13 +9037,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B300" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -9069,13 +9057,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C301" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -9089,7 +9077,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B302" t="s">
         <v>59</v>
@@ -9109,13 +9097,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B303" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C303" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -9129,13 +9117,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>639</v>
+        <v>83</v>
       </c>
       <c r="B304" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C304" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -9152,10 +9140,10 @@
         <v>83</v>
       </c>
       <c r="B305" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C305" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -9169,13 +9157,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>83</v>
+        <v>638</v>
       </c>
       <c r="B306" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C306" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -9189,13 +9177,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B307" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C307" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -9209,13 +9197,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>640</v>
+        <v>84</v>
       </c>
       <c r="B308" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C308" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -9232,19 +9220,19 @@
         <v>84</v>
       </c>
       <c r="B309" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C309" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
       </c>
       <c r="E309" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F309" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -9252,19 +9240,19 @@
         <v>84</v>
       </c>
       <c r="B310" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C310" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F310" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -9272,10 +9260,10 @@
         <v>84</v>
       </c>
       <c r="B311" t="s">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="C311" t="s">
-        <v>133</v>
+        <v>475</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -9292,10 +9280,10 @@
         <v>84</v>
       </c>
       <c r="B312" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="C312" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -9304,24 +9292,24 @@
         <v>12</v>
       </c>
       <c r="F312" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="B313" t="s">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="C313" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F313" t="s">
         <v>13</v>
@@ -9329,19 +9317,19 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>434</v>
+        <v>639</v>
       </c>
       <c r="B314" t="s">
-        <v>434</v>
+        <v>120</v>
       </c>
       <c r="C314" t="s">
-        <v>435</v>
+        <v>121</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F314" t="s">
         <v>13</v>
@@ -9349,33 +9337,33 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B315" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C315" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
       </c>
       <c r="E315" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F315" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C316" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -9389,39 +9377,39 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B317" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C317" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
       </c>
       <c r="E317" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F317" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B318" t="s">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="C318" t="s">
-        <v>121</v>
+        <v>525</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F318" t="s">
         <v>13</v>
@@ -9429,93 +9417,93 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>642</v>
-      </c>
-      <c r="B319" t="s">
-        <v>526</v>
-      </c>
-      <c r="C319" t="s">
-        <v>527</v>
-      </c>
-      <c r="D319" t="s">
-        <v>3</v>
-      </c>
-      <c r="E319" t="s">
-        <v>12</v>
-      </c>
-      <c r="F319" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>7</v>
-      </c>
-      <c r="B320">
-        <v>0</v>
-      </c>
-      <c r="C320">
-        <v>0</v>
-      </c>
-      <c r="D320">
-        <v>0</v>
-      </c>
-      <c r="E320">
-        <v>0</v>
-      </c>
-      <c r="F320">
-        <v>0</v>
+        <v>526</v>
+      </c>
+      <c r="B320" t="s">
+        <v>524</v>
+      </c>
+      <c r="C320" t="s">
+        <v>525</v>
+      </c>
+      <c r="D320" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>528</v>
-      </c>
-      <c r="B321" t="s">
-        <v>526</v>
-      </c>
-      <c r="C321" t="s">
-        <v>527</v>
-      </c>
-      <c r="D321" t="s">
-        <v>3</v>
-      </c>
-      <c r="E321" t="s">
-        <v>12</v>
-      </c>
-      <c r="F321" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>8</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
-      <c r="D322">
-        <v>0</v>
-      </c>
-      <c r="E322">
-        <v>0</v>
-      </c>
-      <c r="F322">
-        <v>0</v>
+        <v>434</v>
+      </c>
+      <c r="B322" t="s">
+        <v>434</v>
+      </c>
+      <c r="C322" t="s">
+        <v>435</v>
+      </c>
+      <c r="D322" t="s">
+        <v>105</v>
+      </c>
+      <c r="E322" t="s">
+        <v>41</v>
+      </c>
+      <c r="F322" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>643</v>
+        <v>436</v>
       </c>
       <c r="B323" t="s">
-        <v>643</v>
+        <v>436</v>
       </c>
       <c r="C323" t="s">
-        <v>644</v>
+        <v>437</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -9524,44 +9512,44 @@
         <v>41</v>
       </c>
       <c r="F323" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B324" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C324" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D324" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E324" t="s">
         <v>41</v>
       </c>
       <c r="F324" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B325" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C325" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D325" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E325" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F325" t="s">
         <v>17</v>
@@ -9569,36 +9557,36 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B326" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C326" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
       </c>
       <c r="E326" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F326" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B327" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C327" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D327" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E327" t="s">
         <v>12</v>
@@ -9612,10 +9600,10 @@
         <v>444</v>
       </c>
       <c r="B328" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C328" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -9624,64 +9612,64 @@
         <v>12</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B329" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C329" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
       </c>
       <c r="E329" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F329" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B330" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C330" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
       </c>
       <c r="E330" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F330" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>450</v>
+        <v>641</v>
       </c>
       <c r="B331" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C331" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F331" t="s">
         <v>13</v>
@@ -9709,13 +9697,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="B333" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C333" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -9729,13 +9717,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>454</v>
+        <v>642</v>
       </c>
       <c r="B334" t="s">
-        <v>454</v>
+        <v>642</v>
       </c>
       <c r="C334" t="s">
-        <v>455</v>
+        <v>643</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -9761,7 +9749,7 @@
         <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F335" t="s">
         <v>13</v>
@@ -9769,13 +9757,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>646</v>
+        <v>458</v>
       </c>
       <c r="B336" t="s">
-        <v>646</v>
+        <v>458</v>
       </c>
       <c r="C336" t="s">
-        <v>647</v>
+        <v>459</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -9789,19 +9777,19 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B337" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C337" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F337" t="s">
         <v>13</v>
@@ -9809,19 +9797,19 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B338" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C338" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
       </c>
       <c r="E338" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F338" t="s">
         <v>13</v>
@@ -9829,19 +9817,19 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B339" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C339" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
       </c>
       <c r="E339" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F339" t="s">
         <v>13</v>
@@ -9849,19 +9837,19 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B340" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C340" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D340" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E340" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F340" t="s">
         <v>13</v>
@@ -9869,19 +9857,19 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B341" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C341" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D341" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E341" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F341" t="s">
         <v>13</v>
@@ -9889,19 +9877,19 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B342" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C342" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D342" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E342" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F342" t="s">
         <v>13</v>
@@ -9909,93 +9897,93 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B343" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C343" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D343" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E343" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F343" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B344" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C344" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
       </c>
       <c r="E344" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F344" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B345" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C345" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
       </c>
       <c r="E345" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F345" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B346" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C346" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
       </c>
       <c r="E346" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F346" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B347" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C347" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -10009,13 +9997,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B348" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C348" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -10024,21 +10012,21 @@
         <v>41</v>
       </c>
       <c r="F348" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B349" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C349" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D349" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E349" t="s">
         <v>41</v>
@@ -10049,59 +10037,59 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B350" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C350" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
       </c>
       <c r="E350" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F350" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B351" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C351" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D351" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E351" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F351" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B352" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C352" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
       </c>
       <c r="E352" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F352" t="s">
         <v>13</v>
@@ -10109,13 +10097,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B353" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C353" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -10124,58 +10112,58 @@
         <v>12</v>
       </c>
       <c r="F353" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B354" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C354" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
       </c>
       <c r="E354" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F354" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B355" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C355" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
       </c>
       <c r="E355" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F355" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B356" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C356" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -10184,7 +10172,7 @@
         <v>12</v>
       </c>
       <c r="F356" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -10192,50 +10180,50 @@
         <v>501</v>
       </c>
       <c r="B357" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C357" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
       </c>
       <c r="E357" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F357" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>504</v>
-      </c>
-      <c r="B358" t="s">
-        <v>504</v>
-      </c>
-      <c r="C358" t="s">
-        <v>505</v>
-      </c>
-      <c r="D358" t="s">
-        <v>3</v>
-      </c>
-      <c r="E358" t="s">
-        <v>12</v>
-      </c>
-      <c r="F358" t="s">
-        <v>17</v>
+        <v>644</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>503</v>
+        <v>20</v>
       </c>
       <c r="B359" t="s">
-        <v>504</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -10249,33 +10237,33 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>648</v>
-      </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-      <c r="C360">
-        <v>0</v>
-      </c>
-      <c r="D360">
-        <v>0</v>
-      </c>
-      <c r="E360">
-        <v>0</v>
-      </c>
-      <c r="F360">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B360" t="s">
+        <v>59</v>
+      </c>
+      <c r="C360" t="s">
+        <v>60</v>
+      </c>
+      <c r="D360" t="s">
+        <v>3</v>
+      </c>
+      <c r="E360" t="s">
+        <v>12</v>
+      </c>
+      <c r="F360" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C361" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D361" t="s">
         <v>3</v>
@@ -10289,13 +10277,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B362" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="C362" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -10304,18 +10292,18 @@
         <v>12</v>
       </c>
       <c r="F362" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B363" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C363" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
@@ -10329,19 +10317,19 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>85</v>
+        <v>645</v>
       </c>
       <c r="B364" t="s">
-        <v>526</v>
+        <v>409</v>
       </c>
       <c r="C364" t="s">
-        <v>527</v>
+        <v>410</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
       </c>
       <c r="E364" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F364" t="s">
         <v>13</v>
@@ -10349,73 +10337,73 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>141</v>
+        <v>646</v>
       </c>
       <c r="B365" t="s">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="C365" t="s">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
       </c>
       <c r="E365" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F365" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B366" t="s">
-        <v>411</v>
+        <v>551</v>
       </c>
       <c r="C366" t="s">
-        <v>412</v>
+        <v>552</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
       </c>
       <c r="E366" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F366" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>650</v>
-      </c>
-      <c r="B367" t="s">
-        <v>411</v>
-      </c>
-      <c r="C367" t="s">
-        <v>412</v>
-      </c>
-      <c r="D367" t="s">
-        <v>3</v>
-      </c>
-      <c r="E367" t="s">
-        <v>41</v>
-      </c>
-      <c r="F367" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>650</v>
+        <v>447</v>
       </c>
       <c r="B368" t="s">
-        <v>553</v>
+        <v>445</v>
       </c>
       <c r="C368" t="s">
-        <v>554</v>
+        <v>446</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -10429,33 +10417,33 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>9</v>
-      </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-      <c r="C369">
-        <v>0</v>
-      </c>
-      <c r="D369">
-        <v>0</v>
-      </c>
-      <c r="E369">
-        <v>0</v>
-      </c>
-      <c r="F369">
-        <v>0</v>
+        <v>647</v>
+      </c>
+      <c r="B369" t="s">
+        <v>454</v>
+      </c>
+      <c r="C369" t="s">
+        <v>455</v>
+      </c>
+      <c r="D369" t="s">
+        <v>3</v>
+      </c>
+      <c r="E369" t="s">
+        <v>12</v>
+      </c>
+      <c r="F369" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>449</v>
+        <v>647</v>
       </c>
       <c r="B370" t="s">
-        <v>447</v>
+        <v>551</v>
       </c>
       <c r="C370" t="s">
-        <v>448</v>
+        <v>552</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -10469,13 +10457,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>651</v>
+        <v>159</v>
       </c>
       <c r="B371" t="s">
-        <v>456</v>
+        <v>155</v>
       </c>
       <c r="C371" t="s">
-        <v>457</v>
+        <v>156</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
@@ -10484,18 +10472,18 @@
         <v>12</v>
       </c>
       <c r="F371" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>651</v>
+        <v>159</v>
       </c>
       <c r="B372" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C372" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -10509,13 +10497,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="B373" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="C373" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -10529,13 +10517,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="B374" t="s">
-        <v>553</v>
+        <v>106</v>
       </c>
       <c r="C374" t="s">
-        <v>554</v>
+        <v>107</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -10544,7 +10532,7 @@
         <v>12</v>
       </c>
       <c r="F374" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -10552,19 +10540,19 @@
         <v>86</v>
       </c>
       <c r="B375" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C375" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
       </c>
       <c r="E375" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F375" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -10572,10 +10560,10 @@
         <v>86</v>
       </c>
       <c r="B376" t="s">
-        <v>106</v>
+        <v>524</v>
       </c>
       <c r="C376" t="s">
-        <v>107</v>
+        <v>525</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -10589,33 +10577,33 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>86</v>
+        <v>648</v>
       </c>
       <c r="B377" t="s">
-        <v>120</v>
+        <v>489</v>
       </c>
       <c r="C377" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
       </c>
       <c r="E377" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F377" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>86</v>
+        <v>648</v>
       </c>
       <c r="B378" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="C378" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -10624,18 +10612,18 @@
         <v>12</v>
       </c>
       <c r="F378" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>652</v>
+        <v>87</v>
       </c>
       <c r="B379" t="s">
-        <v>491</v>
+        <v>59</v>
       </c>
       <c r="C379" t="s">
-        <v>492</v>
+        <v>60</v>
       </c>
       <c r="D379" t="s">
         <v>3</v>
@@ -10649,13 +10637,13 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>652</v>
+        <v>87</v>
       </c>
       <c r="B380" t="s">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="C380" t="s">
-        <v>554</v>
+        <v>133</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -10672,10 +10660,10 @@
         <v>87</v>
       </c>
       <c r="B381" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="C381" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -10684,12 +10672,12 @@
         <v>12</v>
       </c>
       <c r="F381" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="B382" t="s">
         <v>132</v>
@@ -10709,13 +10697,13 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B383" t="s">
-        <v>526</v>
+        <v>132</v>
       </c>
       <c r="C383" t="s">
-        <v>527</v>
+        <v>133</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -10724,18 +10712,18 @@
         <v>12</v>
       </c>
       <c r="F383" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>142</v>
+        <v>649</v>
       </c>
       <c r="B384" t="s">
-        <v>132</v>
+        <v>551</v>
       </c>
       <c r="C384" t="s">
-        <v>133</v>
+        <v>552</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -10749,33 +10737,33 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>143</v>
+        <v>650</v>
       </c>
       <c r="B385" t="s">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="C385" t="s">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
       </c>
       <c r="E385" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F385" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B386" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C386" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -10789,33 +10777,33 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B387" t="s">
-        <v>411</v>
+        <v>551</v>
       </c>
       <c r="C387" t="s">
-        <v>412</v>
+        <v>552</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
       </c>
       <c r="E387" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F387" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>654</v>
+        <v>553</v>
       </c>
       <c r="B388" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C388" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -10829,13 +10817,13 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>655</v>
+        <v>108</v>
       </c>
       <c r="B389" t="s">
-        <v>553</v>
+        <v>106</v>
       </c>
       <c r="C389" t="s">
-        <v>554</v>
+        <v>107</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -10844,18 +10832,18 @@
         <v>12</v>
       </c>
       <c r="F389" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>555</v>
+        <v>160</v>
       </c>
       <c r="B390" t="s">
-        <v>553</v>
+        <v>155</v>
       </c>
       <c r="C390" t="s">
-        <v>554</v>
+        <v>156</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -10869,13 +10857,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="B391" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="C391" t="s">
-        <v>107</v>
+        <v>490</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -10884,7 +10872,7 @@
         <v>12</v>
       </c>
       <c r="F391" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -10892,10 +10880,10 @@
         <v>160</v>
       </c>
       <c r="B392" t="s">
-        <v>155</v>
+        <v>551</v>
       </c>
       <c r="C392" t="s">
-        <v>156</v>
+        <v>552</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -10909,13 +10897,13 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>160</v>
+        <v>652</v>
       </c>
       <c r="B393" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="C393" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -10929,13 +10917,13 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B394" t="s">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="C394" t="s">
-        <v>554</v>
+        <v>133</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -10949,13 +10937,13 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>656</v>
+        <v>145</v>
       </c>
       <c r="B395" t="s">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="C395" t="s">
-        <v>554</v>
+        <v>133</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -10969,13 +10957,13 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B396" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C396" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -10984,12 +10972,12 @@
         <v>12</v>
       </c>
       <c r="F396" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B397" t="s">
         <v>132</v>
@@ -11009,13 +10997,13 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>109</v>
+        <v>556</v>
       </c>
       <c r="B398" t="s">
-        <v>106</v>
+        <v>557</v>
       </c>
       <c r="C398" t="s">
-        <v>107</v>
+        <v>558</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -11029,13 +11017,13 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>109</v>
+        <v>590</v>
       </c>
       <c r="B399" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="C399" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -11044,18 +11032,18 @@
         <v>12</v>
       </c>
       <c r="F399" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="B400" t="s">
-        <v>559</v>
+        <v>445</v>
       </c>
       <c r="C400" t="s">
-        <v>560</v>
+        <v>446</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -11064,24 +11052,24 @@
         <v>12</v>
       </c>
       <c r="F400" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>592</v>
+        <v>504</v>
       </c>
       <c r="B401" t="s">
-        <v>326</v>
+        <v>504</v>
       </c>
       <c r="C401" t="s">
-        <v>327</v>
+        <v>505</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
       </c>
       <c r="E401" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F401" t="s">
         <v>13</v>
@@ -11089,33 +11077,33 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="B402" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="C402" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
       </c>
       <c r="E402" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F402" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B403" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C403" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -11129,13 +11117,13 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B404" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C404" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -11149,16 +11137,16 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B405" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C405" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D405" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E405" t="s">
         <v>41</v>
@@ -11169,16 +11157,16 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B406" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C406" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D406" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E406" t="s">
         <v>41</v>
@@ -11189,7 +11177,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B407" t="s">
         <v>514</v>
@@ -11204,21 +11192,21 @@
         <v>41</v>
       </c>
       <c r="F407" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B408" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C408" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D408" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E408" t="s">
         <v>41</v>
@@ -11229,59 +11217,59 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B409" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C409" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D409" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="E409" t="s">
         <v>41</v>
       </c>
       <c r="F409" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B410" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C410" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
       </c>
       <c r="E410" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F410" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B411" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C411" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D411" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E411" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F411" t="s">
         <v>13</v>
@@ -11289,13 +11277,13 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B412" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C412" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -11304,24 +11292,24 @@
         <v>12</v>
       </c>
       <c r="F412" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B413" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C413" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D413" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E413" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F413" t="s">
         <v>13</v>
@@ -11329,19 +11317,19 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="B414" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C414" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D414" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E414" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F414" t="s">
         <v>13</v>
@@ -11361,7 +11349,7 @@
         <v>105</v>
       </c>
       <c r="E415" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F415" t="s">
         <v>13</v>
@@ -11369,7 +11357,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
       <c r="B416" t="s">
         <v>531</v>
@@ -11378,7 +11366,7 @@
         <v>532</v>
       </c>
       <c r="D416" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E416" t="s">
         <v>41</v>
@@ -11389,13 +11377,13 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B417" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C417" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D417" t="s">
         <v>105</v>
@@ -11409,19 +11397,19 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B418" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C418" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
       </c>
       <c r="E418" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F418" t="s">
         <v>13</v>
@@ -11429,19 +11417,19 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B419" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C419" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D419" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E419" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F419" t="s">
         <v>13</v>
@@ -11449,19 +11437,19 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B420" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C420" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D420" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E420" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F420" t="s">
         <v>13</v>
@@ -11469,19 +11457,19 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B421" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C421" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
       </c>
       <c r="E421" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F421" t="s">
         <v>13</v>
@@ -11489,39 +11477,39 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B422" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C422" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D422" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E422" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F422" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B423" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C423" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
       </c>
       <c r="E423" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F423" t="s">
         <v>13</v>
@@ -11532,10 +11520,10 @@
         <v>545</v>
       </c>
       <c r="B424" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C424" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -11544,7 +11532,7 @@
         <v>12</v>
       </c>
       <c r="F424" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -11569,13 +11557,13 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B426" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C426" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -11584,24 +11572,24 @@
         <v>12</v>
       </c>
       <c r="F426" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B427" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C427" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
       </c>
       <c r="E427" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F427" t="s">
         <v>13</v>
@@ -11609,13 +11597,13 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B428" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C428" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -11624,18 +11612,18 @@
         <v>12</v>
       </c>
       <c r="F428" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B429" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C429" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -11649,19 +11637,19 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="B430" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="C430" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
       </c>
       <c r="E430" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F430" t="s">
         <v>13</v>
@@ -11669,53 +11657,53 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>561</v>
-      </c>
-      <c r="B431" t="s">
-        <v>561</v>
+        <v>655</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="C431" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
       </c>
       <c r="E431" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F431" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>657</v>
+        <v>161</v>
       </c>
       <c r="B432" t="s">
-        <v>657</v>
+        <v>155</v>
       </c>
       <c r="C432" t="s">
-        <v>658</v>
+        <v>156</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
       </c>
       <c r="E432" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F432" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>659</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>668</v>
+        <v>161</v>
+      </c>
+      <c r="B433" t="s">
+        <v>454</v>
       </c>
       <c r="C433" t="s">
-        <v>660</v>
+        <v>455</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -11724,18 +11712,18 @@
         <v>12</v>
       </c>
       <c r="F433" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>161</v>
+        <v>492</v>
       </c>
       <c r="B434" t="s">
-        <v>155</v>
+        <v>489</v>
       </c>
       <c r="C434" t="s">
-        <v>156</v>
+        <v>490</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -11749,13 +11737,13 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="B435" t="s">
-        <v>456</v>
+        <v>59</v>
       </c>
       <c r="C435" t="s">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -11764,18 +11752,18 @@
         <v>12</v>
       </c>
       <c r="F435" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>494</v>
+        <v>88</v>
       </c>
       <c r="B436" t="s">
-        <v>491</v>
+        <v>132</v>
       </c>
       <c r="C436" t="s">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -11792,10 +11780,10 @@
         <v>88</v>
       </c>
       <c r="B437" t="s">
-        <v>59</v>
+        <v>474</v>
       </c>
       <c r="C437" t="s">
-        <v>60</v>
+        <v>475</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -11812,10 +11800,10 @@
         <v>88</v>
       </c>
       <c r="B438" t="s">
-        <v>132</v>
+        <v>524</v>
       </c>
       <c r="C438" t="s">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -11824,18 +11812,18 @@
         <v>12</v>
       </c>
       <c r="F438" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B439" t="s">
-        <v>476</v>
+        <v>59</v>
       </c>
       <c r="C439" t="s">
-        <v>477</v>
+        <v>60</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -11849,13 +11837,13 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B440" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C440" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -11869,7 +11857,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B441" t="s">
         <v>59</v>
@@ -11889,13 +11877,13 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B442" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C442" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -11909,7 +11897,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>90</v>
+        <v>657</v>
       </c>
       <c r="B443" t="s">
         <v>59</v>
@@ -11929,13 +11917,13 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B444" t="s">
-        <v>526</v>
+        <v>59</v>
       </c>
       <c r="C444" t="s">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -11944,18 +11932,18 @@
         <v>12</v>
       </c>
       <c r="F444" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>661</v>
+        <v>91</v>
       </c>
       <c r="B445" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="C445" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -11964,12 +11952,12 @@
         <v>12</v>
       </c>
       <c r="F445" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B446" t="s">
         <v>59</v>
@@ -11989,19 +11977,19 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B447" t="s">
-        <v>526</v>
+        <v>120</v>
       </c>
       <c r="C447" t="s">
-        <v>527</v>
+        <v>121</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
       </c>
       <c r="E447" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F447" t="s">
         <v>13</v>
@@ -12009,7 +11997,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B448" t="s">
         <v>59</v>
@@ -12029,33 +12017,33 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B449" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C449" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D449" t="s">
         <v>3</v>
       </c>
       <c r="E449" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F449" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B450" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C450" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D450" t="s">
         <v>3</v>
@@ -12069,13 +12057,13 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>94</v>
+        <v>658</v>
       </c>
       <c r="B451" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C451" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D451" t="s">
         <v>3</v>
@@ -12089,13 +12077,13 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>94</v>
+        <v>658</v>
       </c>
       <c r="B452" t="s">
-        <v>132</v>
+        <v>524</v>
       </c>
       <c r="C452" t="s">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -12104,18 +12092,18 @@
         <v>12</v>
       </c>
       <c r="F452" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>662</v>
+        <v>95</v>
       </c>
       <c r="B453" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C453" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D453" t="s">
         <v>3</v>
@@ -12129,13 +12117,13 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>662</v>
+        <v>96</v>
       </c>
       <c r="B454" t="s">
-        <v>526</v>
+        <v>59</v>
       </c>
       <c r="C454" t="s">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="D454" t="s">
         <v>3</v>
@@ -12144,27 +12132,27 @@
         <v>12</v>
       </c>
       <c r="F454" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B455" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C455" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D455" t="s">
         <v>3</v>
       </c>
       <c r="E455" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F455" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -12172,10 +12160,10 @@
         <v>96</v>
       </c>
       <c r="B456" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="C456" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -12184,24 +12172,24 @@
         <v>12</v>
       </c>
       <c r="F456" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>96</v>
+        <v>561</v>
       </c>
       <c r="B457" t="s">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="C457" t="s">
-        <v>121</v>
+        <v>562</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
       </c>
       <c r="E457" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F457" t="s">
         <v>13</v>
@@ -12209,19 +12197,19 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>96</v>
+        <v>563</v>
       </c>
       <c r="B458" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="C458" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
       </c>
       <c r="E458" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F458" t="s">
         <v>13</v>
@@ -12229,19 +12217,19 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C459" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
       </c>
       <c r="E459" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F459" t="s">
         <v>13</v>
@@ -12249,39 +12237,39 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B460" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C460" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
       </c>
       <c r="E460" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F460" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B461" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C461" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
       </c>
       <c r="E461" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F461" t="s">
         <v>13</v>
@@ -12289,39 +12277,39 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C462" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D462" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E462" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F462" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>571</v>
+        <v>659</v>
       </c>
       <c r="B463" t="s">
-        <v>571</v>
+        <v>409</v>
       </c>
       <c r="C463" t="s">
-        <v>572</v>
+        <v>410</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
       </c>
       <c r="E463" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F463" t="s">
         <v>13</v>
@@ -12329,16 +12317,16 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="B464" t="s">
-        <v>573</v>
+        <v>409</v>
       </c>
       <c r="C464" t="s">
-        <v>574</v>
+        <v>410</v>
       </c>
       <c r="D464" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E464" t="s">
         <v>41</v>
@@ -12349,39 +12337,39 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B465" t="s">
-        <v>411</v>
+        <v>132</v>
       </c>
       <c r="C465" t="s">
-        <v>412</v>
+        <v>133</v>
       </c>
       <c r="D465" t="s">
         <v>3</v>
       </c>
       <c r="E465" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F465" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B466" t="s">
-        <v>411</v>
+        <v>524</v>
       </c>
       <c r="C466" t="s">
-        <v>412</v>
+        <v>525</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
       </c>
       <c r="E466" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F466" t="s">
         <v>13</v>
@@ -12389,13 +12377,13 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B467" t="s">
-        <v>132</v>
+        <v>489</v>
       </c>
       <c r="C467" t="s">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -12409,13 +12397,13 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B468" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="C468" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -12424,58 +12412,58 @@
         <v>12</v>
       </c>
       <c r="F468" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>666</v>
-      </c>
-      <c r="B469" t="s">
-        <v>491</v>
+        <v>573</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="C469" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
       </c>
       <c r="E469" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F469" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="B470" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="C470" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
       </c>
       <c r="E470" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F470" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>575</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
+      </c>
+      <c r="B471" t="s">
+        <v>577</v>
       </c>
       <c r="C471" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -12489,13 +12477,13 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B472" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C472" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -12509,13 +12497,13 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B473" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C473" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -12524,112 +12512,72 @@
         <v>41</v>
       </c>
       <c r="F473" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B474" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C474" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
       </c>
       <c r="E474" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F474" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B475" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C475" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
       </c>
       <c r="E475" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F475" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>585</v>
-      </c>
-      <c r="B476" t="s">
-        <v>585</v>
-      </c>
-      <c r="C476" t="s">
-        <v>586</v>
-      </c>
-      <c r="D476" t="s">
-        <v>3</v>
-      </c>
-      <c r="E476" t="s">
-        <v>12</v>
-      </c>
-      <c r="F476" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>587</v>
-      </c>
-      <c r="B477" t="s">
-        <v>587</v>
-      </c>
-      <c r="C477" t="s">
-        <v>588</v>
-      </c>
-      <c r="D477" t="s">
-        <v>3</v>
-      </c>
-      <c r="E477" t="s">
-        <v>12</v>
-      </c>
-      <c r="F477" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
         <v>6</v>
       </c>
-      <c r="B478">
+      <c r="B476">
         <v>0</v>
       </c>
-      <c r="C478">
+      <c r="C476">
         <v>0</v>
       </c>
-      <c r="D478">
+      <c r="D476">
         <v>0</v>
       </c>
-      <c r="E478">
+      <c r="E476">
         <v>0</v>
       </c>
-      <c r="F478">
+      <c r="F476">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F477">
-    <sortCondition ref="A1:A477"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F475">
+    <sortCondition ref="A1:A475"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B76343F-C2F1-4702-8A8A-3485BD85EB74}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55426C6D-9E40-4EEB-893E-768BD9E3B44C}"/>
   <bookViews>
     <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="664">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -1898,9 +1898,6 @@
   </si>
   <si>
     <t>ATCA</t>
-  </si>
-  <si>
-    <t>Atriplex californica</t>
   </si>
   <si>
     <t>Aristida species between the northeast and southeast pits possibly an ARPU if not than seeded species cover would be 0%</t>
@@ -3041,8 +3038,8 @@
   <dimension ref="A1:F476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A314" sqref="A314"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4300,10 +4297,10 @@
         <v>604</v>
       </c>
       <c r="B63" t="s">
-        <v>604</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>605</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -4312,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,7 +4374,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
@@ -4597,7 +4594,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B79" t="s">
         <v>132</v>
@@ -4637,7 +4634,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B80" t="s">
         <v>132</v>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B81" t="s">
         <v>132</v>
@@ -5557,13 +5554,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>609</v>
+      </c>
+      <c r="B126" t="s">
+        <v>609</v>
+      </c>
+      <c r="C126" t="s">
         <v>610</v>
-      </c>
-      <c r="B126" t="s">
-        <v>610</v>
-      </c>
-      <c r="C126" t="s">
-        <v>611</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -5597,7 +5594,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B128" t="s">
         <v>235</v>
@@ -5817,13 +5814,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>611</v>
+      </c>
+      <c r="B139" t="s">
+        <v>611</v>
+      </c>
+      <c r="C139" t="s">
         <v>612</v>
-      </c>
-      <c r="B139" t="s">
-        <v>612</v>
-      </c>
-      <c r="C139" t="s">
-        <v>613</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -5837,7 +5834,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B140" t="s">
         <v>239</v>
@@ -5997,10 +5994,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B148" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -6337,13 +6334,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>615</v>
+      </c>
+      <c r="B165" t="s">
+        <v>615</v>
+      </c>
+      <c r="C165" t="s">
         <v>616</v>
-      </c>
-      <c r="B165" t="s">
-        <v>616</v>
-      </c>
-      <c r="C165" t="s">
-        <v>617</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -6817,7 +6814,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
@@ -7337,13 +7334,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>619</v>
+      </c>
+      <c r="B215" t="s">
+        <v>619</v>
+      </c>
+      <c r="C215" t="s">
         <v>620</v>
-      </c>
-      <c r="B215" t="s">
-        <v>620</v>
-      </c>
-      <c r="C215" t="s">
-        <v>621</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -7597,13 +7594,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>621</v>
+      </c>
+      <c r="B228" t="s">
+        <v>621</v>
+      </c>
+      <c r="C228" t="s">
         <v>622</v>
-      </c>
-      <c r="B228" t="s">
-        <v>622</v>
-      </c>
-      <c r="C228" t="s">
-        <v>623</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -7797,13 +7794,13 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>623</v>
+      </c>
+      <c r="B238" t="s">
+        <v>623</v>
+      </c>
+      <c r="C238" t="s">
         <v>624</v>
-      </c>
-      <c r="B238" t="s">
-        <v>624</v>
-      </c>
-      <c r="C238" t="s">
-        <v>625</v>
       </c>
       <c r="D238" t="s">
         <v>105</v>
@@ -7937,7 +7934,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B245" t="s">
         <v>409</v>
@@ -8437,7 +8434,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B270" t="s">
         <v>59</v>
@@ -8457,7 +8454,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B271" t="s">
         <v>120</v>
@@ -8477,7 +8474,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B272" t="s">
         <v>132</v>
@@ -8597,7 +8594,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B278" t="s">
         <v>59</v>
@@ -8617,7 +8614,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B279" t="s">
         <v>132</v>
@@ -8637,7 +8634,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B280" t="s">
         <v>132</v>
@@ -8697,7 +8694,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B283" t="s">
         <v>59</v>
@@ -8757,7 +8754,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B286" t="s">
         <v>59</v>
@@ -8777,7 +8774,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B287" t="s">
         <v>59</v>
@@ -8797,7 +8794,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B288" t="s">
         <v>277</v>
@@ -8817,7 +8814,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B289" t="s">
         <v>524</v>
@@ -8837,7 +8834,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B290" t="s">
         <v>59</v>
@@ -8857,7 +8854,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B291" t="s">
         <v>132</v>
@@ -8937,7 +8934,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B295" t="s">
         <v>59</v>
@@ -8957,7 +8954,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B296" t="s">
         <v>132</v>
@@ -8977,7 +8974,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B297" t="s">
         <v>474</v>
@@ -8997,7 +8994,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B298" t="s">
         <v>59</v>
@@ -9017,7 +9014,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B299" t="s">
         <v>132</v>
@@ -9037,7 +9034,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B300" t="s">
         <v>15</v>
@@ -9057,7 +9054,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B301" t="s">
         <v>59</v>
@@ -9077,7 +9074,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B302" t="s">
         <v>59</v>
@@ -9097,7 +9094,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B303" t="s">
         <v>132</v>
@@ -9157,7 +9154,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B306" t="s">
         <v>59</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B307" t="s">
         <v>132</v>
@@ -9317,7 +9314,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B314" t="s">
         <v>120</v>
@@ -9337,7 +9334,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B315" t="s">
         <v>15</v>
@@ -9357,7 +9354,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B316" t="s">
         <v>59</v>
@@ -9377,7 +9374,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B317" t="s">
         <v>120</v>
@@ -9397,7 +9394,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B318" t="s">
         <v>524</v>
@@ -9657,7 +9654,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B331" t="s">
         <v>454</v>
@@ -9717,13 +9714,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>641</v>
+      </c>
+      <c r="B334" t="s">
+        <v>641</v>
+      </c>
+      <c r="C334" t="s">
         <v>642</v>
-      </c>
-      <c r="B334" t="s">
-        <v>642</v>
-      </c>
-      <c r="C334" t="s">
-        <v>643</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -10197,7 +10194,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -10317,7 +10314,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B364" t="s">
         <v>409</v>
@@ -10337,7 +10334,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B365" t="s">
         <v>409</v>
@@ -10357,7 +10354,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B366" t="s">
         <v>551</v>
@@ -10417,7 +10414,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B369" t="s">
         <v>454</v>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B370" t="s">
         <v>551</v>
@@ -10577,7 +10574,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B377" t="s">
         <v>489</v>
@@ -10597,7 +10594,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B378" t="s">
         <v>551</v>
@@ -10717,7 +10714,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B384" t="s">
         <v>551</v>
@@ -10737,7 +10734,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B385" t="s">
         <v>409</v>
@@ -10757,7 +10754,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B386" t="s">
         <v>551</v>
@@ -10777,7 +10774,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B387" t="s">
         <v>551</v>
@@ -10897,7 +10894,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B393" t="s">
         <v>551</v>
@@ -11637,13 +11634,13 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
+        <v>652</v>
+      </c>
+      <c r="B430" t="s">
+        <v>652</v>
+      </c>
+      <c r="C430" t="s">
         <v>653</v>
-      </c>
-      <c r="B430" t="s">
-        <v>653</v>
-      </c>
-      <c r="C430" t="s">
-        <v>654</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -11657,13 +11654,13 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
+        <v>654</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C431" t="s">
         <v>655</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C431" t="s">
-        <v>656</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -11897,7 +11894,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B443" t="s">
         <v>59</v>
@@ -12057,7 +12054,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B451" t="s">
         <v>132</v>
@@ -12077,7 +12074,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B452" t="s">
         <v>524</v>
@@ -12297,7 +12294,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B463" t="s">
         <v>409</v>
@@ -12317,7 +12314,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B464" t="s">
         <v>409</v>
@@ -12337,7 +12334,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B465" t="s">
         <v>132</v>
@@ -12357,7 +12354,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B466" t="s">
         <v>524</v>
@@ -12377,7 +12374,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B467" t="s">
         <v>489</v>
@@ -12397,7 +12394,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B468" t="s">
         <v>551</v>

--- a/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
+++ b/data/data-wrangling-intermediate/01b_edited-species7_location-independent-final-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55426C6D-9E40-4EEB-893E-768BD9E3B44C}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38C0BF40-4CB2-44A3-B78C-F337D1B52EC6}"/>
   <bookViews>
-    <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38490" yWindow="3180" windowWidth="13860" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="663">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -1226,9 +1226,6 @@
   </si>
   <si>
     <t>LILE</t>
-  </si>
-  <si>
-    <t>Leptosiphon lemmonii</t>
   </si>
   <si>
     <t>LILE3</t>
@@ -3038,8 +3035,8 @@
   <dimension ref="A1:F476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3254,7 +3251,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -3274,7 +3271,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B12" t="s">
         <v>132</v>
@@ -3294,7 +3291,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B13" t="s">
         <v>132</v>
@@ -3314,13 +3311,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" t="s">
         <v>488</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>489</v>
-      </c>
-      <c r="C14" t="s">
-        <v>490</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3334,13 +3331,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" t="s">
         <v>524</v>
-      </c>
-      <c r="C15" t="s">
-        <v>525</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3414,7 +3411,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -3434,13 +3431,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20" t="s">
         <v>550</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>551</v>
-      </c>
-      <c r="C20" t="s">
-        <v>552</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -3454,13 +3451,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" t="s">
         <v>409</v>
-      </c>
-      <c r="C21" t="s">
-        <v>410</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -3474,13 +3471,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B22" t="s">
+        <v>550</v>
+      </c>
+      <c r="C22" t="s">
         <v>551</v>
-      </c>
-      <c r="C22" t="s">
-        <v>552</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -3694,7 +3691,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -3834,13 +3831,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>601</v>
+      </c>
+      <c r="B40" t="s">
+        <v>601</v>
+      </c>
+      <c r="C40" t="s">
         <v>602</v>
-      </c>
-      <c r="B40" t="s">
-        <v>602</v>
-      </c>
-      <c r="C40" t="s">
-        <v>603</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -4057,10 +4054,10 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C51" t="s">
         <v>474</v>
-      </c>
-      <c r="C51" t="s">
-        <v>475</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
@@ -4374,7 +4371,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
@@ -4574,7 +4571,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4594,7 +4591,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -4614,7 +4611,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B79" t="s">
         <v>132</v>
@@ -4634,7 +4631,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B80" t="s">
         <v>132</v>
@@ -4654,7 +4651,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B81" t="s">
         <v>132</v>
@@ -5554,13 +5551,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>608</v>
+      </c>
+      <c r="B126" t="s">
+        <v>608</v>
+      </c>
+      <c r="C126" t="s">
         <v>609</v>
-      </c>
-      <c r="B126" t="s">
-        <v>609</v>
-      </c>
-      <c r="C126" t="s">
-        <v>610</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -5594,7 +5591,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B128" t="s">
         <v>235</v>
@@ -5654,7 +5651,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5797,10 +5794,10 @@
         <v>76</v>
       </c>
       <c r="B138" t="s">
+        <v>523</v>
+      </c>
+      <c r="C138" t="s">
         <v>524</v>
-      </c>
-      <c r="C138" t="s">
-        <v>525</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -5814,13 +5811,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>610</v>
+      </c>
+      <c r="B139" t="s">
+        <v>610</v>
+      </c>
+      <c r="C139" t="s">
         <v>611</v>
-      </c>
-      <c r="B139" t="s">
-        <v>611</v>
-      </c>
-      <c r="C139" t="s">
-        <v>612</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -5834,7 +5831,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B140" t="s">
         <v>239</v>
@@ -5994,10 +5991,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B148" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -6040,7 +6037,7 @@
         <v>255</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -6334,13 +6331,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>614</v>
+      </c>
+      <c r="B165" t="s">
+        <v>614</v>
+      </c>
+      <c r="C165" t="s">
         <v>615</v>
-      </c>
-      <c r="B165" t="s">
-        <v>615</v>
-      </c>
-      <c r="C165" t="s">
-        <v>616</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
@@ -6640,7 +6637,7 @@
         <v>307</v>
       </c>
       <c r="C180" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D180" t="s">
         <v>3</v>
@@ -6657,7 +6654,7 @@
         <v>308</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C181" t="s">
         <v>309</v>
@@ -6677,7 +6674,7 @@
         <v>310</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C182" t="s">
         <v>311</v>
@@ -6797,10 +6794,10 @@
         <v>136</v>
       </c>
       <c r="B188" t="s">
+        <v>523</v>
+      </c>
+      <c r="C188" t="s">
         <v>524</v>
-      </c>
-      <c r="C188" t="s">
-        <v>525</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -6814,7 +6811,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
@@ -7334,13 +7331,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>618</v>
+      </c>
+      <c r="B215" t="s">
+        <v>618</v>
+      </c>
+      <c r="C215" t="s">
         <v>619</v>
-      </c>
-      <c r="B215" t="s">
-        <v>619</v>
-      </c>
-      <c r="C215" t="s">
-        <v>620</v>
       </c>
       <c r="D215" t="s">
         <v>3</v>
@@ -7517,16 +7514,16 @@
         <v>380</v>
       </c>
       <c r="B224" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C224" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
         <v>13</v>
@@ -7534,13 +7531,13 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>381</v>
+      </c>
+      <c r="B225" t="s">
+        <v>381</v>
+      </c>
+      <c r="C225" t="s">
         <v>382</v>
-      </c>
-      <c r="B225" t="s">
-        <v>382</v>
-      </c>
-      <c r="C225" t="s">
-        <v>383</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
@@ -7554,13 +7551,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>383</v>
+      </c>
+      <c r="B226" t="s">
+        <v>383</v>
+      </c>
+      <c r="C226" t="s">
         <v>384</v>
-      </c>
-      <c r="B226" t="s">
-        <v>384</v>
-      </c>
-      <c r="C226" t="s">
-        <v>385</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -7574,13 +7571,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>385</v>
+      </c>
+      <c r="B227" t="s">
+        <v>385</v>
+      </c>
+      <c r="C227" t="s">
         <v>386</v>
-      </c>
-      <c r="B227" t="s">
-        <v>386</v>
-      </c>
-      <c r="C227" t="s">
-        <v>387</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
@@ -7594,13 +7591,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>620</v>
+      </c>
+      <c r="B228" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" t="s">
         <v>621</v>
-      </c>
-      <c r="B228" t="s">
-        <v>621</v>
-      </c>
-      <c r="C228" t="s">
-        <v>622</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -7614,13 +7611,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>387</v>
+      </c>
+      <c r="B229" t="s">
+        <v>387</v>
+      </c>
+      <c r="C229" t="s">
         <v>388</v>
-      </c>
-      <c r="B229" t="s">
-        <v>388</v>
-      </c>
-      <c r="C229" t="s">
-        <v>389</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
@@ -7634,13 +7631,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>389</v>
+      </c>
+      <c r="B230" t="s">
+        <v>389</v>
+      </c>
+      <c r="C230" t="s">
         <v>390</v>
-      </c>
-      <c r="B230" t="s">
-        <v>390</v>
-      </c>
-      <c r="C230" t="s">
-        <v>391</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -7654,13 +7651,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" t="s">
+        <v>391</v>
+      </c>
+      <c r="C231" t="s">
         <v>392</v>
-      </c>
-      <c r="B231" t="s">
-        <v>392</v>
-      </c>
-      <c r="C231" t="s">
-        <v>393</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
@@ -7674,13 +7671,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>393</v>
+      </c>
+      <c r="B232" t="s">
+        <v>393</v>
+      </c>
+      <c r="C232" t="s">
         <v>394</v>
-      </c>
-      <c r="B232" t="s">
-        <v>394</v>
-      </c>
-      <c r="C232" t="s">
-        <v>395</v>
       </c>
       <c r="D232" t="s">
         <v>3</v>
@@ -7694,13 +7691,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>395</v>
+      </c>
+      <c r="B233" t="s">
+        <v>395</v>
+      </c>
+      <c r="C233" t="s">
         <v>396</v>
-      </c>
-      <c r="B233" t="s">
-        <v>396</v>
-      </c>
-      <c r="C233" t="s">
-        <v>397</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -7714,13 +7711,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>397</v>
+      </c>
+      <c r="B234" t="s">
+        <v>397</v>
+      </c>
+      <c r="C234" t="s">
         <v>398</v>
-      </c>
-      <c r="B234" t="s">
-        <v>398</v>
-      </c>
-      <c r="C234" t="s">
-        <v>399</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
@@ -7794,13 +7791,13 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>622</v>
+      </c>
+      <c r="B238" t="s">
+        <v>622</v>
+      </c>
+      <c r="C238" t="s">
         <v>623</v>
-      </c>
-      <c r="B238" t="s">
-        <v>623</v>
-      </c>
-      <c r="C238" t="s">
-        <v>624</v>
       </c>
       <c r="D238" t="s">
         <v>105</v>
@@ -7814,13 +7811,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>399</v>
+      </c>
+      <c r="B239" t="s">
+        <v>399</v>
+      </c>
+      <c r="C239" t="s">
         <v>400</v>
-      </c>
-      <c r="B239" t="s">
-        <v>400</v>
-      </c>
-      <c r="C239" t="s">
-        <v>401</v>
       </c>
       <c r="D239" t="s">
         <v>105</v>
@@ -7834,13 +7831,13 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240" t="s">
+        <v>401</v>
+      </c>
+      <c r="C240" t="s">
         <v>402</v>
-      </c>
-      <c r="B240" t="s">
-        <v>402</v>
-      </c>
-      <c r="C240" t="s">
-        <v>403</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -7854,13 +7851,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>403</v>
+      </c>
+      <c r="B241" t="s">
+        <v>403</v>
+      </c>
+      <c r="C241" t="s">
         <v>404</v>
-      </c>
-      <c r="B241" t="s">
-        <v>404</v>
-      </c>
-      <c r="C241" t="s">
-        <v>405</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
@@ -7874,13 +7871,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>405</v>
+      </c>
+      <c r="B242" t="s">
+        <v>405</v>
+      </c>
+      <c r="C242" t="s">
         <v>406</v>
-      </c>
-      <c r="B242" t="s">
-        <v>406</v>
-      </c>
-      <c r="C242" t="s">
-        <v>407</v>
       </c>
       <c r="D242" t="s">
         <v>105</v>
@@ -7894,13 +7891,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>407</v>
+      </c>
+      <c r="B243" t="s">
         <v>408</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>409</v>
-      </c>
-      <c r="C243" t="s">
-        <v>410</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
@@ -7914,13 +7911,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B244" t="s">
+        <v>408</v>
+      </c>
+      <c r="C244" t="s">
         <v>409</v>
-      </c>
-      <c r="C244" t="s">
-        <v>410</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -7934,13 +7931,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B245" t="s">
+        <v>408</v>
+      </c>
+      <c r="C245" t="s">
         <v>409</v>
-      </c>
-      <c r="C245" t="s">
-        <v>410</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
@@ -7954,13 +7951,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>408</v>
+      </c>
+      <c r="B246" t="s">
+        <v>408</v>
+      </c>
+      <c r="C246" t="s">
         <v>409</v>
-      </c>
-      <c r="B246" t="s">
-        <v>409</v>
-      </c>
-      <c r="C246" t="s">
-        <v>410</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
@@ -7974,13 +7971,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>411</v>
+      </c>
+      <c r="B247" t="s">
+        <v>411</v>
+      </c>
+      <c r="C247" t="s">
         <v>412</v>
-      </c>
-      <c r="B247" t="s">
-        <v>412</v>
-      </c>
-      <c r="C247" t="s">
-        <v>413</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
@@ -7994,13 +7991,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>413</v>
+      </c>
+      <c r="B248" t="s">
+        <v>413</v>
+      </c>
+      <c r="C248" t="s">
         <v>414</v>
-      </c>
-      <c r="B248" t="s">
-        <v>414</v>
-      </c>
-      <c r="C248" t="s">
-        <v>415</v>
       </c>
       <c r="D248" t="s">
         <v>105</v>
@@ -8014,13 +8011,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>415</v>
+      </c>
+      <c r="B249" t="s">
+        <v>415</v>
+      </c>
+      <c r="C249" t="s">
         <v>416</v>
-      </c>
-      <c r="B249" t="s">
-        <v>416</v>
-      </c>
-      <c r="C249" t="s">
-        <v>417</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
@@ -8034,13 +8031,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>417</v>
+      </c>
+      <c r="B250" t="s">
+        <v>417</v>
+      </c>
+      <c r="C250" t="s">
         <v>418</v>
-      </c>
-      <c r="B250" t="s">
-        <v>418</v>
-      </c>
-      <c r="C250" t="s">
-        <v>419</v>
       </c>
       <c r="D250" t="s">
         <v>105</v>
@@ -8054,13 +8051,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>419</v>
+      </c>
+      <c r="B251" t="s">
+        <v>419</v>
+      </c>
+      <c r="C251" t="s">
         <v>420</v>
-      </c>
-      <c r="B251" t="s">
-        <v>420</v>
-      </c>
-      <c r="C251" t="s">
-        <v>421</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
@@ -8074,13 +8071,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>421</v>
+      </c>
+      <c r="B252" t="s">
+        <v>421</v>
+      </c>
+      <c r="C252" t="s">
         <v>422</v>
-      </c>
-      <c r="B252" t="s">
-        <v>422</v>
-      </c>
-      <c r="C252" t="s">
-        <v>423</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -8094,13 +8091,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>423</v>
+      </c>
+      <c r="B253" t="s">
+        <v>423</v>
+      </c>
+      <c r="C253" t="s">
         <v>424</v>
-      </c>
-      <c r="B253" t="s">
-        <v>424</v>
-      </c>
-      <c r="C253" t="s">
-        <v>425</v>
       </c>
       <c r="D253" t="s">
         <v>105</v>
@@ -8114,13 +8111,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>425</v>
+      </c>
+      <c r="B254" t="s">
+        <v>425</v>
+      </c>
+      <c r="C254" t="s">
         <v>426</v>
-      </c>
-      <c r="B254" t="s">
-        <v>426</v>
-      </c>
-      <c r="C254" t="s">
-        <v>427</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -8134,13 +8131,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>427</v>
+      </c>
+      <c r="B255" t="s">
+        <v>427</v>
+      </c>
+      <c r="C255" t="s">
         <v>428</v>
-      </c>
-      <c r="B255" t="s">
-        <v>428</v>
-      </c>
-      <c r="C255" t="s">
-        <v>429</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -8154,13 +8151,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>429</v>
+      </c>
+      <c r="B256" t="s">
+        <v>429</v>
+      </c>
+      <c r="C256" t="s">
         <v>430</v>
-      </c>
-      <c r="B256" t="s">
-        <v>430</v>
-      </c>
-      <c r="C256" t="s">
-        <v>431</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
@@ -8257,10 +8254,10 @@
         <v>18</v>
       </c>
       <c r="B261" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" t="s">
         <v>524</v>
-      </c>
-      <c r="C261" t="s">
-        <v>525</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -8357,10 +8354,10 @@
         <v>78</v>
       </c>
       <c r="B266" t="s">
+        <v>523</v>
+      </c>
+      <c r="C266" t="s">
         <v>524</v>
-      </c>
-      <c r="C266" t="s">
-        <v>525</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
@@ -8374,13 +8371,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B267" t="s">
+        <v>488</v>
+      </c>
+      <c r="C267" t="s">
         <v>489</v>
-      </c>
-      <c r="C267" t="s">
-        <v>490</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
@@ -8434,7 +8431,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B270" t="s">
         <v>59</v>
@@ -8454,7 +8451,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B271" t="s">
         <v>120</v>
@@ -8474,7 +8471,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B272" t="s">
         <v>132</v>
@@ -8537,10 +8534,10 @@
         <v>19</v>
       </c>
       <c r="B275" t="s">
+        <v>523</v>
+      </c>
+      <c r="C275" t="s">
         <v>524</v>
-      </c>
-      <c r="C275" t="s">
-        <v>525</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -8594,7 +8591,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B278" t="s">
         <v>59</v>
@@ -8614,7 +8611,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B279" t="s">
         <v>132</v>
@@ -8634,7 +8631,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B280" t="s">
         <v>132</v>
@@ -8694,7 +8691,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B283" t="s">
         <v>59</v>
@@ -8754,7 +8751,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B286" t="s">
         <v>59</v>
@@ -8774,7 +8771,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B287" t="s">
         <v>59</v>
@@ -8794,7 +8791,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B288" t="s">
         <v>277</v>
@@ -8814,13 +8811,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B289" t="s">
+        <v>523</v>
+      </c>
+      <c r="C289" t="s">
         <v>524</v>
-      </c>
-      <c r="C289" t="s">
-        <v>525</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -8834,7 +8831,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B290" t="s">
         <v>59</v>
@@ -8854,7 +8851,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B291" t="s">
         <v>132</v>
@@ -8917,10 +8914,10 @@
         <v>82</v>
       </c>
       <c r="B294" t="s">
+        <v>523</v>
+      </c>
+      <c r="C294" t="s">
         <v>524</v>
-      </c>
-      <c r="C294" t="s">
-        <v>525</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
@@ -8934,7 +8931,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B295" t="s">
         <v>59</v>
@@ -8954,7 +8951,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B296" t="s">
         <v>132</v>
@@ -8974,13 +8971,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B297" t="s">
+        <v>473</v>
+      </c>
+      <c r="C297" t="s">
         <v>474</v>
-      </c>
-      <c r="C297" t="s">
-        <v>475</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -8994,7 +8991,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B298" t="s">
         <v>59</v>
@@ -9014,7 +9011,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B299" t="s">
         <v>132</v>
@@ -9034,7 +9031,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B300" t="s">
         <v>15</v>
@@ -9054,7 +9051,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B301" t="s">
         <v>59</v>
@@ -9074,7 +9071,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B302" t="s">
         <v>59</v>
@@ -9094,7 +9091,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B303" t="s">
         <v>132</v>
@@ -9154,7 +9151,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B306" t="s">
         <v>59</v>
@@ -9174,7 +9171,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B307" t="s">
         <v>132</v>
@@ -9257,10 +9254,10 @@
         <v>84</v>
       </c>
       <c r="B311" t="s">
+        <v>473</v>
+      </c>
+      <c r="C311" t="s">
         <v>474</v>
-      </c>
-      <c r="C311" t="s">
-        <v>475</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -9277,10 +9274,10 @@
         <v>84</v>
       </c>
       <c r="B312" t="s">
+        <v>523</v>
+      </c>
+      <c r="C312" t="s">
         <v>524</v>
-      </c>
-      <c r="C312" t="s">
-        <v>525</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -9294,13 +9291,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
+        <v>431</v>
+      </c>
+      <c r="B313" t="s">
+        <v>431</v>
+      </c>
+      <c r="C313" t="s">
         <v>432</v>
-      </c>
-      <c r="B313" t="s">
-        <v>432</v>
-      </c>
-      <c r="C313" t="s">
-        <v>433</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -9314,7 +9311,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B314" t="s">
         <v>120</v>
@@ -9334,7 +9331,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B315" t="s">
         <v>15</v>
@@ -9354,7 +9351,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B316" t="s">
         <v>59</v>
@@ -9374,7 +9371,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B317" t="s">
         <v>120</v>
@@ -9394,13 +9391,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B318" t="s">
+        <v>523</v>
+      </c>
+      <c r="C318" t="s">
         <v>524</v>
-      </c>
-      <c r="C318" t="s">
-        <v>525</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -9434,13 +9431,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B320" t="s">
+        <v>523</v>
+      </c>
+      <c r="C320" t="s">
         <v>524</v>
-      </c>
-      <c r="C320" t="s">
-        <v>525</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -9474,13 +9471,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
+        <v>433</v>
+      </c>
+      <c r="B322" t="s">
+        <v>433</v>
+      </c>
+      <c r="C322" t="s">
         <v>434</v>
-      </c>
-      <c r="B322" t="s">
-        <v>434</v>
-      </c>
-      <c r="C322" t="s">
-        <v>435</v>
       </c>
       <c r="D322" t="s">
         <v>105</v>
@@ -9494,13 +9491,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
+        <v>435</v>
+      </c>
+      <c r="B323" t="s">
+        <v>435</v>
+      </c>
+      <c r="C323" t="s">
         <v>436</v>
-      </c>
-      <c r="B323" t="s">
-        <v>436</v>
-      </c>
-      <c r="C323" t="s">
-        <v>437</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -9514,13 +9511,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>437</v>
+      </c>
+      <c r="B324" t="s">
+        <v>437</v>
+      </c>
+      <c r="C324" t="s">
         <v>438</v>
-      </c>
-      <c r="B324" t="s">
-        <v>438</v>
-      </c>
-      <c r="C324" t="s">
-        <v>439</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -9534,13 +9531,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>439</v>
+      </c>
+      <c r="B325" t="s">
+        <v>439</v>
+      </c>
+      <c r="C325" t="s">
         <v>440</v>
-      </c>
-      <c r="B325" t="s">
-        <v>440</v>
-      </c>
-      <c r="C325" t="s">
-        <v>441</v>
       </c>
       <c r="D325" t="s">
         <v>105</v>
@@ -9554,13 +9551,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>441</v>
+      </c>
+      <c r="B326" t="s">
+        <v>441</v>
+      </c>
+      <c r="C326" t="s">
         <v>442</v>
-      </c>
-      <c r="B326" t="s">
-        <v>442</v>
-      </c>
-      <c r="C326" t="s">
-        <v>443</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -9574,13 +9571,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>444</v>
+      </c>
+      <c r="B327" t="s">
+        <v>444</v>
+      </c>
+      <c r="C327" t="s">
         <v>445</v>
-      </c>
-      <c r="B327" t="s">
-        <v>445</v>
-      </c>
-      <c r="C327" t="s">
-        <v>446</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -9594,13 +9591,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>443</v>
+      </c>
+      <c r="B328" t="s">
         <v>444</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>445</v>
-      </c>
-      <c r="C328" t="s">
-        <v>446</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -9614,13 +9611,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>447</v>
+      </c>
+      <c r="B329" t="s">
+        <v>447</v>
+      </c>
+      <c r="C329" t="s">
         <v>448</v>
-      </c>
-      <c r="B329" t="s">
-        <v>448</v>
-      </c>
-      <c r="C329" t="s">
-        <v>449</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -9634,13 +9631,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>449</v>
+      </c>
+      <c r="B330" t="s">
+        <v>449</v>
+      </c>
+      <c r="C330" t="s">
         <v>450</v>
-      </c>
-      <c r="B330" t="s">
-        <v>450</v>
-      </c>
-      <c r="C330" t="s">
-        <v>451</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -9654,13 +9651,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B331" t="s">
+        <v>453</v>
+      </c>
+      <c r="C331" t="s">
         <v>454</v>
-      </c>
-      <c r="C331" t="s">
-        <v>455</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
@@ -9674,13 +9671,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>451</v>
+      </c>
+      <c r="B332" t="s">
+        <v>451</v>
+      </c>
+      <c r="C332" t="s">
         <v>452</v>
-      </c>
-      <c r="B332" t="s">
-        <v>452</v>
-      </c>
-      <c r="C332" t="s">
-        <v>453</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -9694,13 +9691,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>453</v>
+      </c>
+      <c r="B333" t="s">
+        <v>453</v>
+      </c>
+      <c r="C333" t="s">
         <v>454</v>
-      </c>
-      <c r="B333" t="s">
-        <v>454</v>
-      </c>
-      <c r="C333" t="s">
-        <v>455</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -9714,13 +9711,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>640</v>
+      </c>
+      <c r="B334" t="s">
+        <v>640</v>
+      </c>
+      <c r="C334" t="s">
         <v>641</v>
-      </c>
-      <c r="B334" t="s">
-        <v>641</v>
-      </c>
-      <c r="C334" t="s">
-        <v>642</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -9734,13 +9731,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>455</v>
+      </c>
+      <c r="B335" t="s">
+        <v>455</v>
+      </c>
+      <c r="C335" t="s">
         <v>456</v>
-      </c>
-      <c r="B335" t="s">
-        <v>456</v>
-      </c>
-      <c r="C335" t="s">
-        <v>457</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
@@ -9754,13 +9751,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>457</v>
+      </c>
+      <c r="B336" t="s">
+        <v>457</v>
+      </c>
+      <c r="C336" t="s">
         <v>458</v>
-      </c>
-      <c r="B336" t="s">
-        <v>458</v>
-      </c>
-      <c r="C336" t="s">
-        <v>459</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -9774,13 +9771,13 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
+        <v>459</v>
+      </c>
+      <c r="B337" t="s">
+        <v>459</v>
+      </c>
+      <c r="C337" t="s">
         <v>460</v>
-      </c>
-      <c r="B337" t="s">
-        <v>460</v>
-      </c>
-      <c r="C337" t="s">
-        <v>461</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -9794,13 +9791,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
+        <v>461</v>
+      </c>
+      <c r="B338" t="s">
+        <v>461</v>
+      </c>
+      <c r="C338" t="s">
         <v>462</v>
-      </c>
-      <c r="B338" t="s">
-        <v>462</v>
-      </c>
-      <c r="C338" t="s">
-        <v>463</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -9814,13 +9811,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>463</v>
+      </c>
+      <c r="B339" t="s">
+        <v>463</v>
+      </c>
+      <c r="C339" t="s">
         <v>464</v>
-      </c>
-      <c r="B339" t="s">
-        <v>464</v>
-      </c>
-      <c r="C339" t="s">
-        <v>465</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -9834,13 +9831,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
+        <v>465</v>
+      </c>
+      <c r="B340" t="s">
+        <v>465</v>
+      </c>
+      <c r="C340" t="s">
         <v>466</v>
-      </c>
-      <c r="B340" t="s">
-        <v>466</v>
-      </c>
-      <c r="C340" t="s">
-        <v>467</v>
       </c>
       <c r="D340" t="s">
         <v>25</v>
@@ -9854,13 +9851,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>467</v>
+      </c>
+      <c r="B341" t="s">
+        <v>467</v>
+      </c>
+      <c r="C341" t="s">
         <v>468</v>
-      </c>
-      <c r="B341" t="s">
-        <v>468</v>
-      </c>
-      <c r="C341" t="s">
-        <v>469</v>
       </c>
       <c r="D341" t="s">
         <v>25</v>
@@ -9874,13 +9871,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
+        <v>469</v>
+      </c>
+      <c r="B342" t="s">
+        <v>469</v>
+      </c>
+      <c r="C342" t="s">
         <v>470</v>
-      </c>
-      <c r="B342" t="s">
-        <v>470</v>
-      </c>
-      <c r="C342" t="s">
-        <v>471</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -9894,13 +9891,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
+        <v>471</v>
+      </c>
+      <c r="B343" t="s">
+        <v>471</v>
+      </c>
+      <c r="C343" t="s">
         <v>472</v>
-      </c>
-      <c r="B343" t="s">
-        <v>472</v>
-      </c>
-      <c r="C343" t="s">
-        <v>473</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -9914,13 +9911,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>473</v>
+      </c>
+      <c r="B344" t="s">
+        <v>473</v>
+      </c>
+      <c r="C344" t="s">
         <v>474</v>
-      </c>
-      <c r="B344" t="s">
-        <v>474</v>
-      </c>
-      <c r="C344" t="s">
-        <v>475</v>
       </c>
       <c r="D344" t="s">
         <v>3</v>
@@ -9934,13 +9931,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>475</v>
+      </c>
+      <c r="B345" t="s">
+        <v>475</v>
+      </c>
+      <c r="C345" t="s">
         <v>476</v>
-      </c>
-      <c r="B345" t="s">
-        <v>476</v>
-      </c>
-      <c r="C345" t="s">
-        <v>477</v>
       </c>
       <c r="D345" t="s">
         <v>3</v>
@@ -9954,13 +9951,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
+        <v>477</v>
+      </c>
+      <c r="B346" t="s">
+        <v>477</v>
+      </c>
+      <c r="C346" t="s">
         <v>478</v>
-      </c>
-      <c r="B346" t="s">
-        <v>478</v>
-      </c>
-      <c r="C346" t="s">
-        <v>479</v>
       </c>
       <c r="D346" t="s">
         <v>3</v>
@@ -9974,13 +9971,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
+        <v>479</v>
+      </c>
+      <c r="B347" t="s">
+        <v>479</v>
+      </c>
+      <c r="C347" t="s">
         <v>480</v>
-      </c>
-      <c r="B347" t="s">
-        <v>480</v>
-      </c>
-      <c r="C347" t="s">
-        <v>481</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
@@ -9994,13 +9991,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>481</v>
+      </c>
+      <c r="B348" t="s">
+        <v>481</v>
+      </c>
+      <c r="C348" t="s">
         <v>482</v>
-      </c>
-      <c r="B348" t="s">
-        <v>482</v>
-      </c>
-      <c r="C348" t="s">
-        <v>483</v>
       </c>
       <c r="D348" t="s">
         <v>3</v>
@@ -10014,13 +10011,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
+        <v>483</v>
+      </c>
+      <c r="B349" t="s">
+        <v>483</v>
+      </c>
+      <c r="C349" t="s">
         <v>484</v>
-      </c>
-      <c r="B349" t="s">
-        <v>484</v>
-      </c>
-      <c r="C349" t="s">
-        <v>485</v>
       </c>
       <c r="D349" t="s">
         <v>25</v>
@@ -10034,13 +10031,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
+        <v>485</v>
+      </c>
+      <c r="B350" t="s">
+        <v>485</v>
+      </c>
+      <c r="C350" t="s">
         <v>486</v>
-      </c>
-      <c r="B350" t="s">
-        <v>486</v>
-      </c>
-      <c r="C350" t="s">
-        <v>487</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -10054,13 +10051,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
+        <v>488</v>
+      </c>
+      <c r="B351" t="s">
+        <v>488</v>
+      </c>
+      <c r="C351" t="s">
         <v>489</v>
-      </c>
-      <c r="B351" t="s">
-        <v>489</v>
-      </c>
-      <c r="C351" t="s">
-        <v>490</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -10074,13 +10071,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>492</v>
+      </c>
+      <c r="B352" t="s">
+        <v>492</v>
+      </c>
+      <c r="C352" t="s">
         <v>493</v>
-      </c>
-      <c r="B352" t="s">
-        <v>493</v>
-      </c>
-      <c r="C352" t="s">
-        <v>494</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -10094,13 +10091,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>494</v>
+      </c>
+      <c r="B353" t="s">
+        <v>494</v>
+      </c>
+      <c r="C353" t="s">
         <v>495</v>
-      </c>
-      <c r="B353" t="s">
-        <v>495</v>
-      </c>
-      <c r="C353" t="s">
-        <v>496</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -10114,13 +10111,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>496</v>
+      </c>
+      <c r="B354" t="s">
+        <v>496</v>
+      </c>
+      <c r="C354" t="s">
         <v>497</v>
-      </c>
-      <c r="B354" t="s">
-        <v>497</v>
-      </c>
-      <c r="C354" t="s">
-        <v>498</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -10134,13 +10131,13 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
+        <v>498</v>
+      </c>
+      <c r="B355" t="s">
+        <v>498</v>
+      </c>
+      <c r="C355" t="s">
         <v>499</v>
-      </c>
-      <c r="B355" t="s">
-        <v>499</v>
-      </c>
-      <c r="C355" t="s">
-        <v>500</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -10154,13 +10151,13 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>501</v>
+      </c>
+      <c r="B356" t="s">
+        <v>501</v>
+      </c>
+      <c r="C356" t="s">
         <v>502</v>
-      </c>
-      <c r="B356" t="s">
-        <v>502</v>
-      </c>
-      <c r="C356" t="s">
-        <v>503</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -10174,13 +10171,13 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
+        <v>500</v>
+      </c>
+      <c r="B357" t="s">
         <v>501</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
         <v>502</v>
-      </c>
-      <c r="C357" t="s">
-        <v>503</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -10194,7 +10191,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -10277,10 +10274,10 @@
         <v>85</v>
       </c>
       <c r="B362" t="s">
+        <v>523</v>
+      </c>
+      <c r="C362" t="s">
         <v>524</v>
-      </c>
-      <c r="C362" t="s">
-        <v>525</v>
       </c>
       <c r="D362" t="s">
         <v>3</v>
@@ -10314,13 +10311,13 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B364" t="s">
+        <v>408</v>
+      </c>
+      <c r="C364" t="s">
         <v>409</v>
-      </c>
-      <c r="C364" t="s">
-        <v>410</v>
       </c>
       <c r="D364" t="s">
         <v>3</v>
@@ -10334,13 +10331,13 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B365" t="s">
+        <v>408</v>
+      </c>
+      <c r="C365" t="s">
         <v>409</v>
-      </c>
-      <c r="C365" t="s">
-        <v>410</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -10354,13 +10351,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B366" t="s">
+        <v>550</v>
+      </c>
+      <c r="C366" t="s">
         <v>551</v>
-      </c>
-      <c r="C366" t="s">
-        <v>552</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -10394,13 +10391,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B368" t="s">
+        <v>444</v>
+      </c>
+      <c r="C368" t="s">
         <v>445</v>
-      </c>
-      <c r="C368" t="s">
-        <v>446</v>
       </c>
       <c r="D368" t="s">
         <v>3</v>
@@ -10414,13 +10411,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B369" t="s">
+        <v>453</v>
+      </c>
+      <c r="C369" t="s">
         <v>454</v>
-      </c>
-      <c r="C369" t="s">
-        <v>455</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
@@ -10434,13 +10431,13 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B370" t="s">
+        <v>550</v>
+      </c>
+      <c r="C370" t="s">
         <v>551</v>
-      </c>
-      <c r="C370" t="s">
-        <v>552</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -10477,10 +10474,10 @@
         <v>159</v>
       </c>
       <c r="B372" t="s">
+        <v>550</v>
+      </c>
+      <c r="C372" t="s">
         <v>551</v>
-      </c>
-      <c r="C372" t="s">
-        <v>552</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -10557,10 +10554,10 @@
         <v>86</v>
       </c>
       <c r="B376" t="s">
+        <v>523</v>
+      </c>
+      <c r="C376" t="s">
         <v>524</v>
-      </c>
-      <c r="C376" t="s">
-        <v>525</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -10574,13 +10571,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B377" t="s">
+        <v>488</v>
+      </c>
+      <c r="C377" t="s">
         <v>489</v>
-      </c>
-      <c r="C377" t="s">
-        <v>490</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -10594,13 +10591,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B378" t="s">
+        <v>550</v>
+      </c>
+      <c r="C378" t="s">
         <v>551</v>
-      </c>
-      <c r="C378" t="s">
-        <v>552</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -10657,10 +10654,10 @@
         <v>87</v>
       </c>
       <c r="B381" t="s">
+        <v>523</v>
+      </c>
+      <c r="C381" t="s">
         <v>524</v>
-      </c>
-      <c r="C381" t="s">
-        <v>525</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -10714,13 +10711,13 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B384" t="s">
+        <v>550</v>
+      </c>
+      <c r="C384" t="s">
         <v>551</v>
-      </c>
-      <c r="C384" t="s">
-        <v>552</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -10734,13 +10731,13 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B385" t="s">
+        <v>408</v>
+      </c>
+      <c r="C385" t="s">
         <v>409</v>
-      </c>
-      <c r="C385" t="s">
-        <v>410</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -10754,13 +10751,13 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B386" t="s">
+        <v>550</v>
+      </c>
+      <c r="C386" t="s">
         <v>551</v>
-      </c>
-      <c r="C386" t="s">
-        <v>552</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -10774,13 +10771,13 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B387" t="s">
+        <v>550</v>
+      </c>
+      <c r="C387" t="s">
         <v>551</v>
-      </c>
-      <c r="C387" t="s">
-        <v>552</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -10794,13 +10791,13 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B388" t="s">
+        <v>550</v>
+      </c>
+      <c r="C388" t="s">
         <v>551</v>
-      </c>
-      <c r="C388" t="s">
-        <v>552</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -10857,10 +10854,10 @@
         <v>160</v>
       </c>
       <c r="B391" t="s">
+        <v>488</v>
+      </c>
+      <c r="C391" t="s">
         <v>489</v>
-      </c>
-      <c r="C391" t="s">
-        <v>490</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -10877,10 +10874,10 @@
         <v>160</v>
       </c>
       <c r="B392" t="s">
+        <v>550</v>
+      </c>
+      <c r="C392" t="s">
         <v>551</v>
-      </c>
-      <c r="C392" t="s">
-        <v>552</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -10894,13 +10891,13 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B393" t="s">
+        <v>550</v>
+      </c>
+      <c r="C393" t="s">
         <v>551</v>
-      </c>
-      <c r="C393" t="s">
-        <v>552</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -10994,13 +10991,13 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
+        <v>555</v>
+      </c>
+      <c r="B398" t="s">
         <v>556</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>557</v>
-      </c>
-      <c r="C398" t="s">
-        <v>558</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -11014,7 +11011,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B399" t="s">
         <v>326</v>
@@ -11034,13 +11031,13 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B400" t="s">
+        <v>444</v>
+      </c>
+      <c r="C400" t="s">
         <v>445</v>
-      </c>
-      <c r="C400" t="s">
-        <v>446</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -11054,13 +11051,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
+        <v>503</v>
+      </c>
+      <c r="B401" t="s">
+        <v>503</v>
+      </c>
+      <c r="C401" t="s">
         <v>504</v>
-      </c>
-      <c r="B401" t="s">
-        <v>504</v>
-      </c>
-      <c r="C401" t="s">
-        <v>505</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -11074,13 +11071,13 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>505</v>
+      </c>
+      <c r="B402" t="s">
+        <v>505</v>
+      </c>
+      <c r="C402" t="s">
         <v>506</v>
-      </c>
-      <c r="B402" t="s">
-        <v>506</v>
-      </c>
-      <c r="C402" t="s">
-        <v>507</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -11094,13 +11091,13 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
+        <v>507</v>
+      </c>
+      <c r="B403" t="s">
         <v>508</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>509</v>
-      </c>
-      <c r="C403" t="s">
-        <v>510</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -11114,13 +11111,13 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
+        <v>508</v>
+      </c>
+      <c r="B404" t="s">
+        <v>508</v>
+      </c>
+      <c r="C404" t="s">
         <v>509</v>
-      </c>
-      <c r="B404" t="s">
-        <v>509</v>
-      </c>
-      <c r="C404" t="s">
-        <v>510</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -11134,13 +11131,13 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
+        <v>510</v>
+      </c>
+      <c r="B405" t="s">
         <v>511</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
         <v>512</v>
-      </c>
-      <c r="C405" t="s">
-        <v>513</v>
       </c>
       <c r="D405" t="s">
         <v>105</v>
@@ -11154,13 +11151,13 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
+        <v>511</v>
+      </c>
+      <c r="B406" t="s">
+        <v>511</v>
+      </c>
+      <c r="C406" t="s">
         <v>512</v>
-      </c>
-      <c r="B406" t="s">
-        <v>512</v>
-      </c>
-      <c r="C406" t="s">
-        <v>513</v>
       </c>
       <c r="D406" t="s">
         <v>105</v>
@@ -11174,13 +11171,13 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
+        <v>513</v>
+      </c>
+      <c r="B407" t="s">
+        <v>513</v>
+      </c>
+      <c r="C407" t="s">
         <v>514</v>
-      </c>
-      <c r="B407" t="s">
-        <v>514</v>
-      </c>
-      <c r="C407" t="s">
-        <v>515</v>
       </c>
       <c r="D407" t="s">
         <v>105</v>
@@ -11194,13 +11191,13 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
+        <v>515</v>
+      </c>
+      <c r="B408" t="s">
+        <v>515</v>
+      </c>
+      <c r="C408" t="s">
         <v>516</v>
-      </c>
-      <c r="B408" t="s">
-        <v>516</v>
-      </c>
-      <c r="C408" t="s">
-        <v>517</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -11214,13 +11211,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
+        <v>517</v>
+      </c>
+      <c r="B409" t="s">
+        <v>517</v>
+      </c>
+      <c r="C409" t="s">
         <v>518</v>
-      </c>
-      <c r="B409" t="s">
-        <v>518</v>
-      </c>
-      <c r="C409" t="s">
-        <v>519</v>
       </c>
       <c r="D409" t="s">
         <v>25</v>
@@ -11234,13 +11231,13 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
+        <v>519</v>
+      </c>
+      <c r="B410" t="s">
+        <v>519</v>
+      </c>
+      <c r="C410" t="s">
         <v>520</v>
-      </c>
-      <c r="B410" t="s">
-        <v>520</v>
-      </c>
-      <c r="C410" t="s">
-        <v>521</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -11254,13 +11251,13 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
+        <v>521</v>
+      </c>
+      <c r="B411" t="s">
+        <v>521</v>
+      </c>
+      <c r="C411" t="s">
         <v>522</v>
-      </c>
-      <c r="B411" t="s">
-        <v>522</v>
-      </c>
-      <c r="C411" t="s">
-        <v>523</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -11274,13 +11271,13 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>523</v>
+      </c>
+      <c r="B412" t="s">
+        <v>523</v>
+      </c>
+      <c r="C412" t="s">
         <v>524</v>
-      </c>
-      <c r="B412" t="s">
-        <v>524</v>
-      </c>
-      <c r="C412" t="s">
-        <v>525</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -11294,13 +11291,13 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
+        <v>526</v>
+      </c>
+      <c r="B413" t="s">
+        <v>526</v>
+      </c>
+      <c r="C413" t="s">
         <v>527</v>
-      </c>
-      <c r="B413" t="s">
-        <v>527</v>
-      </c>
-      <c r="C413" t="s">
-        <v>528</v>
       </c>
       <c r="D413" t="s">
         <v>105</v>
@@ -11314,13 +11311,13 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B414" t="s">
+        <v>528</v>
+      </c>
+      <c r="C414" t="s">
         <v>529</v>
-      </c>
-      <c r="C414" t="s">
-        <v>530</v>
       </c>
       <c r="D414" t="s">
         <v>105</v>
@@ -11334,13 +11331,13 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
+        <v>528</v>
+      </c>
+      <c r="B415" t="s">
+        <v>528</v>
+      </c>
+      <c r="C415" t="s">
         <v>529</v>
-      </c>
-      <c r="B415" t="s">
-        <v>529</v>
-      </c>
-      <c r="C415" t="s">
-        <v>530</v>
       </c>
       <c r="D415" t="s">
         <v>105</v>
@@ -11354,13 +11351,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
+        <v>530</v>
+      </c>
+      <c r="B416" t="s">
+        <v>530</v>
+      </c>
+      <c r="C416" t="s">
         <v>531</v>
-      </c>
-      <c r="B416" t="s">
-        <v>531</v>
-      </c>
-      <c r="C416" t="s">
-        <v>532</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -11374,13 +11371,13 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
+        <v>532</v>
+      </c>
+      <c r="B417" t="s">
+        <v>532</v>
+      </c>
+      <c r="C417" t="s">
         <v>533</v>
-      </c>
-      <c r="B417" t="s">
-        <v>533</v>
-      </c>
-      <c r="C417" t="s">
-        <v>534</v>
       </c>
       <c r="D417" t="s">
         <v>105</v>
@@ -11394,13 +11391,13 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
+        <v>534</v>
+      </c>
+      <c r="B418" t="s">
+        <v>534</v>
+      </c>
+      <c r="C418" t="s">
         <v>535</v>
-      </c>
-      <c r="B418" t="s">
-        <v>535</v>
-      </c>
-      <c r="C418" t="s">
-        <v>536</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -11414,13 +11411,13 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
+        <v>536</v>
+      </c>
+      <c r="B419" t="s">
+        <v>536</v>
+      </c>
+      <c r="C419" t="s">
         <v>537</v>
-      </c>
-      <c r="B419" t="s">
-        <v>537</v>
-      </c>
-      <c r="C419" t="s">
-        <v>538</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -11434,13 +11431,13 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
+        <v>538</v>
+      </c>
+      <c r="B420" t="s">
+        <v>538</v>
+      </c>
+      <c r="C420" t="s">
         <v>539</v>
-      </c>
-      <c r="B420" t="s">
-        <v>539</v>
-      </c>
-      <c r="C420" t="s">
-        <v>540</v>
       </c>
       <c r="D420" t="s">
         <v>105</v>
@@ -11454,13 +11451,13 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
+        <v>540</v>
+      </c>
+      <c r="B421" t="s">
+        <v>540</v>
+      </c>
+      <c r="C421" t="s">
         <v>541</v>
-      </c>
-      <c r="B421" t="s">
-        <v>541</v>
-      </c>
-      <c r="C421" t="s">
-        <v>542</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -11474,13 +11471,13 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>542</v>
+      </c>
+      <c r="B422" t="s">
+        <v>542</v>
+      </c>
+      <c r="C422" t="s">
         <v>543</v>
-      </c>
-      <c r="B422" t="s">
-        <v>543</v>
-      </c>
-      <c r="C422" t="s">
-        <v>544</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -11494,13 +11491,13 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>545</v>
+      </c>
+      <c r="B423" t="s">
+        <v>545</v>
+      </c>
+      <c r="C423" t="s">
         <v>546</v>
-      </c>
-      <c r="B423" t="s">
-        <v>546</v>
-      </c>
-      <c r="C423" t="s">
-        <v>547</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -11514,13 +11511,13 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
+        <v>544</v>
+      </c>
+      <c r="B424" t="s">
         <v>545</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>546</v>
-      </c>
-      <c r="C424" t="s">
-        <v>547</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -11534,13 +11531,13 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>547</v>
+      </c>
+      <c r="B425" t="s">
+        <v>547</v>
+      </c>
+      <c r="C425" t="s">
         <v>548</v>
-      </c>
-      <c r="B425" t="s">
-        <v>548</v>
-      </c>
-      <c r="C425" t="s">
-        <v>549</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -11554,13 +11551,13 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
+        <v>550</v>
+      </c>
+      <c r="B426" t="s">
+        <v>550</v>
+      </c>
+      <c r="C426" t="s">
         <v>551</v>
-      </c>
-      <c r="B426" t="s">
-        <v>551</v>
-      </c>
-      <c r="C426" t="s">
-        <v>552</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -11574,13 +11571,13 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
+        <v>553</v>
+      </c>
+      <c r="B427" t="s">
+        <v>553</v>
+      </c>
+      <c r="C427" t="s">
         <v>554</v>
-      </c>
-      <c r="B427" t="s">
-        <v>554</v>
-      </c>
-      <c r="C427" t="s">
-        <v>555</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -11594,13 +11591,13 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
+        <v>556</v>
+      </c>
+      <c r="B428" t="s">
+        <v>556</v>
+      </c>
+      <c r="C428" t="s">
         <v>557</v>
-      </c>
-      <c r="B428" t="s">
-        <v>557</v>
-      </c>
-      <c r="C428" t="s">
-        <v>558</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -11614,13 +11611,13 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
+        <v>558</v>
+      </c>
+      <c r="B429" t="s">
+        <v>558</v>
+      </c>
+      <c r="C429" t="s">
         <v>559</v>
-      </c>
-      <c r="B429" t="s">
-        <v>559</v>
-      </c>
-      <c r="C429" t="s">
-        <v>560</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -11634,13 +11631,13 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
+        <v>651</v>
+      </c>
+      <c r="B430" t="s">
+        <v>651</v>
+      </c>
+      <c r="C430" t="s">
         <v>652</v>
-      </c>
-      <c r="B430" t="s">
-        <v>652</v>
-      </c>
-      <c r="C430" t="s">
-        <v>653</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -11654,13 +11651,13 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
+        <v>653</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C431" t="s">
         <v>654</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C431" t="s">
-        <v>655</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -11697,10 +11694,10 @@
         <v>161</v>
       </c>
       <c r="B433" t="s">
+        <v>453</v>
+      </c>
+      <c r="C433" t="s">
         <v>454</v>
-      </c>
-      <c r="C433" t="s">
-        <v>455</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -11714,13 +11711,13 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B434" t="s">
+        <v>488</v>
+      </c>
+      <c r="C434" t="s">
         <v>489</v>
-      </c>
-      <c r="C434" t="s">
-        <v>490</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -11777,10 +11774,10 @@
         <v>88</v>
       </c>
       <c r="B437" t="s">
+        <v>473</v>
+      </c>
+      <c r="C437" t="s">
         <v>474</v>
-      </c>
-      <c r="C437" t="s">
-        <v>475</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -11797,10 +11794,10 @@
         <v>88</v>
       </c>
       <c r="B438" t="s">
+        <v>523</v>
+      </c>
+      <c r="C438" t="s">
         <v>524</v>
-      </c>
-      <c r="C438" t="s">
-        <v>525</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -11837,10 +11834,10 @@
         <v>89</v>
       </c>
       <c r="B440" t="s">
+        <v>523</v>
+      </c>
+      <c r="C440" t="s">
         <v>524</v>
-      </c>
-      <c r="C440" t="s">
-        <v>525</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -11877,10 +11874,10 @@
         <v>90</v>
       </c>
       <c r="B442" t="s">
+        <v>523</v>
+      </c>
+      <c r="C442" t="s">
         <v>524</v>
-      </c>
-      <c r="C442" t="s">
-        <v>525</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -11894,7 +11891,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B443" t="s">
         <v>59</v>
@@ -11937,10 +11934,10 @@
         <v>91</v>
       </c>
       <c r="B445" t="s">
+        <v>523</v>
+      </c>
+      <c r="C445" t="s">
         <v>524</v>
-      </c>
-      <c r="C445" t="s">
-        <v>525</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -12054,7 +12051,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B451" t="s">
         <v>132</v>
@@ -12074,13 +12071,13 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B452" t="s">
+        <v>523</v>
+      </c>
+      <c r="C452" t="s">
         <v>524</v>
-      </c>
-      <c r="C452" t="s">
-        <v>525</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -12157,10 +12154,10 @@
         <v>96</v>
       </c>
       <c r="B456" t="s">
+        <v>523</v>
+      </c>
+      <c r="C456" t="s">
         <v>524</v>
-      </c>
-      <c r="C456" t="s">
-        <v>525</v>
       </c>
       <c r="D456" t="s">
         <v>3</v>
@@ -12174,13 +12171,13 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
+        <v>560</v>
+      </c>
+      <c r="B457" t="s">
+        <v>560</v>
+      </c>
+      <c r="C457" t="s">
         <v>561</v>
-      </c>
-      <c r="B457" t="s">
-        <v>561</v>
-      </c>
-      <c r="C457" t="s">
-        <v>562</v>
       </c>
       <c r="D457" t="s">
         <v>3</v>
@@ -12194,13 +12191,13 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
+        <v>562</v>
+      </c>
+      <c r="B458" t="s">
+        <v>562</v>
+      </c>
+      <c r="C458" t="s">
         <v>563</v>
-      </c>
-      <c r="B458" t="s">
-        <v>563</v>
-      </c>
-      <c r="C458" t="s">
-        <v>564</v>
       </c>
       <c r="D458" t="s">
         <v>3</v>
@@ -12214,13 +12211,13 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
+        <v>564</v>
+      </c>
+      <c r="B459" t="s">
+        <v>564</v>
+      </c>
+      <c r="C459" t="s">
         <v>565</v>
-      </c>
-      <c r="B459" t="s">
-        <v>565</v>
-      </c>
-      <c r="C459" t="s">
-        <v>566</v>
       </c>
       <c r="D459" t="s">
         <v>3</v>
@@ -12234,13 +12231,13 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
+        <v>566</v>
+      </c>
+      <c r="B460" t="s">
+        <v>566</v>
+      </c>
+      <c r="C460" t="s">
         <v>567</v>
-      </c>
-      <c r="B460" t="s">
-        <v>567</v>
-      </c>
-      <c r="C460" t="s">
-        <v>568</v>
       </c>
       <c r="D460" t="s">
         <v>3</v>
@@ -12254,13 +12251,13 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
+        <v>568</v>
+      </c>
+      <c r="B461" t="s">
+        <v>568</v>
+      </c>
+      <c r="C461" t="s">
         <v>569</v>
-      </c>
-      <c r="B461" t="s">
-        <v>569</v>
-      </c>
-      <c r="C461" t="s">
-        <v>570</v>
       </c>
       <c r="D461" t="s">
         <v>3</v>
@@ -12274,13 +12271,13 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
+        <v>570</v>
+      </c>
+      <c r="B462" t="s">
+        <v>570</v>
+      </c>
+      <c r="C462" t="s">
         <v>571</v>
-      </c>
-      <c r="B462" t="s">
-        <v>571</v>
-      </c>
-      <c r="C462" t="s">
-        <v>572</v>
       </c>
       <c r="D462" t="s">
         <v>105</v>
@@ -12294,13 +12291,13 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B463" t="s">
+        <v>408</v>
+      </c>
+      <c r="C463" t="s">
         <v>409</v>
-      </c>
-      <c r="C463" t="s">
-        <v>410</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -12314,13 +12311,13 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B464" t="s">
+        <v>408</v>
+      </c>
+      <c r="C464" t="s">
         <v>409</v>
-      </c>
-      <c r="C464" t="s">
-        <v>410</v>
       </c>
       <c r="D464" t="s">
         <v>3</v>
@@ -12334,7 +12331,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B465" t="s">
         <v>132</v>
@@ -12354,13 +12351,13 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B466" t="s">
+        <v>523</v>
+      </c>
+      <c r="C466" t="s">
         <v>524</v>
-      </c>
-      <c r="C466" t="s">
-        <v>525</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -12374,13 +12371,13 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B467" t="s">
+        <v>488</v>
+      </c>
+      <c r="C467" t="s">
         <v>489</v>
-      </c>
-      <c r="C467" t="s">
-        <v>490</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -12394,13 +12391,13 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B468" t="s">
+        <v>550</v>
+      </c>
+      <c r="C468" t="s">
         <v>551</v>
-      </c>
-      <c r="C468" t="s">
-        <v>552</v>
       </c>
       <c r="D468" t="s">
         <v>3</v>
@@ -12414,13 +12411,13 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
+        <v>572</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C469" t="s">
         <v>573</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C469" t="s">
-        <v>574</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -12434,13 +12431,13 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
+        <v>574</v>
+      </c>
+      <c r="B470" t="s">
+        <v>574</v>
+      </c>
+      <c r="C470" t="s">
         <v>575</v>
-      </c>
-      <c r="B470" t="s">
-        <v>575</v>
-      </c>
-      <c r="C470" t="s">
-        <v>576</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>
@@ -12454,13 +12451,13 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
+        <v>576</v>
+      </c>
+      <c r="B471" t="s">
+        <v>576</v>
+      </c>
+      <c r="C471" t="s">
         <v>577</v>
-      </c>
-      <c r="B471" t="s">
-        <v>577</v>
-      </c>
-      <c r="C471" t="s">
-        <v>578</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -12474,13 +12471,13 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
+        <v>578</v>
+      </c>
+      <c r="B472" t="s">
+        <v>578</v>
+      </c>
+      <c r="C472" t="s">
         <v>579</v>
-      </c>
-      <c r="B472" t="s">
-        <v>579</v>
-      </c>
-      <c r="C472" t="s">
-        <v>580</v>
       </c>
       <c r="D472" t="s">
         <v>3</v>
@@ -12494,13 +12491,13 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
+        <v>580</v>
+      </c>
+      <c r="B473" t="s">
+        <v>580</v>
+      </c>
+      <c r="C473" t="s">
         <v>581</v>
-      </c>
-      <c r="B473" t="s">
-        <v>581</v>
-      </c>
-      <c r="C473" t="s">
-        <v>582</v>
       </c>
       <c r="D473" t="s">
         <v>3</v>
@@ -12514,13 +12511,13 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
+        <v>582</v>
+      </c>
+      <c r="B474" t="s">
+        <v>582</v>
+      </c>
+      <c r="C474" t="s">
         <v>583</v>
-      </c>
-      <c r="B474" t="s">
-        <v>583</v>
-      </c>
-      <c r="C474" t="s">
-        <v>584</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
@@ -12534,13 +12531,13 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
+        <v>584</v>
+      </c>
+      <c r="B475" t="s">
+        <v>584</v>
+      </c>
+      <c r="C475" t="s">
         <v>585</v>
-      </c>
-      <c r="B475" t="s">
-        <v>585</v>
-      </c>
-      <c r="C475" t="s">
-        <v>586</v>
       </c>
       <c r="D475" t="s">
         <v>3</v>
